--- a/excel/finished/焦化/CK67-蒸氨（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-蒸氨（日）报表设计.xlsx
@@ -4,29 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="3.蒸氨（日）" sheetId="1" r:id="rId1"/>
     <sheet name="_zhengan_day_hour" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>6-7#  焦炉氨 水 蒸 馏 操 作 记 录</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">                                                                                                                                           </t>
     </r>
     <r>
@@ -93,6 +90,9 @@
     </r>
   </si>
   <si>
+    <t>SGSSG-BSMCSA35-G010-02A</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -615,11 +615,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -651,7 +652,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="宋体"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -726,16 +727,46 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -744,6 +775,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,66 +809,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -837,47 +848,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Times New Roman"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -925,7 +926,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,7 +944,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,37 +998,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,37 +1028,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,55 +1040,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,13 +1058,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1535,17 +1536,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1569,7 +1590,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1577,8 +1613,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1597,51 +1633,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1650,140 +1651,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1798,7 +1799,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1856,6 +1857,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1874,6 +1878,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2421,6 +2428,19 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="_metadata"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2682,7 +2702,7 @@
   <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I2" sqref="I2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2727,18 +2747,23 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="I2" s="28" t="e">
+        <f>[1]_metadata!B1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="Q2" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
@@ -2747,10 +2772,10 @@
     <row r="3" customFormat="1" ht="23.45" customHeight="1" spans="1:25">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2758,198 +2783,198 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="P3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="32" t="s">
+      <c r="Q3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="39" t="s">
+      <c r="R3" s="40"/>
+      <c r="S3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="40" t="s">
+      <c r="T3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="67"/>
+      <c r="U3" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="69"/>
     </row>
     <row r="4" customFormat="1" ht="31.5" customHeight="1" spans="1:25">
       <c r="A4" s="6"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="12"/>
-      <c r="K4" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="33" t="s">
+      <c r="K4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="L4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="M4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="33" t="s">
+      <c r="N4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="42" t="s">
+      <c r="O4" s="35"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="35"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="68"/>
+      <c r="R4" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="36"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="70"/>
     </row>
     <row r="5" customFormat="1" ht="22.5" customHeight="1" spans="1:25">
       <c r="A5" s="6"/>
       <c r="B5" s="10"/>
       <c r="C5" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="F5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="H5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>21</v>
-      </c>
       <c r="J5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="68"/>
+        <v>23</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="70"/>
     </row>
     <row r="6" customFormat="1" ht="44.45" customHeight="1" spans="1:25">
       <c r="A6" s="6"/>
       <c r="B6" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U6" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="V6" s="49"/>
-      <c r="W6" s="50" t="s">
+      <c r="U6" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="X6" s="50" t="s">
+      <c r="V6" s="51"/>
+      <c r="W6" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="Y6" s="69" t="s">
+      <c r="X6" s="52" t="s">
         <v>45</v>
+      </c>
+      <c r="Y6" s="71" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="14.25" spans="2:25">
@@ -3028,15 +3053,15 @@
         <f>IF(_zhengan_day_hour!R2="","",_zhengan_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="U7" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="V7" s="52" t="s">
+      <c r="U7" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="W7" s="53"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="70"/>
+      <c r="V7" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="W7" s="55"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="72"/>
     </row>
     <row r="8" customFormat="1" ht="15.75" spans="2:25">
       <c r="B8" s="15">
@@ -3114,13 +3139,13 @@
         <f>IF(_zhengan_day_hour!R3="","",_zhengan_day_hour!R3)</f>
         <v/>
       </c>
-      <c r="U8" s="51"/>
-      <c r="V8" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="W8" s="53"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="70"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="W8" s="55"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="72"/>
     </row>
     <row r="9" customFormat="1" ht="15.75" spans="2:25">
       <c r="B9" s="15">
@@ -3198,13 +3223,13 @@
         <f>IF(_zhengan_day_hour!R4="","",_zhengan_day_hour!R4)</f>
         <v/>
       </c>
-      <c r="U9" s="51"/>
-      <c r="V9" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="W9" s="53"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="70"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="W9" s="55"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="72"/>
     </row>
     <row r="10" customFormat="1" ht="14.25" spans="2:25">
       <c r="B10" s="15">
@@ -3282,13 +3307,13 @@
         <f>IF(_zhengan_day_hour!R5="","",_zhengan_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="U10" s="51"/>
-      <c r="V10" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="W10" s="56"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="70"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="W10" s="58"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="72"/>
     </row>
     <row r="11" customFormat="1" ht="14.25" spans="2:25">
       <c r="B11" s="15">
@@ -3366,13 +3391,13 @@
         <f>IF(_zhengan_day_hour!R6="","",_zhengan_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="U11" s="51"/>
-      <c r="V11" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="W11" s="56"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="70"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="W11" s="58"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="72"/>
     </row>
     <row r="12" customFormat="1" ht="14.25" spans="2:25">
       <c r="B12" s="15">
@@ -3450,13 +3475,13 @@
         <f>IF(_zhengan_day_hour!R7="","",_zhengan_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="U12" s="51"/>
-      <c r="V12" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="W12" s="56"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="70"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="W12" s="58"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="72"/>
     </row>
     <row r="13" customFormat="1" ht="14.25" spans="2:25">
       <c r="B13" s="15">
@@ -3534,13 +3559,13 @@
         <f>IF(_zhengan_day_hour!R8="","",_zhengan_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="U13" s="51"/>
-      <c r="V13" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="W13" s="56"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="70"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="W13" s="58"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="72"/>
     </row>
     <row r="14" customFormat="1" ht="14.25" spans="2:25">
       <c r="B14" s="15">
@@ -3618,13 +3643,13 @@
         <f>IF(_zhengan_day_hour!R9="","",_zhengan_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="U14" s="51"/>
-      <c r="V14" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="W14" s="56"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="70"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="W14" s="58"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="72"/>
     </row>
     <row r="15" customFormat="1" ht="14.25" spans="2:25">
       <c r="B15" s="15">
@@ -3702,13 +3727,13 @@
         <f>IF(_zhengan_day_hour!R10="","",_zhengan_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="U15" s="51"/>
-      <c r="V15" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="W15" s="58"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="70"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="W15" s="60"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="72"/>
     </row>
     <row r="16" customFormat="1" ht="14.25" spans="2:25">
       <c r="B16" s="15">
@@ -3786,13 +3811,13 @@
         <f>IF(_zhengan_day_hour!R11="","",_zhengan_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="U16" s="51"/>
-      <c r="V16" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="W16" s="53"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="70"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="W16" s="55"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="72"/>
     </row>
     <row r="17" customFormat="1" ht="14.25" spans="2:25">
       <c r="B17" s="15">
@@ -3870,15 +3895,15 @@
         <f>IF(_zhengan_day_hour!R12="","",_zhengan_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="U17" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="V17" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="W17" s="53"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="70"/>
+      <c r="U17" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="V17" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="W17" s="55"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="72"/>
     </row>
     <row r="18" customFormat="1" ht="15.75" spans="2:25">
       <c r="B18" s="15">
@@ -3956,13 +3981,13 @@
         <f>IF(_zhengan_day_hour!R13="","",_zhengan_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="U18" s="51"/>
-      <c r="V18" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="W18" s="56"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="70"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="W18" s="58"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="72"/>
     </row>
     <row r="19" customFormat="1" ht="15.75" spans="2:25">
       <c r="B19" s="15">
@@ -4040,13 +4065,13 @@
         <f>IF(_zhengan_day_hour!R14="","",_zhengan_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="U19" s="51"/>
-      <c r="V19" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="W19" s="56"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="70"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="W19" s="58"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="72"/>
     </row>
     <row r="20" customFormat="1" ht="14.25" spans="2:25">
       <c r="B20" s="15">
@@ -4124,13 +4149,13 @@
         <f>IF(_zhengan_day_hour!R15="","",_zhengan_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="U20" s="51"/>
-      <c r="V20" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="W20" s="56"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="70"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="W20" s="58"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="72"/>
     </row>
     <row r="21" customFormat="1" ht="14.25" spans="2:25">
       <c r="B21" s="15">
@@ -4208,13 +4233,13 @@
         <f>IF(_zhengan_day_hour!R16="","",_zhengan_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="U21" s="51"/>
-      <c r="V21" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="W21" s="56"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="70"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="W21" s="58"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="72"/>
     </row>
     <row r="22" customFormat="1" ht="14.25" spans="2:25">
       <c r="B22" s="15">
@@ -4292,13 +4317,13 @@
         <f>IF(_zhengan_day_hour!R17="","",_zhengan_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="U22" s="51"/>
-      <c r="V22" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="W22" s="56"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="70"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="W22" s="58"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="72"/>
     </row>
     <row r="23" customFormat="1" ht="14.25" spans="2:25">
       <c r="B23" s="15">
@@ -4376,13 +4401,13 @@
         <f>IF(_zhengan_day_hour!R18="","",_zhengan_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="U23" s="51"/>
-      <c r="V23" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="W23" s="56"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="70"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="W23" s="58"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="72"/>
     </row>
     <row r="24" customFormat="1" ht="14.25" spans="2:25">
       <c r="B24" s="15">
@@ -4460,13 +4485,13 @@
         <f>IF(_zhengan_day_hour!R19="","",_zhengan_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="U24" s="51"/>
-      <c r="V24" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="W24" s="53"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="70"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="W24" s="55"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="72"/>
     </row>
     <row r="25" customFormat="1" ht="14.25" spans="2:25">
       <c r="B25" s="15">
@@ -4544,13 +4569,13 @@
         <f>IF(_zhengan_day_hour!R20="","",_zhengan_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="U25" s="51"/>
-      <c r="V25" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="W25" s="53"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="70"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="W25" s="55"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="72"/>
     </row>
     <row r="26" customFormat="1" ht="14.25" spans="2:25">
       <c r="B26" s="15">
@@ -4628,13 +4653,13 @@
         <f>IF(_zhengan_day_hour!R21="","",_zhengan_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="U26" s="51"/>
-      <c r="V26" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="W26" s="56"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="70"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="W26" s="58"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="72"/>
     </row>
     <row r="27" customFormat="1" ht="15" customHeight="1" spans="2:25">
       <c r="B27" s="15">
@@ -4712,11 +4737,11 @@
         <f>IF(_zhengan_day_hour!R22="","",_zhengan_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="U27" s="60"/>
-      <c r="V27" s="61"/>
-      <c r="W27" s="61"/>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="71"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="73"/>
     </row>
     <row r="28" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
       <c r="B28" s="15">
@@ -4794,11 +4819,11 @@
         <f>IF(_zhengan_day_hour!R23="","",_zhengan_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="U28" s="62"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="72"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="74"/>
     </row>
     <row r="29" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
       <c r="B29" s="15">
@@ -4876,11 +4901,11 @@
         <f>IF(_zhengan_day_hour!R24="","",_zhengan_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="U29" s="62"/>
-      <c r="V29" s="63"/>
-      <c r="W29" s="63"/>
-      <c r="X29" s="63"/>
-      <c r="Y29" s="72"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="74"/>
     </row>
     <row r="30" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
       <c r="B30" s="15">
@@ -4958,15 +4983,15 @@
         <f>IF(_zhengan_day_hour!R25="","",_zhengan_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="U30" s="62"/>
-      <c r="V30" s="63"/>
-      <c r="W30" s="63"/>
-      <c r="X30" s="63"/>
-      <c r="Y30" s="72"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="74"/>
     </row>
     <row r="31" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
       <c r="B31" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -4986,15 +5011,15 @@
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="63"/>
-      <c r="W31" s="63"/>
-      <c r="X31" s="63"/>
-      <c r="Y31" s="72"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="74"/>
     </row>
     <row r="32" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
       <c r="B32" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -5014,15 +5039,15 @@
       <c r="R32" s="16"/>
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="63"/>
-      <c r="W32" s="63"/>
-      <c r="X32" s="63"/>
-      <c r="Y32" s="72"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="74"/>
     </row>
     <row r="33" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
       <c r="B33" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -5042,15 +5067,15 @@
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="63"/>
-      <c r="W33" s="63"/>
-      <c r="X33" s="63"/>
-      <c r="Y33" s="72"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="65"/>
+      <c r="W33" s="65"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="74"/>
     </row>
     <row r="34" customFormat="1" ht="14.45" customHeight="1" spans="2:25">
       <c r="B34" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -5070,15 +5095,15 @@
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="19"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="63"/>
-      <c r="X34" s="63"/>
-      <c r="Y34" s="72"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="74"/>
     </row>
     <row r="35" customFormat="1" ht="15.95" customHeight="1" spans="2:25">
       <c r="B35" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
@@ -5087,7 +5112,7 @@
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
       <c r="I35" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
@@ -5096,17 +5121,17 @@
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="63"/>
-      <c r="W35" s="63"/>
-      <c r="X35" s="63"/>
-      <c r="Y35" s="72"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="65"/>
+      <c r="W35" s="65"/>
+      <c r="X35" s="65"/>
+      <c r="Y35" s="74"/>
     </row>
     <row r="36" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
       <c r="B36" s="22"/>
@@ -5128,11 +5153,11 @@
       <c r="R36" s="23"/>
       <c r="S36" s="23"/>
       <c r="T36" s="23"/>
-      <c r="U36" s="62"/>
-      <c r="V36" s="63"/>
-      <c r="W36" s="63"/>
-      <c r="X36" s="63"/>
-      <c r="Y36" s="72"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="65"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="65"/>
+      <c r="Y36" s="74"/>
     </row>
     <row r="37" ht="70.5" customHeight="1" spans="2:25">
       <c r="B37" s="24"/>
@@ -5154,15 +5179,15 @@
       <c r="R37" s="25"/>
       <c r="S37" s="25"/>
       <c r="T37" s="25"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="63"/>
-      <c r="W37" s="63"/>
-      <c r="X37" s="63"/>
-      <c r="Y37" s="72"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="65"/>
+      <c r="W37" s="65"/>
+      <c r="X37" s="65"/>
+      <c r="Y37" s="74"/>
     </row>
     <row r="38" ht="16.5" spans="2:25">
       <c r="B38" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -5171,7 +5196,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
@@ -5180,38 +5205,39 @@
       <c r="N38" s="27"/>
       <c r="O38" s="27"/>
       <c r="P38" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
       <c r="S38" s="27"/>
       <c r="T38" s="27"/>
-      <c r="U38" s="64"/>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="73"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="67"/>
+      <c r="W38" s="67"/>
+      <c r="X38" s="67"/>
+      <c r="Y38" s="75"/>
     </row>
     <row r="39" spans="21:24">
-      <c r="U39" s="66"/>
-      <c r="V39" s="66"/>
-      <c r="W39" s="66"/>
-      <c r="X39" s="66"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="68"/>
+      <c r="X39" s="68"/>
     </row>
     <row r="40" spans="22:24">
-      <c r="V40" s="66"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
     </row>
     <row r="41" spans="22:24">
-      <c r="V41" s="66"/>
-      <c r="W41" s="66"/>
-      <c r="X41" s="66"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
     <mergeCell ref="B1:T1"/>
-    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="Q2:T2"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="Q3:R3"/>
@@ -5262,58 +5288,58 @@
   <sheetData>
     <row r="1" customFormat="1" ht="33.75" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/excel/finished/焦化/CK67-蒸氨（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-蒸氨（日）报表设计.xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="3.蒸氨（日）" sheetId="1" r:id="rId1"/>
     <sheet name="_zhengan_day_hour" sheetId="2" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
+    <sheet name="_analysis_day_shift" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -24,6 +23,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">                                                                                                                                           </t>
     </r>
     <r>
@@ -617,10 +622,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -727,16 +732,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,21 +764,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,7 +778,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,92 +873,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -926,7 +931,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,7 +1033,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,91 +1099,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,61 +1111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,61 +1541,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1612,6 +1573,56 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1619,17 +1630,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1639,10 +1644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1651,16 +1656,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1669,118 +1674,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -2428,19 +2433,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="_metadata"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2701,7 +2693,7 @@
   <sheetPr/>
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:K2"/>
     </sheetView>
   </sheetViews>
@@ -2747,9 +2739,9 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="28" t="e">
-        <f>[1]_metadata!B1</f>
-        <v>#REF!</v>
+      <c r="I2" s="28">
+        <f>_metadata!B1</f>
+        <v>0</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -5346,4 +5338,36 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel/finished/焦化/CK67-蒸氨（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-蒸氨（日）报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="3.蒸氨（日）" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>6-7#  焦炉氨 水 蒸 馏 操 作 记 录</t>
   </si>
@@ -27,7 +27,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                                                                                                                                           </t>
     </r>
@@ -36,6 +36,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年</t>
@@ -45,7 +46,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">          </t>
     </r>
@@ -54,6 +55,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -63,7 +65,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">          </t>
     </r>
@@ -72,6 +74,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日</t>
@@ -81,7 +84,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                                                                                                                                 </t>
     </r>
@@ -89,7 +92,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">             SGSSG-BSMCSA35-G010-02A</t>
     </r>
@@ -103,6 +106,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -112,7 +116,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">      
 </t>
@@ -122,6 +126,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -140,6 +145,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -151,6 +157,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>℃</t>
@@ -178,6 +185,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -187,6 +195,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>℃</t>
@@ -198,6 +207,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -207,6 +217,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>℃</t>
@@ -224,6 +235,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -233,7 +245,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>m</t>
     </r>
@@ -242,7 +254,7 @@
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -250,7 +262,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>/H</t>
     </r>
@@ -270,6 +282,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -281,6 +294,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>℃</t>
@@ -295,7 +309,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -305,6 +319,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>﹟</t>
@@ -316,7 +331,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2</t>
     </r>
@@ -326,6 +341,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>﹟</t>
@@ -412,6 +428,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>挥发氨</t>
@@ -421,7 +438,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  g/l</t>
     </r>
@@ -432,6 +449,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>固定氨</t>
@@ -441,7 +459,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  g/l</t>
     </r>
@@ -487,7 +505,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -496,6 +514,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>夜班记事：</t>
@@ -504,7 +523,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -514,7 +533,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -522,6 +541,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白</t>
@@ -531,6 +551,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -539,7 +560,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -549,7 +570,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -557,6 +578,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中</t>
@@ -566,6 +588,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -574,7 +597,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -584,7 +607,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -593,6 +616,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>交班：</t>
@@ -601,7 +625,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
@@ -610,6 +634,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接班：</t>
@@ -619,15 +644,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="43">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,18 +657,21 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -658,13 +679,14 @@
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -672,25 +694,28 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -698,23 +723,26 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -722,6 +750,7 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -729,394 +758,77 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="43">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1540,252 +1252,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -1800,112 +1270,137 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1914,43 +1409,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1958,91 +1418,54 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2053,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -2067,7 +1490,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -2259,7 +1682,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Line 2"/>
         <xdr:cNvSpPr>
@@ -2305,7 +1728,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Line 3"/>
         <xdr:cNvSpPr>
@@ -2351,7 +1774,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Line 5"/>
         <xdr:cNvSpPr>
@@ -2397,7 +1820,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Line 6"/>
         <xdr:cNvSpPr>
@@ -2685,19 +2108,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="8" max="8" width="9.875" customWidth="1"/>
     <col min="10" max="10" width="13.375" customWidth="1"/>
@@ -2706,199 +2129,199 @@
     <col min="23" max="23" width="8.625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="42" customHeight="1" spans="2:20">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:25" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
     </row>
-    <row r="2" customFormat="1" ht="16.5" spans="2:24">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="28">
-        <f>_metadata!B1</f>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="75">
+        <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="38" t="s">
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
     </row>
-    <row r="3" customFormat="1" ht="23.45" customHeight="1" spans="1:25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:25" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33" t="s">
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="39" t="s">
+      <c r="Q3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="40"/>
-      <c r="S3" s="33" t="s">
+      <c r="R3" s="33"/>
+      <c r="S3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="41" t="s">
+      <c r="T3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="42" t="s">
+      <c r="U3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="69"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="56"/>
     </row>
-    <row r="4" customFormat="1" ht="31.5" customHeight="1" spans="1:25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+    <row r="4" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="35"/>
+      <c r="I4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="34" t="s">
+      <c r="J4" s="35"/>
+      <c r="K4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="34" t="s">
+      <c r="O4" s="44"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="R4" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="36"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="70"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="59"/>
     </row>
-    <row r="5" customFormat="1" ht="22.5" customHeight="1" spans="1:25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="13" t="s">
+    <row r="5" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="40"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="70"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="59"/>
     </row>
-    <row r="6" customFormat="1" ht="44.45" customHeight="1" spans="1:25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="1:25" ht="44.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="40"/>
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2955,2289 +2378,2285 @@
       <c r="T6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="U6" s="50" t="s">
+      <c r="U6" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="V6" s="51"/>
-      <c r="W6" s="52" t="s">
+      <c r="V6" s="37"/>
+      <c r="W6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="X6" s="52" t="s">
+      <c r="X6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Y6" s="71" t="s">
+      <c r="Y6" s="22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="14.25" spans="2:25">
-      <c r="B7" s="15">
+    <row r="7" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="7">
         <v>0</v>
       </c>
-      <c r="C7" s="16" t="str">
+      <c r="C7" s="8" t="str">
         <f>IF(_zhengan_day_hour!A2="","",_zhengan_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D7" s="16" t="str">
+      <c r="D7" s="8" t="str">
         <f>IF(_zhengan_day_hour!B2="","",_zhengan_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E7" s="16" t="str">
+      <c r="E7" s="8" t="str">
         <f>IF(_zhengan_day_hour!C2="","",_zhengan_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F7" s="16" t="str">
+      <c r="F7" s="8" t="str">
         <f>IF(_zhengan_day_hour!D2="","",_zhengan_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G7" s="16" t="str">
+      <c r="G7" s="8" t="str">
         <f>IF(_zhengan_day_hour!E2="","",_zhengan_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H7" s="16" t="str">
+      <c r="H7" s="8" t="str">
         <f>IF(_zhengan_day_hour!F2="","",_zhengan_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I7" s="16" t="str">
+      <c r="I7" s="8" t="str">
         <f>IF(_zhengan_day_hour!G2="","",_zhengan_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J7" s="16" t="str">
+      <c r="J7" s="8" t="str">
         <f>IF(_zhengan_day_hour!H2="","",_zhengan_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K7" s="16" t="str">
+      <c r="K7" s="8" t="str">
         <f>IF(_zhengan_day_hour!I2="","",_zhengan_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L7" s="16" t="str">
+      <c r="L7" s="8" t="str">
         <f>IF(_zhengan_day_hour!J2="","",_zhengan_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M7" s="16" t="str">
+      <c r="M7" s="8" t="str">
         <f>IF(_zhengan_day_hour!K2="","",_zhengan_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N7" s="16" t="str">
+      <c r="N7" s="8" t="str">
         <f>IF(_zhengan_day_hour!L2="","",_zhengan_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O7" s="16" t="str">
+      <c r="O7" s="8" t="str">
         <f>IF(_zhengan_day_hour!M2="","",_zhengan_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P7" s="16" t="str">
+      <c r="P7" s="8" t="str">
         <f>IF(_zhengan_day_hour!N2="","",_zhengan_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q7" s="16" t="str">
+      <c r="Q7" s="8" t="str">
         <f>IF(_zhengan_day_hour!O2="","",_zhengan_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R7" s="16" t="str">
+      <c r="R7" s="8" t="str">
         <f>IF(_zhengan_day_hour!P2="","",_zhengan_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S7" s="16" t="str">
+      <c r="S7" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q2="","",_zhengan_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="T7" s="16" t="str">
+      <c r="T7" s="8" t="str">
         <f>IF(_zhengan_day_hour!R2="","",_zhengan_day_hour!R2)</f>
         <v/>
       </c>
       <c r="U7" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="54" t="s">
+      <c r="V7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="W7" s="55"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="72"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="23"/>
     </row>
-    <row r="8" customFormat="1" ht="15.75" spans="2:25">
-      <c r="B8" s="15">
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="C8" s="16" t="str">
+    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B8" s="7">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="C8" s="8" t="str">
         <f>IF(_zhengan_day_hour!A3="","",_zhengan_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D8" s="16" t="str">
+      <c r="D8" s="8" t="str">
         <f>IF(_zhengan_day_hour!B3="","",_zhengan_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E8" s="16" t="str">
+      <c r="E8" s="8" t="str">
         <f>IF(_zhengan_day_hour!C3="","",_zhengan_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F8" s="16" t="str">
+      <c r="F8" s="8" t="str">
         <f>IF(_zhengan_day_hour!D3="","",_zhengan_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G8" s="16" t="str">
+      <c r="G8" s="8" t="str">
         <f>IF(_zhengan_day_hour!E3="","",_zhengan_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H8" s="16" t="str">
+      <c r="H8" s="8" t="str">
         <f>IF(_zhengan_day_hour!F3="","",_zhengan_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I8" s="16" t="str">
+      <c r="I8" s="8" t="str">
         <f>IF(_zhengan_day_hour!G3="","",_zhengan_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J8" s="16" t="str">
+      <c r="J8" s="8" t="str">
         <f>IF(_zhengan_day_hour!H3="","",_zhengan_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K8" s="16" t="str">
+      <c r="K8" s="8" t="str">
         <f>IF(_zhengan_day_hour!I3="","",_zhengan_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L8" s="16" t="str">
+      <c r="L8" s="8" t="str">
         <f>IF(_zhengan_day_hour!J3="","",_zhengan_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M8" s="16" t="str">
+      <c r="M8" s="8" t="str">
         <f>IF(_zhengan_day_hour!K3="","",_zhengan_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N8" s="16" t="str">
+      <c r="N8" s="8" t="str">
         <f>IF(_zhengan_day_hour!L3="","",_zhengan_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O8" s="16" t="str">
+      <c r="O8" s="8" t="str">
         <f>IF(_zhengan_day_hour!M3="","",_zhengan_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P8" s="16" t="str">
+      <c r="P8" s="8" t="str">
         <f>IF(_zhengan_day_hour!N3="","",_zhengan_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q8" s="16" t="str">
+      <c r="Q8" s="8" t="str">
         <f>IF(_zhengan_day_hour!O3="","",_zhengan_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R8" s="16" t="str">
+      <c r="R8" s="8" t="str">
         <f>IF(_zhengan_day_hour!P3="","",_zhengan_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S8" s="16" t="str">
+      <c r="S8" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q3="","",_zhengan_day_hour!Q3)</f>
         <v/>
       </c>
-      <c r="T8" s="16" t="str">
+      <c r="T8" s="8" t="str">
         <f>IF(_zhengan_day_hour!R3="","",_zhengan_day_hour!R3)</f>
         <v/>
       </c>
       <c r="U8" s="53"/>
-      <c r="V8" s="54" t="s">
+      <c r="V8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="W8" s="55"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="72"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="23"/>
     </row>
-    <row r="9" customFormat="1" ht="15.75" spans="2:25">
-      <c r="B9" s="15">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="C9" s="16" t="str">
+    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B9" s="7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C9" s="8" t="str">
         <f>IF(_zhengan_day_hour!A4="","",_zhengan_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D9" s="16" t="str">
+      <c r="D9" s="8" t="str">
         <f>IF(_zhengan_day_hour!B4="","",_zhengan_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E9" s="16" t="str">
+      <c r="E9" s="8" t="str">
         <f>IF(_zhengan_day_hour!C4="","",_zhengan_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F9" s="16" t="str">
+      <c r="F9" s="8" t="str">
         <f>IF(_zhengan_day_hour!D4="","",_zhengan_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G9" s="16" t="str">
+      <c r="G9" s="8" t="str">
         <f>IF(_zhengan_day_hour!E4="","",_zhengan_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H9" s="16" t="str">
+      <c r="H9" s="8" t="str">
         <f>IF(_zhengan_day_hour!F4="","",_zhengan_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I9" s="16" t="str">
+      <c r="I9" s="8" t="str">
         <f>IF(_zhengan_day_hour!G4="","",_zhengan_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J9" s="16" t="str">
+      <c r="J9" s="8" t="str">
         <f>IF(_zhengan_day_hour!H4="","",_zhengan_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K9" s="16" t="str">
+      <c r="K9" s="8" t="str">
         <f>IF(_zhengan_day_hour!I4="","",_zhengan_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L9" s="16" t="str">
+      <c r="L9" s="8" t="str">
         <f>IF(_zhengan_day_hour!J4="","",_zhengan_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M9" s="16" t="str">
+      <c r="M9" s="8" t="str">
         <f>IF(_zhengan_day_hour!K4="","",_zhengan_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N9" s="16" t="str">
+      <c r="N9" s="8" t="str">
         <f>IF(_zhengan_day_hour!L4="","",_zhengan_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O9" s="16" t="str">
+      <c r="O9" s="8" t="str">
         <f>IF(_zhengan_day_hour!M4="","",_zhengan_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P9" s="16" t="str">
+      <c r="P9" s="8" t="str">
         <f>IF(_zhengan_day_hour!N4="","",_zhengan_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q9" s="16" t="str">
+      <c r="Q9" s="8" t="str">
         <f>IF(_zhengan_day_hour!O4="","",_zhengan_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R9" s="16" t="str">
+      <c r="R9" s="8" t="str">
         <f>IF(_zhengan_day_hour!P4="","",_zhengan_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S9" s="16" t="str">
+      <c r="S9" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q4="","",_zhengan_day_hour!Q4)</f>
         <v/>
       </c>
-      <c r="T9" s="16" t="str">
+      <c r="T9" s="8" t="str">
         <f>IF(_zhengan_day_hour!R4="","",_zhengan_day_hour!R4)</f>
         <v/>
       </c>
       <c r="U9" s="53"/>
-      <c r="V9" s="54" t="s">
+      <c r="V9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="55"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="72"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="23"/>
     </row>
-    <row r="10" customFormat="1" ht="14.25" spans="2:25">
-      <c r="B10" s="15">
+    <row r="10" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B10" s="7">
         <v>0.125</v>
       </c>
-      <c r="C10" s="16" t="str">
+      <c r="C10" s="8" t="str">
         <f>IF(_zhengan_day_hour!A5="","",_zhengan_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D10" s="16" t="str">
+      <c r="D10" s="8" t="str">
         <f>IF(_zhengan_day_hour!B5="","",_zhengan_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E10" s="16" t="str">
+      <c r="E10" s="8" t="str">
         <f>IF(_zhengan_day_hour!C5="","",_zhengan_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F10" s="16" t="str">
+      <c r="F10" s="8" t="str">
         <f>IF(_zhengan_day_hour!D5="","",_zhengan_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G10" s="16" t="str">
+      <c r="G10" s="8" t="str">
         <f>IF(_zhengan_day_hour!E5="","",_zhengan_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H10" s="16" t="str">
+      <c r="H10" s="8" t="str">
         <f>IF(_zhengan_day_hour!F5="","",_zhengan_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I10" s="16" t="str">
+      <c r="I10" s="8" t="str">
         <f>IF(_zhengan_day_hour!G5="","",_zhengan_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J10" s="16" t="str">
+      <c r="J10" s="8" t="str">
         <f>IF(_zhengan_day_hour!H5="","",_zhengan_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K10" s="16" t="str">
+      <c r="K10" s="8" t="str">
         <f>IF(_zhengan_day_hour!I5="","",_zhengan_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L10" s="16" t="str">
+      <c r="L10" s="8" t="str">
         <f>IF(_zhengan_day_hour!J5="","",_zhengan_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M10" s="16" t="str">
+      <c r="M10" s="8" t="str">
         <f>IF(_zhengan_day_hour!K5="","",_zhengan_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N10" s="16" t="str">
+      <c r="N10" s="8" t="str">
         <f>IF(_zhengan_day_hour!L5="","",_zhengan_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O10" s="16" t="str">
+      <c r="O10" s="8" t="str">
         <f>IF(_zhengan_day_hour!M5="","",_zhengan_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P10" s="16" t="str">
+      <c r="P10" s="8" t="str">
         <f>IF(_zhengan_day_hour!N5="","",_zhengan_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q10" s="16" t="str">
+      <c r="Q10" s="8" t="str">
         <f>IF(_zhengan_day_hour!O5="","",_zhengan_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R10" s="16" t="str">
+      <c r="R10" s="8" t="str">
         <f>IF(_zhengan_day_hour!P5="","",_zhengan_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S10" s="16" t="str">
+      <c r="S10" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q5="","",_zhengan_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="T10" s="16" t="str">
+      <c r="T10" s="8" t="str">
         <f>IF(_zhengan_day_hour!R5="","",_zhengan_day_hour!R5)</f>
         <v/>
       </c>
       <c r="U10" s="53"/>
-      <c r="V10" s="57" t="s">
+      <c r="V10" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="W10" s="58"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="72"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="23"/>
     </row>
-    <row r="11" customFormat="1" ht="14.25" spans="2:25">
-      <c r="B11" s="15">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="C11" s="16" t="str">
+    <row r="11" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B11" s="7">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C11" s="8" t="str">
         <f>IF(_zhengan_day_hour!A6="","",_zhengan_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D11" s="16" t="str">
+      <c r="D11" s="8" t="str">
         <f>IF(_zhengan_day_hour!B6="","",_zhengan_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E11" s="16" t="str">
+      <c r="E11" s="8" t="str">
         <f>IF(_zhengan_day_hour!C6="","",_zhengan_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F11" s="16" t="str">
+      <c r="F11" s="8" t="str">
         <f>IF(_zhengan_day_hour!D6="","",_zhengan_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G11" s="16" t="str">
+      <c r="G11" s="8" t="str">
         <f>IF(_zhengan_day_hour!E6="","",_zhengan_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H11" s="16" t="str">
+      <c r="H11" s="8" t="str">
         <f>IF(_zhengan_day_hour!F6="","",_zhengan_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="8" t="str">
         <f>IF(_zhengan_day_hour!G6="","",_zhengan_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J11" s="16" t="str">
+      <c r="J11" s="8" t="str">
         <f>IF(_zhengan_day_hour!H6="","",_zhengan_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K11" s="16" t="str">
+      <c r="K11" s="8" t="str">
         <f>IF(_zhengan_day_hour!I6="","",_zhengan_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L11" s="16" t="str">
+      <c r="L11" s="8" t="str">
         <f>IF(_zhengan_day_hour!J6="","",_zhengan_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M11" s="16" t="str">
+      <c r="M11" s="8" t="str">
         <f>IF(_zhengan_day_hour!K6="","",_zhengan_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N11" s="16" t="str">
+      <c r="N11" s="8" t="str">
         <f>IF(_zhengan_day_hour!L6="","",_zhengan_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O11" s="16" t="str">
+      <c r="O11" s="8" t="str">
         <f>IF(_zhengan_day_hour!M6="","",_zhengan_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P11" s="16" t="str">
+      <c r="P11" s="8" t="str">
         <f>IF(_zhengan_day_hour!N6="","",_zhengan_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q11" s="16" t="str">
+      <c r="Q11" s="8" t="str">
         <f>IF(_zhengan_day_hour!O6="","",_zhengan_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R11" s="16" t="str">
+      <c r="R11" s="8" t="str">
         <f>IF(_zhengan_day_hour!P6="","",_zhengan_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S11" s="16" t="str">
+      <c r="S11" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q6="","",_zhengan_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="T11" s="16" t="str">
+      <c r="T11" s="8" t="str">
         <f>IF(_zhengan_day_hour!R6="","",_zhengan_day_hour!R6)</f>
         <v/>
       </c>
       <c r="U11" s="53"/>
-      <c r="V11" s="57" t="s">
+      <c r="V11" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="W11" s="58"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="72"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="23"/>
     </row>
-    <row r="12" customFormat="1" ht="14.25" spans="2:25">
-      <c r="B12" s="15">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="C12" s="16" t="str">
+    <row r="12" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B12" s="7">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="C12" s="8" t="str">
         <f>IF(_zhengan_day_hour!A7="","",_zhengan_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D12" s="16" t="str">
+      <c r="D12" s="8" t="str">
         <f>IF(_zhengan_day_hour!B7="","",_zhengan_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E12" s="16" t="str">
+      <c r="E12" s="8" t="str">
         <f>IF(_zhengan_day_hour!C7="","",_zhengan_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F12" s="16" t="str">
+      <c r="F12" s="8" t="str">
         <f>IF(_zhengan_day_hour!D7="","",_zhengan_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G12" s="16" t="str">
+      <c r="G12" s="8" t="str">
         <f>IF(_zhengan_day_hour!E7="","",_zhengan_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H12" s="16" t="str">
+      <c r="H12" s="8" t="str">
         <f>IF(_zhengan_day_hour!F7="","",_zhengan_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I12" s="16" t="str">
+      <c r="I12" s="8" t="str">
         <f>IF(_zhengan_day_hour!G7="","",_zhengan_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J12" s="16" t="str">
+      <c r="J12" s="8" t="str">
         <f>IF(_zhengan_day_hour!H7="","",_zhengan_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K12" s="16" t="str">
+      <c r="K12" s="8" t="str">
         <f>IF(_zhengan_day_hour!I7="","",_zhengan_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L12" s="16" t="str">
+      <c r="L12" s="8" t="str">
         <f>IF(_zhengan_day_hour!J7="","",_zhengan_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M12" s="16" t="str">
+      <c r="M12" s="8" t="str">
         <f>IF(_zhengan_day_hour!K7="","",_zhengan_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N12" s="16" t="str">
+      <c r="N12" s="8" t="str">
         <f>IF(_zhengan_day_hour!L7="","",_zhengan_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O12" s="16" t="str">
+      <c r="O12" s="8" t="str">
         <f>IF(_zhengan_day_hour!M7="","",_zhengan_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P12" s="16" t="str">
+      <c r="P12" s="8" t="str">
         <f>IF(_zhengan_day_hour!N7="","",_zhengan_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q12" s="16" t="str">
+      <c r="Q12" s="8" t="str">
         <f>IF(_zhengan_day_hour!O7="","",_zhengan_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R12" s="16" t="str">
+      <c r="R12" s="8" t="str">
         <f>IF(_zhengan_day_hour!P7="","",_zhengan_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S12" s="16" t="str">
+      <c r="S12" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q7="","",_zhengan_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="T12" s="16" t="str">
+      <c r="T12" s="8" t="str">
         <f>IF(_zhengan_day_hour!R7="","",_zhengan_day_hour!R7)</f>
         <v/>
       </c>
       <c r="U12" s="53"/>
-      <c r="V12" s="57" t="s">
+      <c r="V12" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="W12" s="58"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="72"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="23"/>
     </row>
-    <row r="13" customFormat="1" ht="14.25" spans="2:25">
-      <c r="B13" s="15">
+    <row r="13" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B13" s="7">
         <v>0.25</v>
       </c>
-      <c r="C13" s="16" t="str">
+      <c r="C13" s="8" t="str">
         <f>IF(_zhengan_day_hour!A8="","",_zhengan_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D13" s="16" t="str">
+      <c r="D13" s="8" t="str">
         <f>IF(_zhengan_day_hour!B8="","",_zhengan_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E13" s="16" t="str">
+      <c r="E13" s="8" t="str">
         <f>IF(_zhengan_day_hour!C8="","",_zhengan_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F13" s="16" t="str">
+      <c r="F13" s="8" t="str">
         <f>IF(_zhengan_day_hour!D8="","",_zhengan_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G13" s="16" t="str">
+      <c r="G13" s="8" t="str">
         <f>IF(_zhengan_day_hour!E8="","",_zhengan_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H13" s="16" t="str">
+      <c r="H13" s="8" t="str">
         <f>IF(_zhengan_day_hour!F8="","",_zhengan_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I13" s="16" t="str">
+      <c r="I13" s="8" t="str">
         <f>IF(_zhengan_day_hour!G8="","",_zhengan_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J13" s="16" t="str">
+      <c r="J13" s="8" t="str">
         <f>IF(_zhengan_day_hour!H8="","",_zhengan_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K13" s="16" t="str">
+      <c r="K13" s="8" t="str">
         <f>IF(_zhengan_day_hour!I8="","",_zhengan_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L13" s="16" t="str">
+      <c r="L13" s="8" t="str">
         <f>IF(_zhengan_day_hour!J8="","",_zhengan_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M13" s="16" t="str">
+      <c r="M13" s="8" t="str">
         <f>IF(_zhengan_day_hour!K8="","",_zhengan_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N13" s="16" t="str">
+      <c r="N13" s="8" t="str">
         <f>IF(_zhengan_day_hour!L8="","",_zhengan_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O13" s="16" t="str">
+      <c r="O13" s="8" t="str">
         <f>IF(_zhengan_day_hour!M8="","",_zhengan_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P13" s="16" t="str">
+      <c r="P13" s="8" t="str">
         <f>IF(_zhengan_day_hour!N8="","",_zhengan_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q13" s="16" t="str">
+      <c r="Q13" s="8" t="str">
         <f>IF(_zhengan_day_hour!O8="","",_zhengan_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R13" s="16" t="str">
+      <c r="R13" s="8" t="str">
         <f>IF(_zhengan_day_hour!P8="","",_zhengan_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S13" s="16" t="str">
+      <c r="S13" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q8="","",_zhengan_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="T13" s="16" t="str">
+      <c r="T13" s="8" t="str">
         <f>IF(_zhengan_day_hour!R8="","",_zhengan_day_hour!R8)</f>
         <v/>
       </c>
       <c r="U13" s="53"/>
-      <c r="V13" s="57" t="s">
+      <c r="V13" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="W13" s="58"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="72"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="23"/>
     </row>
-    <row r="14" customFormat="1" ht="14.25" spans="2:25">
-      <c r="B14" s="15">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="C14" s="16" t="str">
+    <row r="14" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B14" s="7">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C14" s="8" t="str">
         <f>IF(_zhengan_day_hour!A9="","",_zhengan_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D14" s="16" t="str">
+      <c r="D14" s="8" t="str">
         <f>IF(_zhengan_day_hour!B9="","",_zhengan_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E14" s="16" t="str">
+      <c r="E14" s="8" t="str">
         <f>IF(_zhengan_day_hour!C9="","",_zhengan_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F14" s="16" t="str">
+      <c r="F14" s="8" t="str">
         <f>IF(_zhengan_day_hour!D9="","",_zhengan_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G14" s="16" t="str">
+      <c r="G14" s="8" t="str">
         <f>IF(_zhengan_day_hour!E9="","",_zhengan_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H14" s="16" t="str">
+      <c r="H14" s="8" t="str">
         <f>IF(_zhengan_day_hour!F9="","",_zhengan_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I14" s="16" t="str">
+      <c r="I14" s="8" t="str">
         <f>IF(_zhengan_day_hour!G9="","",_zhengan_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J14" s="16" t="str">
+      <c r="J14" s="8" t="str">
         <f>IF(_zhengan_day_hour!H9="","",_zhengan_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K14" s="16" t="str">
+      <c r="K14" s="8" t="str">
         <f>IF(_zhengan_day_hour!I9="","",_zhengan_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L14" s="16" t="str">
+      <c r="L14" s="8" t="str">
         <f>IF(_zhengan_day_hour!J9="","",_zhengan_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M14" s="16" t="str">
+      <c r="M14" s="8" t="str">
         <f>IF(_zhengan_day_hour!K9="","",_zhengan_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N14" s="16" t="str">
+      <c r="N14" s="8" t="str">
         <f>IF(_zhengan_day_hour!L9="","",_zhengan_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O14" s="16" t="str">
+      <c r="O14" s="8" t="str">
         <f>IF(_zhengan_day_hour!M9="","",_zhengan_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P14" s="16" t="str">
+      <c r="P14" s="8" t="str">
         <f>IF(_zhengan_day_hour!N9="","",_zhengan_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q14" s="16" t="str">
+      <c r="Q14" s="8" t="str">
         <f>IF(_zhengan_day_hour!O9="","",_zhengan_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R14" s="16" t="str">
+      <c r="R14" s="8" t="str">
         <f>IF(_zhengan_day_hour!P9="","",_zhengan_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S14" s="16" t="str">
+      <c r="S14" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q9="","",_zhengan_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="T14" s="16" t="str">
+      <c r="T14" s="8" t="str">
         <f>IF(_zhengan_day_hour!R9="","",_zhengan_day_hour!R9)</f>
         <v/>
       </c>
       <c r="U14" s="53"/>
-      <c r="V14" s="57" t="s">
+      <c r="V14" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="W14" s="58"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="72"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="23"/>
     </row>
-    <row r="15" customFormat="1" ht="14.25" spans="2:25">
-      <c r="B15" s="15">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="C15" s="16" t="str">
+    <row r="15" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B15" s="7">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C15" s="8" t="str">
         <f>IF(_zhengan_day_hour!A10="","",_zhengan_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D15" s="16" t="str">
+      <c r="D15" s="8" t="str">
         <f>IF(_zhengan_day_hour!B10="","",_zhengan_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E15" s="16" t="str">
+      <c r="E15" s="8" t="str">
         <f>IF(_zhengan_day_hour!C10="","",_zhengan_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F15" s="16" t="str">
+      <c r="F15" s="8" t="str">
         <f>IF(_zhengan_day_hour!D10="","",_zhengan_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G15" s="16" t="str">
+      <c r="G15" s="8" t="str">
         <f>IF(_zhengan_day_hour!E10="","",_zhengan_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H15" s="16" t="str">
+      <c r="H15" s="8" t="str">
         <f>IF(_zhengan_day_hour!F10="","",_zhengan_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I15" s="16" t="str">
+      <c r="I15" s="8" t="str">
         <f>IF(_zhengan_day_hour!G10="","",_zhengan_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J15" s="16" t="str">
+      <c r="J15" s="8" t="str">
         <f>IF(_zhengan_day_hour!H10="","",_zhengan_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K15" s="16" t="str">
+      <c r="K15" s="8" t="str">
         <f>IF(_zhengan_day_hour!I10="","",_zhengan_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L15" s="16" t="str">
+      <c r="L15" s="8" t="str">
         <f>IF(_zhengan_day_hour!J10="","",_zhengan_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M15" s="16" t="str">
+      <c r="M15" s="8" t="str">
         <f>IF(_zhengan_day_hour!K10="","",_zhengan_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N15" s="16" t="str">
+      <c r="N15" s="8" t="str">
         <f>IF(_zhengan_day_hour!L10="","",_zhengan_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O15" s="16" t="str">
+      <c r="O15" s="8" t="str">
         <f>IF(_zhengan_day_hour!M10="","",_zhengan_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P15" s="16" t="str">
+      <c r="P15" s="8" t="str">
         <f>IF(_zhengan_day_hour!N10="","",_zhengan_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q15" s="16" t="str">
+      <c r="Q15" s="8" t="str">
         <f>IF(_zhengan_day_hour!O10="","",_zhengan_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R15" s="16" t="str">
+      <c r="R15" s="8" t="str">
         <f>IF(_zhengan_day_hour!P10="","",_zhengan_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S15" s="16" t="str">
+      <c r="S15" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q10="","",_zhengan_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="T15" s="16" t="str">
+      <c r="T15" s="8" t="str">
         <f>IF(_zhengan_day_hour!R10="","",_zhengan_day_hour!R10)</f>
         <v/>
       </c>
       <c r="U15" s="53"/>
-      <c r="V15" s="54" t="s">
+      <c r="V15" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="W15" s="60"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="72"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="23"/>
     </row>
-    <row r="16" customFormat="1" ht="14.25" spans="2:25">
-      <c r="B16" s="15">
+    <row r="16" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B16" s="7">
         <v>0.375</v>
       </c>
-      <c r="C16" s="16" t="str">
+      <c r="C16" s="8" t="str">
         <f>IF(_zhengan_day_hour!A11="","",_zhengan_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D16" s="16" t="str">
+      <c r="D16" s="8" t="str">
         <f>IF(_zhengan_day_hour!B11="","",_zhengan_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E16" s="16" t="str">
+      <c r="E16" s="8" t="str">
         <f>IF(_zhengan_day_hour!C11="","",_zhengan_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F16" s="16" t="str">
+      <c r="F16" s="8" t="str">
         <f>IF(_zhengan_day_hour!D11="","",_zhengan_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G16" s="16" t="str">
+      <c r="G16" s="8" t="str">
         <f>IF(_zhengan_day_hour!E11="","",_zhengan_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H16" s="16" t="str">
+      <c r="H16" s="8" t="str">
         <f>IF(_zhengan_day_hour!F11="","",_zhengan_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I16" s="16" t="str">
+      <c r="I16" s="8" t="str">
         <f>IF(_zhengan_day_hour!G11="","",_zhengan_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J16" s="16" t="str">
+      <c r="J16" s="8" t="str">
         <f>IF(_zhengan_day_hour!H11="","",_zhengan_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K16" s="16" t="str">
+      <c r="K16" s="8" t="str">
         <f>IF(_zhengan_day_hour!I11="","",_zhengan_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L16" s="16" t="str">
+      <c r="L16" s="8" t="str">
         <f>IF(_zhengan_day_hour!J11="","",_zhengan_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M16" s="16" t="str">
+      <c r="M16" s="8" t="str">
         <f>IF(_zhengan_day_hour!K11="","",_zhengan_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N16" s="16" t="str">
+      <c r="N16" s="8" t="str">
         <f>IF(_zhengan_day_hour!L11="","",_zhengan_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O16" s="16" t="str">
+      <c r="O16" s="8" t="str">
         <f>IF(_zhengan_day_hour!M11="","",_zhengan_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P16" s="16" t="str">
+      <c r="P16" s="8" t="str">
         <f>IF(_zhengan_day_hour!N11="","",_zhengan_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q16" s="16" t="str">
+      <c r="Q16" s="8" t="str">
         <f>IF(_zhengan_day_hour!O11="","",_zhengan_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R16" s="16" t="str">
+      <c r="R16" s="8" t="str">
         <f>IF(_zhengan_day_hour!P11="","",_zhengan_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S16" s="16" t="str">
+      <c r="S16" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q11="","",_zhengan_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="T16" s="16" t="str">
+      <c r="T16" s="8" t="str">
         <f>IF(_zhengan_day_hour!R11="","",_zhengan_day_hour!R11)</f>
         <v/>
       </c>
       <c r="U16" s="53"/>
-      <c r="V16" s="54" t="s">
+      <c r="V16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W16" s="55"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="72"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="23"/>
     </row>
-    <row r="17" customFormat="1" ht="14.25" spans="2:25">
-      <c r="B17" s="15">
-        <v>0.416666666666666</v>
-      </c>
-      <c r="C17" s="16" t="str">
+    <row r="17" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B17" s="7">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="C17" s="8" t="str">
         <f>IF(_zhengan_day_hour!A12="","",_zhengan_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D17" s="16" t="str">
+      <c r="D17" s="8" t="str">
         <f>IF(_zhengan_day_hour!B12="","",_zhengan_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E17" s="16" t="str">
+      <c r="E17" s="8" t="str">
         <f>IF(_zhengan_day_hour!C12="","",_zhengan_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F17" s="16" t="str">
+      <c r="F17" s="8" t="str">
         <f>IF(_zhengan_day_hour!D12="","",_zhengan_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G17" s="16" t="str">
+      <c r="G17" s="8" t="str">
         <f>IF(_zhengan_day_hour!E12="","",_zhengan_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H17" s="16" t="str">
+      <c r="H17" s="8" t="str">
         <f>IF(_zhengan_day_hour!F12="","",_zhengan_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I17" s="16" t="str">
+      <c r="I17" s="8" t="str">
         <f>IF(_zhengan_day_hour!G12="","",_zhengan_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J17" s="16" t="str">
+      <c r="J17" s="8" t="str">
         <f>IF(_zhengan_day_hour!H12="","",_zhengan_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K17" s="16" t="str">
+      <c r="K17" s="8" t="str">
         <f>IF(_zhengan_day_hour!I12="","",_zhengan_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L17" s="16" t="str">
+      <c r="L17" s="8" t="str">
         <f>IF(_zhengan_day_hour!J12="","",_zhengan_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M17" s="16" t="str">
+      <c r="M17" s="8" t="str">
         <f>IF(_zhengan_day_hour!K12="","",_zhengan_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N17" s="16" t="str">
+      <c r="N17" s="8" t="str">
         <f>IF(_zhengan_day_hour!L12="","",_zhengan_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O17" s="16" t="str">
+      <c r="O17" s="8" t="str">
         <f>IF(_zhengan_day_hour!M12="","",_zhengan_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P17" s="16" t="str">
+      <c r="P17" s="8" t="str">
         <f>IF(_zhengan_day_hour!N12="","",_zhengan_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q17" s="16" t="str">
+      <c r="Q17" s="8" t="str">
         <f>IF(_zhengan_day_hour!O12="","",_zhengan_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R17" s="16" t="str">
+      <c r="R17" s="8" t="str">
         <f>IF(_zhengan_day_hour!P12="","",_zhengan_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S17" s="16" t="str">
+      <c r="S17" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q12="","",_zhengan_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="T17" s="16" t="str">
+      <c r="T17" s="8" t="str">
         <f>IF(_zhengan_day_hour!R12="","",_zhengan_day_hour!R12)</f>
         <v/>
       </c>
       <c r="U17" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="V17" s="54" t="s">
+      <c r="V17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="W17" s="55"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="72"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="23"/>
     </row>
-    <row r="18" customFormat="1" ht="15.75" spans="2:25">
-      <c r="B18" s="15">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="C18" s="16" t="str">
+    <row r="18" spans="2:25" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B18" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C18" s="8" t="str">
         <f>IF(_zhengan_day_hour!A13="","",_zhengan_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D18" s="16" t="str">
+      <c r="D18" s="8" t="str">
         <f>IF(_zhengan_day_hour!B13="","",_zhengan_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E18" s="16" t="str">
+      <c r="E18" s="8" t="str">
         <f>IF(_zhengan_day_hour!C13="","",_zhengan_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F18" s="16" t="str">
+      <c r="F18" s="8" t="str">
         <f>IF(_zhengan_day_hour!D13="","",_zhengan_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G18" s="16" t="str">
+      <c r="G18" s="8" t="str">
         <f>IF(_zhengan_day_hour!E13="","",_zhengan_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H18" s="16" t="str">
+      <c r="H18" s="8" t="str">
         <f>IF(_zhengan_day_hour!F13="","",_zhengan_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I18" s="16" t="str">
+      <c r="I18" s="8" t="str">
         <f>IF(_zhengan_day_hour!G13="","",_zhengan_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J18" s="16" t="str">
+      <c r="J18" s="8" t="str">
         <f>IF(_zhengan_day_hour!H13="","",_zhengan_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K18" s="16" t="str">
+      <c r="K18" s="8" t="str">
         <f>IF(_zhengan_day_hour!I13="","",_zhengan_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L18" s="16" t="str">
+      <c r="L18" s="8" t="str">
         <f>IF(_zhengan_day_hour!J13="","",_zhengan_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M18" s="16" t="str">
+      <c r="M18" s="8" t="str">
         <f>IF(_zhengan_day_hour!K13="","",_zhengan_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N18" s="16" t="str">
+      <c r="N18" s="8" t="str">
         <f>IF(_zhengan_day_hour!L13="","",_zhengan_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O18" s="16" t="str">
+      <c r="O18" s="8" t="str">
         <f>IF(_zhengan_day_hour!M13="","",_zhengan_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P18" s="16" t="str">
+      <c r="P18" s="8" t="str">
         <f>IF(_zhengan_day_hour!N13="","",_zhengan_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q18" s="16" t="str">
+      <c r="Q18" s="8" t="str">
         <f>IF(_zhengan_day_hour!O13="","",_zhengan_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R18" s="16" t="str">
+      <c r="R18" s="8" t="str">
         <f>IF(_zhengan_day_hour!P13="","",_zhengan_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S18" s="16" t="str">
+      <c r="S18" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q13="","",_zhengan_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="T18" s="16" t="str">
+      <c r="T18" s="8" t="str">
         <f>IF(_zhengan_day_hour!R13="","",_zhengan_day_hour!R13)</f>
         <v/>
       </c>
       <c r="U18" s="53"/>
-      <c r="V18" s="54" t="s">
+      <c r="V18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="W18" s="58"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="72"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="23"/>
     </row>
-    <row r="19" customFormat="1" ht="15.75" spans="2:25">
-      <c r="B19" s="15">
+    <row r="19" spans="2:25" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B19" s="7">
         <v>0.5</v>
       </c>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="8" t="str">
         <f>IF(_zhengan_day_hour!A14="","",_zhengan_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D19" s="16" t="str">
+      <c r="D19" s="8" t="str">
         <f>IF(_zhengan_day_hour!B14="","",_zhengan_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E19" s="16" t="str">
+      <c r="E19" s="8" t="str">
         <f>IF(_zhengan_day_hour!C14="","",_zhengan_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F19" s="16" t="str">
+      <c r="F19" s="8" t="str">
         <f>IF(_zhengan_day_hour!D14="","",_zhengan_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G19" s="16" t="str">
+      <c r="G19" s="8" t="str">
         <f>IF(_zhengan_day_hour!E14="","",_zhengan_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H19" s="16" t="str">
+      <c r="H19" s="8" t="str">
         <f>IF(_zhengan_day_hour!F14="","",_zhengan_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="8" t="str">
         <f>IF(_zhengan_day_hour!G14="","",_zhengan_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J19" s="16" t="str">
+      <c r="J19" s="8" t="str">
         <f>IF(_zhengan_day_hour!H14="","",_zhengan_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K19" s="16" t="str">
+      <c r="K19" s="8" t="str">
         <f>IF(_zhengan_day_hour!I14="","",_zhengan_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L19" s="16" t="str">
+      <c r="L19" s="8" t="str">
         <f>IF(_zhengan_day_hour!J14="","",_zhengan_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M19" s="16" t="str">
+      <c r="M19" s="8" t="str">
         <f>IF(_zhengan_day_hour!K14="","",_zhengan_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N19" s="16" t="str">
+      <c r="N19" s="8" t="str">
         <f>IF(_zhengan_day_hour!L14="","",_zhengan_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O19" s="16" t="str">
+      <c r="O19" s="8" t="str">
         <f>IF(_zhengan_day_hour!M14="","",_zhengan_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P19" s="16" t="str">
+      <c r="P19" s="8" t="str">
         <f>IF(_zhengan_day_hour!N14="","",_zhengan_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q19" s="16" t="str">
+      <c r="Q19" s="8" t="str">
         <f>IF(_zhengan_day_hour!O14="","",_zhengan_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R19" s="16" t="str">
+      <c r="R19" s="8" t="str">
         <f>IF(_zhengan_day_hour!P14="","",_zhengan_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S19" s="16" t="str">
+      <c r="S19" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q14="","",_zhengan_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="T19" s="16" t="str">
+      <c r="T19" s="8" t="str">
         <f>IF(_zhengan_day_hour!R14="","",_zhengan_day_hour!R14)</f>
         <v/>
       </c>
       <c r="U19" s="53"/>
-      <c r="V19" s="54" t="s">
+      <c r="V19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="58"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="72"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="23"/>
     </row>
-    <row r="20" customFormat="1" ht="14.25" spans="2:25">
-      <c r="B20" s="15">
-        <v>0.541666666666666</v>
-      </c>
-      <c r="C20" s="16" t="str">
+    <row r="20" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B20" s="7">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="C20" s="8" t="str">
         <f>IF(_zhengan_day_hour!A15="","",_zhengan_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D20" s="16" t="str">
+      <c r="D20" s="8" t="str">
         <f>IF(_zhengan_day_hour!B15="","",_zhengan_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E20" s="16" t="str">
+      <c r="E20" s="8" t="str">
         <f>IF(_zhengan_day_hour!C15="","",_zhengan_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F20" s="16" t="str">
+      <c r="F20" s="8" t="str">
         <f>IF(_zhengan_day_hour!D15="","",_zhengan_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G20" s="16" t="str">
+      <c r="G20" s="8" t="str">
         <f>IF(_zhengan_day_hour!E15="","",_zhengan_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H20" s="16" t="str">
+      <c r="H20" s="8" t="str">
         <f>IF(_zhengan_day_hour!F15="","",_zhengan_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I20" s="16" t="str">
+      <c r="I20" s="8" t="str">
         <f>IF(_zhengan_day_hour!G15="","",_zhengan_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J20" s="16" t="str">
+      <c r="J20" s="8" t="str">
         <f>IF(_zhengan_day_hour!H15="","",_zhengan_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K20" s="16" t="str">
+      <c r="K20" s="8" t="str">
         <f>IF(_zhengan_day_hour!I15="","",_zhengan_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L20" s="16" t="str">
+      <c r="L20" s="8" t="str">
         <f>IF(_zhengan_day_hour!J15="","",_zhengan_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M20" s="16" t="str">
+      <c r="M20" s="8" t="str">
         <f>IF(_zhengan_day_hour!K15="","",_zhengan_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N20" s="16" t="str">
+      <c r="N20" s="8" t="str">
         <f>IF(_zhengan_day_hour!L15="","",_zhengan_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O20" s="16" t="str">
+      <c r="O20" s="8" t="str">
         <f>IF(_zhengan_day_hour!M15="","",_zhengan_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P20" s="16" t="str">
+      <c r="P20" s="8" t="str">
         <f>IF(_zhengan_day_hour!N15="","",_zhengan_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q20" s="16" t="str">
+      <c r="Q20" s="8" t="str">
         <f>IF(_zhengan_day_hour!O15="","",_zhengan_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R20" s="16" t="str">
+      <c r="R20" s="8" t="str">
         <f>IF(_zhengan_day_hour!P15="","",_zhengan_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S20" s="16" t="str">
+      <c r="S20" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q15="","",_zhengan_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="T20" s="16" t="str">
+      <c r="T20" s="8" t="str">
         <f>IF(_zhengan_day_hour!R15="","",_zhengan_day_hour!R15)</f>
         <v/>
       </c>
       <c r="U20" s="53"/>
-      <c r="V20" s="57" t="s">
+      <c r="V20" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="W20" s="58"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="72"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="23"/>
     </row>
-    <row r="21" customFormat="1" ht="14.25" spans="2:25">
-      <c r="B21" s="15">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="C21" s="16" t="str">
+    <row r="21" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B21" s="7">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C21" s="8" t="str">
         <f>IF(_zhengan_day_hour!A16="","",_zhengan_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D21" s="16" t="str">
+      <c r="D21" s="8" t="str">
         <f>IF(_zhengan_day_hour!B16="","",_zhengan_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E21" s="16" t="str">
+      <c r="E21" s="8" t="str">
         <f>IF(_zhengan_day_hour!C16="","",_zhengan_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F21" s="16" t="str">
+      <c r="F21" s="8" t="str">
         <f>IF(_zhengan_day_hour!D16="","",_zhengan_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G21" s="16" t="str">
+      <c r="G21" s="8" t="str">
         <f>IF(_zhengan_day_hour!E16="","",_zhengan_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H21" s="16" t="str">
+      <c r="H21" s="8" t="str">
         <f>IF(_zhengan_day_hour!F16="","",_zhengan_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I21" s="16" t="str">
+      <c r="I21" s="8" t="str">
         <f>IF(_zhengan_day_hour!G16="","",_zhengan_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J21" s="16" t="str">
+      <c r="J21" s="8" t="str">
         <f>IF(_zhengan_day_hour!H16="","",_zhengan_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K21" s="16" t="str">
+      <c r="K21" s="8" t="str">
         <f>IF(_zhengan_day_hour!I16="","",_zhengan_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L21" s="16" t="str">
+      <c r="L21" s="8" t="str">
         <f>IF(_zhengan_day_hour!J16="","",_zhengan_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M21" s="16" t="str">
+      <c r="M21" s="8" t="str">
         <f>IF(_zhengan_day_hour!K16="","",_zhengan_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N21" s="16" t="str">
+      <c r="N21" s="8" t="str">
         <f>IF(_zhengan_day_hour!L16="","",_zhengan_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O21" s="16" t="str">
+      <c r="O21" s="8" t="str">
         <f>IF(_zhengan_day_hour!M16="","",_zhengan_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P21" s="16" t="str">
+      <c r="P21" s="8" t="str">
         <f>IF(_zhengan_day_hour!N16="","",_zhengan_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q21" s="16" t="str">
+      <c r="Q21" s="8" t="str">
         <f>IF(_zhengan_day_hour!O16="","",_zhengan_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R21" s="16" t="str">
+      <c r="R21" s="8" t="str">
         <f>IF(_zhengan_day_hour!P16="","",_zhengan_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S21" s="16" t="str">
+      <c r="S21" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q16="","",_zhengan_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="T21" s="16" t="str">
+      <c r="T21" s="8" t="str">
         <f>IF(_zhengan_day_hour!R16="","",_zhengan_day_hour!R16)</f>
         <v/>
       </c>
       <c r="U21" s="53"/>
-      <c r="V21" s="57" t="s">
+      <c r="V21" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="W21" s="58"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="72"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="23"/>
     </row>
-    <row r="22" customFormat="1" ht="14.25" spans="2:25">
-      <c r="B22" s="15">
+    <row r="22" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B22" s="7">
         <v>0.625</v>
       </c>
-      <c r="C22" s="16" t="str">
+      <c r="C22" s="8" t="str">
         <f>IF(_zhengan_day_hour!A17="","",_zhengan_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D22" s="16" t="str">
+      <c r="D22" s="8" t="str">
         <f>IF(_zhengan_day_hour!B17="","",_zhengan_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E22" s="16" t="str">
+      <c r="E22" s="8" t="str">
         <f>IF(_zhengan_day_hour!C17="","",_zhengan_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F22" s="16" t="str">
+      <c r="F22" s="8" t="str">
         <f>IF(_zhengan_day_hour!D17="","",_zhengan_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G22" s="16" t="str">
+      <c r="G22" s="8" t="str">
         <f>IF(_zhengan_day_hour!E17="","",_zhengan_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H22" s="16" t="str">
+      <c r="H22" s="8" t="str">
         <f>IF(_zhengan_day_hour!F17="","",_zhengan_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I22" s="16" t="str">
+      <c r="I22" s="8" t="str">
         <f>IF(_zhengan_day_hour!G17="","",_zhengan_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J22" s="16" t="str">
+      <c r="J22" s="8" t="str">
         <f>IF(_zhengan_day_hour!H17="","",_zhengan_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K22" s="16" t="str">
+      <c r="K22" s="8" t="str">
         <f>IF(_zhengan_day_hour!I17="","",_zhengan_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L22" s="16" t="str">
+      <c r="L22" s="8" t="str">
         <f>IF(_zhengan_day_hour!J17="","",_zhengan_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M22" s="16" t="str">
+      <c r="M22" s="8" t="str">
         <f>IF(_zhengan_day_hour!K17="","",_zhengan_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N22" s="16" t="str">
+      <c r="N22" s="8" t="str">
         <f>IF(_zhengan_day_hour!L17="","",_zhengan_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O22" s="16" t="str">
+      <c r="O22" s="8" t="str">
         <f>IF(_zhengan_day_hour!M17="","",_zhengan_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P22" s="16" t="str">
+      <c r="P22" s="8" t="str">
         <f>IF(_zhengan_day_hour!N17="","",_zhengan_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q22" s="16" t="str">
+      <c r="Q22" s="8" t="str">
         <f>IF(_zhengan_day_hour!O17="","",_zhengan_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R22" s="16" t="str">
+      <c r="R22" s="8" t="str">
         <f>IF(_zhengan_day_hour!P17="","",_zhengan_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S22" s="16" t="str">
+      <c r="S22" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q17="","",_zhengan_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="T22" s="16" t="str">
+      <c r="T22" s="8" t="str">
         <f>IF(_zhengan_day_hour!R17="","",_zhengan_day_hour!R17)</f>
         <v/>
       </c>
       <c r="U22" s="53"/>
-      <c r="V22" s="57" t="s">
+      <c r="V22" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="W22" s="58"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="72"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="23"/>
     </row>
-    <row r="23" customFormat="1" ht="14.25" spans="2:25">
-      <c r="B23" s="15">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C23" s="16" t="str">
+    <row r="23" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B23" s="7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C23" s="8" t="str">
         <f>IF(_zhengan_day_hour!A18="","",_zhengan_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D23" s="16" t="str">
+      <c r="D23" s="8" t="str">
         <f>IF(_zhengan_day_hour!B18="","",_zhengan_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E23" s="16" t="str">
+      <c r="E23" s="8" t="str">
         <f>IF(_zhengan_day_hour!C18="","",_zhengan_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F23" s="16" t="str">
+      <c r="F23" s="8" t="str">
         <f>IF(_zhengan_day_hour!D18="","",_zhengan_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G23" s="16" t="str">
+      <c r="G23" s="8" t="str">
         <f>IF(_zhengan_day_hour!E18="","",_zhengan_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H23" s="16" t="str">
+      <c r="H23" s="8" t="str">
         <f>IF(_zhengan_day_hour!F18="","",_zhengan_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I23" s="16" t="str">
+      <c r="I23" s="8" t="str">
         <f>IF(_zhengan_day_hour!G18="","",_zhengan_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J23" s="16" t="str">
+      <c r="J23" s="8" t="str">
         <f>IF(_zhengan_day_hour!H18="","",_zhengan_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K23" s="16" t="str">
+      <c r="K23" s="8" t="str">
         <f>IF(_zhengan_day_hour!I18="","",_zhengan_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L23" s="16" t="str">
+      <c r="L23" s="8" t="str">
         <f>IF(_zhengan_day_hour!J18="","",_zhengan_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M23" s="16" t="str">
+      <c r="M23" s="8" t="str">
         <f>IF(_zhengan_day_hour!K18="","",_zhengan_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N23" s="16" t="str">
+      <c r="N23" s="8" t="str">
         <f>IF(_zhengan_day_hour!L18="","",_zhengan_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O23" s="16" t="str">
+      <c r="O23" s="8" t="str">
         <f>IF(_zhengan_day_hour!M18="","",_zhengan_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P23" s="16" t="str">
+      <c r="P23" s="8" t="str">
         <f>IF(_zhengan_day_hour!N18="","",_zhengan_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q23" s="16" t="str">
+      <c r="Q23" s="8" t="str">
         <f>IF(_zhengan_day_hour!O18="","",_zhengan_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R23" s="16" t="str">
+      <c r="R23" s="8" t="str">
         <f>IF(_zhengan_day_hour!P18="","",_zhengan_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S23" s="16" t="str">
+      <c r="S23" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q18="","",_zhengan_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="T23" s="16" t="str">
+      <c r="T23" s="8" t="str">
         <f>IF(_zhengan_day_hour!R18="","",_zhengan_day_hour!R18)</f>
         <v/>
       </c>
       <c r="U23" s="53"/>
-      <c r="V23" s="57" t="s">
+      <c r="V23" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="W23" s="58"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="72"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="23"/>
     </row>
-    <row r="24" customFormat="1" ht="14.25" spans="2:25">
-      <c r="B24" s="15">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C24" s="16" t="str">
+    <row r="24" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B24" s="7">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C24" s="8" t="str">
         <f>IF(_zhengan_day_hour!A19="","",_zhengan_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D24" s="16" t="str">
+      <c r="D24" s="8" t="str">
         <f>IF(_zhengan_day_hour!B19="","",_zhengan_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E24" s="16" t="str">
+      <c r="E24" s="8" t="str">
         <f>IF(_zhengan_day_hour!C19="","",_zhengan_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F24" s="16" t="str">
+      <c r="F24" s="8" t="str">
         <f>IF(_zhengan_day_hour!D19="","",_zhengan_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G24" s="16" t="str">
+      <c r="G24" s="8" t="str">
         <f>IF(_zhengan_day_hour!E19="","",_zhengan_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H24" s="16" t="str">
+      <c r="H24" s="8" t="str">
         <f>IF(_zhengan_day_hour!F19="","",_zhengan_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I24" s="16" t="str">
+      <c r="I24" s="8" t="str">
         <f>IF(_zhengan_day_hour!G19="","",_zhengan_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J24" s="16" t="str">
+      <c r="J24" s="8" t="str">
         <f>IF(_zhengan_day_hour!H19="","",_zhengan_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K24" s="16" t="str">
+      <c r="K24" s="8" t="str">
         <f>IF(_zhengan_day_hour!I19="","",_zhengan_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L24" s="16" t="str">
+      <c r="L24" s="8" t="str">
         <f>IF(_zhengan_day_hour!J19="","",_zhengan_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M24" s="16" t="str">
+      <c r="M24" s="8" t="str">
         <f>IF(_zhengan_day_hour!K19="","",_zhengan_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N24" s="16" t="str">
+      <c r="N24" s="8" t="str">
         <f>IF(_zhengan_day_hour!L19="","",_zhengan_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O24" s="16" t="str">
+      <c r="O24" s="8" t="str">
         <f>IF(_zhengan_day_hour!M19="","",_zhengan_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P24" s="16" t="str">
+      <c r="P24" s="8" t="str">
         <f>IF(_zhengan_day_hour!N19="","",_zhengan_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q24" s="16" t="str">
+      <c r="Q24" s="8" t="str">
         <f>IF(_zhengan_day_hour!O19="","",_zhengan_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R24" s="16" t="str">
+      <c r="R24" s="8" t="str">
         <f>IF(_zhengan_day_hour!P19="","",_zhengan_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S24" s="16" t="str">
+      <c r="S24" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q19="","",_zhengan_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="T24" s="16" t="str">
+      <c r="T24" s="8" t="str">
         <f>IF(_zhengan_day_hour!R19="","",_zhengan_day_hour!R19)</f>
         <v/>
       </c>
       <c r="U24" s="53"/>
-      <c r="V24" s="57" t="s">
+      <c r="V24" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="W24" s="55"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="72"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="23"/>
     </row>
-    <row r="25" customFormat="1" ht="14.25" spans="2:25">
-      <c r="B25" s="15">
+    <row r="25" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B25" s="7">
         <v>0.75</v>
       </c>
-      <c r="C25" s="16" t="str">
+      <c r="C25" s="8" t="str">
         <f>IF(_zhengan_day_hour!A20="","",_zhengan_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D25" s="16" t="str">
+      <c r="D25" s="8" t="str">
         <f>IF(_zhengan_day_hour!B20="","",_zhengan_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E25" s="16" t="str">
+      <c r="E25" s="8" t="str">
         <f>IF(_zhengan_day_hour!C20="","",_zhengan_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F25" s="16" t="str">
+      <c r="F25" s="8" t="str">
         <f>IF(_zhengan_day_hour!D20="","",_zhengan_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G25" s="16" t="str">
+      <c r="G25" s="8" t="str">
         <f>IF(_zhengan_day_hour!E20="","",_zhengan_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H25" s="16" t="str">
+      <c r="H25" s="8" t="str">
         <f>IF(_zhengan_day_hour!F20="","",_zhengan_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I25" s="16" t="str">
+      <c r="I25" s="8" t="str">
         <f>IF(_zhengan_day_hour!G20="","",_zhengan_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J25" s="16" t="str">
+      <c r="J25" s="8" t="str">
         <f>IF(_zhengan_day_hour!H20="","",_zhengan_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K25" s="16" t="str">
+      <c r="K25" s="8" t="str">
         <f>IF(_zhengan_day_hour!I20="","",_zhengan_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L25" s="16" t="str">
+      <c r="L25" s="8" t="str">
         <f>IF(_zhengan_day_hour!J20="","",_zhengan_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M25" s="16" t="str">
+      <c r="M25" s="8" t="str">
         <f>IF(_zhengan_day_hour!K20="","",_zhengan_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N25" s="16" t="str">
+      <c r="N25" s="8" t="str">
         <f>IF(_zhengan_day_hour!L20="","",_zhengan_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O25" s="16" t="str">
+      <c r="O25" s="8" t="str">
         <f>IF(_zhengan_day_hour!M20="","",_zhengan_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P25" s="16" t="str">
+      <c r="P25" s="8" t="str">
         <f>IF(_zhengan_day_hour!N20="","",_zhengan_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q25" s="16" t="str">
+      <c r="Q25" s="8" t="str">
         <f>IF(_zhengan_day_hour!O20="","",_zhengan_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R25" s="16" t="str">
+      <c r="R25" s="8" t="str">
         <f>IF(_zhengan_day_hour!P20="","",_zhengan_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S25" s="16" t="str">
+      <c r="S25" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q20="","",_zhengan_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="T25" s="16" t="str">
+      <c r="T25" s="8" t="str">
         <f>IF(_zhengan_day_hour!R20="","",_zhengan_day_hour!R20)</f>
         <v/>
       </c>
       <c r="U25" s="53"/>
-      <c r="V25" s="54" t="s">
+      <c r="V25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="W25" s="55"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="72"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="23"/>
     </row>
-    <row r="26" customFormat="1" ht="14.25" spans="2:25">
-      <c r="B26" s="15">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C26" s="16" t="str">
+    <row r="26" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B26" s="7">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C26" s="8" t="str">
         <f>IF(_zhengan_day_hour!A21="","",_zhengan_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D26" s="16" t="str">
+      <c r="D26" s="8" t="str">
         <f>IF(_zhengan_day_hour!B21="","",_zhengan_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E26" s="16" t="str">
+      <c r="E26" s="8" t="str">
         <f>IF(_zhengan_day_hour!C21="","",_zhengan_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F26" s="16" t="str">
+      <c r="F26" s="8" t="str">
         <f>IF(_zhengan_day_hour!D21="","",_zhengan_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G26" s="16" t="str">
+      <c r="G26" s="8" t="str">
         <f>IF(_zhengan_day_hour!E21="","",_zhengan_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H26" s="16" t="str">
+      <c r="H26" s="8" t="str">
         <f>IF(_zhengan_day_hour!F21="","",_zhengan_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I26" s="16" t="str">
+      <c r="I26" s="8" t="str">
         <f>IF(_zhengan_day_hour!G21="","",_zhengan_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J26" s="16" t="str">
+      <c r="J26" s="8" t="str">
         <f>IF(_zhengan_day_hour!H21="","",_zhengan_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K26" s="16" t="str">
+      <c r="K26" s="8" t="str">
         <f>IF(_zhengan_day_hour!I21="","",_zhengan_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L26" s="16" t="str">
+      <c r="L26" s="8" t="str">
         <f>IF(_zhengan_day_hour!J21="","",_zhengan_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M26" s="16" t="str">
+      <c r="M26" s="8" t="str">
         <f>IF(_zhengan_day_hour!K21="","",_zhengan_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N26" s="16" t="str">
+      <c r="N26" s="8" t="str">
         <f>IF(_zhengan_day_hour!L21="","",_zhengan_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O26" s="16" t="str">
+      <c r="O26" s="8" t="str">
         <f>IF(_zhengan_day_hour!M21="","",_zhengan_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P26" s="16" t="str">
+      <c r="P26" s="8" t="str">
         <f>IF(_zhengan_day_hour!N21="","",_zhengan_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q26" s="16" t="str">
+      <c r="Q26" s="8" t="str">
         <f>IF(_zhengan_day_hour!O21="","",_zhengan_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R26" s="16" t="str">
+      <c r="R26" s="8" t="str">
         <f>IF(_zhengan_day_hour!P21="","",_zhengan_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S26" s="16" t="str">
+      <c r="S26" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q21="","",_zhengan_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="T26" s="16" t="str">
+      <c r="T26" s="8" t="str">
         <f>IF(_zhengan_day_hour!R21="","",_zhengan_day_hour!R21)</f>
         <v/>
       </c>
       <c r="U26" s="53"/>
-      <c r="V26" s="54" t="s">
+      <c r="V26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W26" s="58"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="72"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="23"/>
     </row>
-    <row r="27" customFormat="1" ht="15" customHeight="1" spans="2:25">
-      <c r="B27" s="15">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C27" s="16" t="str">
+    <row r="27" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C27" s="8" t="str">
         <f>IF(_zhengan_day_hour!A22="","",_zhengan_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D27" s="16" t="str">
+      <c r="D27" s="8" t="str">
         <f>IF(_zhengan_day_hour!B22="","",_zhengan_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E27" s="16" t="str">
+      <c r="E27" s="8" t="str">
         <f>IF(_zhengan_day_hour!C22="","",_zhengan_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F27" s="16" t="str">
+      <c r="F27" s="8" t="str">
         <f>IF(_zhengan_day_hour!D22="","",_zhengan_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G27" s="16" t="str">
+      <c r="G27" s="8" t="str">
         <f>IF(_zhengan_day_hour!E22="","",_zhengan_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H27" s="16" t="str">
+      <c r="H27" s="8" t="str">
         <f>IF(_zhengan_day_hour!F22="","",_zhengan_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="8" t="str">
         <f>IF(_zhengan_day_hour!G22="","",_zhengan_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J27" s="16" t="str">
+      <c r="J27" s="8" t="str">
         <f>IF(_zhengan_day_hour!H22="","",_zhengan_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K27" s="16" t="str">
+      <c r="K27" s="8" t="str">
         <f>IF(_zhengan_day_hour!I22="","",_zhengan_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L27" s="16" t="str">
+      <c r="L27" s="8" t="str">
         <f>IF(_zhengan_day_hour!J22="","",_zhengan_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M27" s="16" t="str">
+      <c r="M27" s="8" t="str">
         <f>IF(_zhengan_day_hour!K22="","",_zhengan_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N27" s="16" t="str">
+      <c r="N27" s="8" t="str">
         <f>IF(_zhengan_day_hour!L22="","",_zhengan_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O27" s="16" t="str">
+      <c r="O27" s="8" t="str">
         <f>IF(_zhengan_day_hour!M22="","",_zhengan_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P27" s="16" t="str">
+      <c r="P27" s="8" t="str">
         <f>IF(_zhengan_day_hour!N22="","",_zhengan_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q27" s="16" t="str">
+      <c r="Q27" s="8" t="str">
         <f>IF(_zhengan_day_hour!O22="","",_zhengan_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R27" s="16" t="str">
+      <c r="R27" s="8" t="str">
         <f>IF(_zhengan_day_hour!P22="","",_zhengan_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S27" s="16" t="str">
+      <c r="S27" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q22="","",_zhengan_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="T27" s="16" t="str">
+      <c r="T27" s="8" t="str">
         <f>IF(_zhengan_day_hour!R22="","",_zhengan_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="U27" s="62"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="73"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="62"/>
     </row>
-    <row r="28" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
-      <c r="B28" s="15">
+    <row r="28" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="7">
         <v>0.875</v>
       </c>
-      <c r="C28" s="16" t="str">
+      <c r="C28" s="8" t="str">
         <f>IF(_zhengan_day_hour!A23="","",_zhengan_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D28" s="16" t="str">
+      <c r="D28" s="8" t="str">
         <f>IF(_zhengan_day_hour!B23="","",_zhengan_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E28" s="16" t="str">
+      <c r="E28" s="8" t="str">
         <f>IF(_zhengan_day_hour!C23="","",_zhengan_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F28" s="16" t="str">
+      <c r="F28" s="8" t="str">
         <f>IF(_zhengan_day_hour!D23="","",_zhengan_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G28" s="16" t="str">
+      <c r="G28" s="8" t="str">
         <f>IF(_zhengan_day_hour!E23="","",_zhengan_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H28" s="16" t="str">
+      <c r="H28" s="8" t="str">
         <f>IF(_zhengan_day_hour!F23="","",_zhengan_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I28" s="16" t="str">
+      <c r="I28" s="8" t="str">
         <f>IF(_zhengan_day_hour!G23="","",_zhengan_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J28" s="16" t="str">
+      <c r="J28" s="8" t="str">
         <f>IF(_zhengan_day_hour!H23="","",_zhengan_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K28" s="16" t="str">
+      <c r="K28" s="8" t="str">
         <f>IF(_zhengan_day_hour!I23="","",_zhengan_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L28" s="16" t="str">
+      <c r="L28" s="8" t="str">
         <f>IF(_zhengan_day_hour!J23="","",_zhengan_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M28" s="16" t="str">
+      <c r="M28" s="8" t="str">
         <f>IF(_zhengan_day_hour!K23="","",_zhengan_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N28" s="16" t="str">
+      <c r="N28" s="8" t="str">
         <f>IF(_zhengan_day_hour!L23="","",_zhengan_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O28" s="16" t="str">
+      <c r="O28" s="8" t="str">
         <f>IF(_zhengan_day_hour!M23="","",_zhengan_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P28" s="16" t="str">
+      <c r="P28" s="8" t="str">
         <f>IF(_zhengan_day_hour!N23="","",_zhengan_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q28" s="16" t="str">
+      <c r="Q28" s="8" t="str">
         <f>IF(_zhengan_day_hour!O23="","",_zhengan_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R28" s="16" t="str">
+      <c r="R28" s="8" t="str">
         <f>IF(_zhengan_day_hour!P23="","",_zhengan_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S28" s="16" t="str">
+      <c r="S28" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q23="","",_zhengan_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="T28" s="16" t="str">
+      <c r="T28" s="8" t="str">
         <f>IF(_zhengan_day_hour!R23="","",_zhengan_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="U28" s="64"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="65"/>
-      <c r="Y28" s="74"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="65"/>
     </row>
-    <row r="29" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
-      <c r="B29" s="15">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C29" s="16" t="str">
+    <row r="29" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="7">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C29" s="8" t="str">
         <f>IF(_zhengan_day_hour!A24="","",_zhengan_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D29" s="16" t="str">
+      <c r="D29" s="8" t="str">
         <f>IF(_zhengan_day_hour!B24="","",_zhengan_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E29" s="16" t="str">
+      <c r="E29" s="8" t="str">
         <f>IF(_zhengan_day_hour!C24="","",_zhengan_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F29" s="16" t="str">
+      <c r="F29" s="8" t="str">
         <f>IF(_zhengan_day_hour!D24="","",_zhengan_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G29" s="16" t="str">
+      <c r="G29" s="8" t="str">
         <f>IF(_zhengan_day_hour!E24="","",_zhengan_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H29" s="16" t="str">
+      <c r="H29" s="8" t="str">
         <f>IF(_zhengan_day_hour!F24="","",_zhengan_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I29" s="16" t="str">
+      <c r="I29" s="8" t="str">
         <f>IF(_zhengan_day_hour!G24="","",_zhengan_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J29" s="16" t="str">
+      <c r="J29" s="8" t="str">
         <f>IF(_zhengan_day_hour!H24="","",_zhengan_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K29" s="16" t="str">
+      <c r="K29" s="8" t="str">
         <f>IF(_zhengan_day_hour!I24="","",_zhengan_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L29" s="16" t="str">
+      <c r="L29" s="8" t="str">
         <f>IF(_zhengan_day_hour!J24="","",_zhengan_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M29" s="16" t="str">
+      <c r="M29" s="8" t="str">
         <f>IF(_zhengan_day_hour!K24="","",_zhengan_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N29" s="16" t="str">
+      <c r="N29" s="8" t="str">
         <f>IF(_zhengan_day_hour!L24="","",_zhengan_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O29" s="16" t="str">
+      <c r="O29" s="8" t="str">
         <f>IF(_zhengan_day_hour!M24="","",_zhengan_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P29" s="16" t="str">
+      <c r="P29" s="8" t="str">
         <f>IF(_zhengan_day_hour!N24="","",_zhengan_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q29" s="16" t="str">
+      <c r="Q29" s="8" t="str">
         <f>IF(_zhengan_day_hour!O24="","",_zhengan_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R29" s="16" t="str">
+      <c r="R29" s="8" t="str">
         <f>IF(_zhengan_day_hour!P24="","",_zhengan_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S29" s="16" t="str">
+      <c r="S29" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q24="","",_zhengan_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="T29" s="16" t="str">
+      <c r="T29" s="8" t="str">
         <f>IF(_zhengan_day_hour!R24="","",_zhengan_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="U29" s="64"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="65"/>
-      <c r="Y29" s="74"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="65"/>
     </row>
-    <row r="30" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
-      <c r="B30" s="15">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C30" s="16" t="str">
+    <row r="30" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="7">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C30" s="8" t="str">
         <f>IF(_zhengan_day_hour!A25="","",_zhengan_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D30" s="16" t="str">
+      <c r="D30" s="8" t="str">
         <f>IF(_zhengan_day_hour!B25="","",_zhengan_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E30" s="16" t="str">
+      <c r="E30" s="8" t="str">
         <f>IF(_zhengan_day_hour!C25="","",_zhengan_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F30" s="16" t="str">
+      <c r="F30" s="8" t="str">
         <f>IF(_zhengan_day_hour!D25="","",_zhengan_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G30" s="16" t="str">
+      <c r="G30" s="8" t="str">
         <f>IF(_zhengan_day_hour!E25="","",_zhengan_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H30" s="16" t="str">
+      <c r="H30" s="8" t="str">
         <f>IF(_zhengan_day_hour!F25="","",_zhengan_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I30" s="16" t="str">
+      <c r="I30" s="8" t="str">
         <f>IF(_zhengan_day_hour!G25="","",_zhengan_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J30" s="16" t="str">
+      <c r="J30" s="8" t="str">
         <f>IF(_zhengan_day_hour!H25="","",_zhengan_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K30" s="16" t="str">
+      <c r="K30" s="8" t="str">
         <f>IF(_zhengan_day_hour!I25="","",_zhengan_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L30" s="16" t="str">
+      <c r="L30" s="8" t="str">
         <f>IF(_zhengan_day_hour!J25="","",_zhengan_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M30" s="16" t="str">
+      <c r="M30" s="8" t="str">
         <f>IF(_zhengan_day_hour!K25="","",_zhengan_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N30" s="16" t="str">
+      <c r="N30" s="8" t="str">
         <f>IF(_zhengan_day_hour!L25="","",_zhengan_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O30" s="16" t="str">
+      <c r="O30" s="8" t="str">
         <f>IF(_zhengan_day_hour!M25="","",_zhengan_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P30" s="16" t="str">
+      <c r="P30" s="8" t="str">
         <f>IF(_zhengan_day_hour!N25="","",_zhengan_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q30" s="16" t="str">
+      <c r="Q30" s="8" t="str">
         <f>IF(_zhengan_day_hour!O25="","",_zhengan_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R30" s="16" t="str">
+      <c r="R30" s="8" t="str">
         <f>IF(_zhengan_day_hour!P25="","",_zhengan_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S30" s="16" t="str">
+      <c r="S30" s="8" t="str">
         <f>IF(_zhengan_day_hour!Q25="","",_zhengan_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="T30" s="16" t="str">
+      <c r="T30" s="8" t="str">
         <f>IF(_zhengan_day_hour!R25="","",_zhengan_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="U30" s="64"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="65"/>
-      <c r="Y30" s="74"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="65"/>
     </row>
-    <row r="31" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
-      <c r="B31" s="17" t="s">
+    <row r="31" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="64"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="65"/>
-      <c r="X31" s="65"/>
-      <c r="Y31" s="74"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
+      <c r="X31" s="64"/>
+      <c r="Y31" s="65"/>
     </row>
-    <row r="32" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
-      <c r="B32" s="17" t="s">
+    <row r="32" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="64"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="65"/>
-      <c r="X32" s="65"/>
-      <c r="Y32" s="74"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="65"/>
     </row>
-    <row r="33" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
-      <c r="B33" s="17" t="s">
+    <row r="33" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="64"/>
-      <c r="V33" s="65"/>
-      <c r="W33" s="65"/>
-      <c r="X33" s="65"/>
-      <c r="Y33" s="74"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="64"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="65"/>
     </row>
-    <row r="34" customFormat="1" ht="14.45" customHeight="1" spans="2:25">
-      <c r="B34" s="18" t="s">
+    <row r="34" spans="2:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="65"/>
-      <c r="Y34" s="74"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="64"/>
+      <c r="Y34" s="65"/>
     </row>
-    <row r="35" customFormat="1" ht="15.95" customHeight="1" spans="2:25">
-      <c r="B35" s="20" t="s">
+    <row r="35" spans="2:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="20" t="s">
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="20" t="s">
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="64"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65"/>
-      <c r="Y35" s="74"/>
+      <c r="Q35" s="70"/>
+      <c r="R35" s="70"/>
+      <c r="S35" s="70"/>
+      <c r="T35" s="70"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="65"/>
     </row>
-    <row r="36" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="65"/>
-      <c r="W36" s="65"/>
-      <c r="X36" s="65"/>
-      <c r="Y36" s="74"/>
+    <row r="36" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="71"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="64"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="65"/>
     </row>
-    <row r="37" ht="70.5" customHeight="1" spans="2:25">
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="65"/>
-      <c r="W37" s="65"/>
-      <c r="X37" s="65"/>
-      <c r="Y37" s="74"/>
+    <row r="37" spans="2:25" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="73"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="64"/>
+      <c r="W37" s="64"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="65"/>
     </row>
-    <row r="38" ht="16.5" spans="2:25">
-      <c r="B38" s="26" t="s">
+    <row r="38" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="26" t="s">
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="26" t="s">
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
+      <c r="Q38" s="39"/>
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="39"/>
       <c r="U38" s="66"/>
       <c r="V38" s="67"/>
       <c r="W38" s="67"/>
       <c r="X38" s="67"/>
-      <c r="Y38" s="75"/>
+      <c r="Y38" s="68"/>
     </row>
-    <row r="39" spans="21:24">
-      <c r="U39" s="68"/>
-      <c r="V39" s="68"/>
-      <c r="W39" s="68"/>
-      <c r="X39" s="68"/>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
     </row>
-    <row r="40" spans="22:24">
-      <c r="V40" s="68"/>
-      <c r="W40" s="68"/>
-      <c r="X40" s="68"/>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
     </row>
-    <row r="41" spans="22:24">
-      <c r="V41" s="68"/>
-      <c r="W41" s="68"/>
-      <c r="X41" s="68"/>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:U16"/>
+    <mergeCell ref="U17:U26"/>
+    <mergeCell ref="U3:Y5"/>
+    <mergeCell ref="U27:Y38"/>
+    <mergeCell ref="B35:H37"/>
+    <mergeCell ref="I35:O37"/>
+    <mergeCell ref="P35:T37"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="I38:O38"/>
     <mergeCell ref="P38:T38"/>
@@ -5253,32 +4672,35 @@
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S3:S5"/>
     <mergeCell ref="T3:T5"/>
-    <mergeCell ref="U7:U16"/>
-    <mergeCell ref="U17:U26"/>
-    <mergeCell ref="U3:Y5"/>
-    <mergeCell ref="U27:Y38"/>
-    <mergeCell ref="B35:H37"/>
-    <mergeCell ref="I35:O37"/>
-    <mergeCell ref="P35:T37"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="Q3:R3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" customFormat="1" ht="33.75" spans="1:18">
+    <row r="1" spans="1:18" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -5335,39 +4757,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-蒸氨（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-蒸氨（日）报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="3.蒸氨（日）" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>6-7#  焦炉氨 水 蒸 馏 操 作 记 录</t>
   </si>
@@ -27,7 +27,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                                                                                                                                           </t>
     </r>
@@ -36,7 +36,6 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年</t>
@@ -46,7 +45,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">          </t>
     </r>
@@ -55,7 +54,6 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -65,7 +63,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">          </t>
     </r>
@@ -74,7 +72,6 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日</t>
@@ -84,7 +81,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                                                                                                                                 </t>
     </r>
@@ -92,7 +89,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">             SGSSG-BSMCSA35-G010-02A</t>
     </r>
@@ -106,7 +103,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -116,7 +112,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">      
 </t>
@@ -126,7 +122,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -145,7 +140,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -157,7 +151,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>℃</t>
@@ -185,7 +178,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -195,7 +187,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>℃</t>
@@ -207,7 +198,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -217,7 +207,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>℃</t>
@@ -235,7 +224,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -245,7 +233,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>m</t>
     </r>
@@ -254,7 +242,7 @@
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -262,7 +250,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>/H</t>
     </r>
@@ -282,7 +270,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -294,7 +281,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>℃</t>
@@ -309,7 +295,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -319,7 +305,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>﹟</t>
@@ -331,7 +316,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -341,7 +326,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>﹟</t>
@@ -428,7 +412,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>挥发氨</t>
@@ -438,7 +421,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  g/l</t>
     </r>
@@ -449,7 +432,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>固定氨</t>
@@ -459,7 +441,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  g/l</t>
     </r>
@@ -505,7 +487,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -514,7 +496,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>夜班记事：</t>
@@ -523,7 +504,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -533,7 +514,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -541,7 +522,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白</t>
@@ -551,7 +531,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -560,7 +539,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -570,7 +549,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -578,7 +557,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中</t>
@@ -588,7 +566,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -597,7 +574,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -607,7 +584,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -616,7 +593,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>交班：</t>
@@ -625,7 +601,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
@@ -634,7 +610,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接班：</t>
@@ -644,8 +619,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -657,21 +638,18 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -679,14 +657,13 @@
       <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -694,28 +671,25 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -723,26 +697,28 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -750,7 +726,6 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -758,77 +733,394 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1054,6 +1346,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1252,10 +1553,252 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -1270,202 +1813,249 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1476,7 +2066,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1490,14 +2080,14 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14195425" y="7288530"/>
+          <a:off x="14195425" y="7326630"/>
           <a:ext cx="4878070" cy="146685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1682,7 +2272,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Line 2"/>
         <xdr:cNvSpPr>
@@ -1691,7 +2281,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7258050" y="1040765"/>
+          <a:off x="7258050" y="1078865"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1728,7 +2318,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Line 3"/>
         <xdr:cNvSpPr>
@@ -1737,7 +2327,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7258050" y="1669415"/>
+          <a:off x="7258050" y="1707515"/>
           <a:ext cx="0" cy="57150"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1774,7 +2364,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Line 5"/>
         <xdr:cNvSpPr>
@@ -1783,7 +2373,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7258050" y="1040765"/>
+          <a:off x="7258050" y="1078865"/>
           <a:ext cx="0" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1820,7 +2410,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Line 6"/>
         <xdr:cNvSpPr>
@@ -1829,7 +2419,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7258050" y="1040765"/>
+          <a:off x="7258050" y="1078865"/>
           <a:ext cx="0" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2108,19 +2698,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="8" max="8" width="9.875" customWidth="1"/>
     <col min="10" max="10" width="13.375" customWidth="1"/>
@@ -2129,199 +2719,199 @@
     <col min="23" max="23" width="8.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="24" t="s">
+    <row r="1" ht="42" customHeight="1" spans="2:20">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B2" s="4" t="s">
+    <row r="2" ht="19.5" spans="2:24">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="75">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="28">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="25" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:25" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41" t="s">
+    <row r="3" ht="23.45" customHeight="1" spans="1:25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="45" t="s">
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="P3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="33"/>
-      <c r="S3" s="45" t="s">
+      <c r="R3" s="40"/>
+      <c r="S3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="50" t="s">
+      <c r="T3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="54" t="s">
+      <c r="U3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="56"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="69"/>
     </row>
-    <row r="4" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="40"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="34" t="s">
+    <row r="4" ht="31.5" customHeight="1" spans="1:25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="34" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="34" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="43" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="44"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="43" t="s">
+      <c r="O4" s="35"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="46"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="59"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="70"/>
     </row>
-    <row r="5" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="5" t="s">
+    <row r="5" ht="22.5" customHeight="1" spans="1:25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="59"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="70"/>
     </row>
-    <row r="6" spans="1:25" ht="44.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="40"/>
-      <c r="B6" s="6" t="s">
+    <row r="6" ht="44.45" customHeight="1" spans="1:25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2378,2285 +2968,2289 @@
       <c r="T6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="U6" s="36" t="s">
+      <c r="U6" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="V6" s="37"/>
-      <c r="W6" s="12" t="s">
+      <c r="V6" s="51"/>
+      <c r="W6" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="X6" s="12" t="s">
+      <c r="X6" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="Y6" s="22" t="s">
+      <c r="Y6" s="71" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B7" s="7">
+    <row r="7" ht="14.25" spans="2:25">
+      <c r="B7" s="15">
         <v>0</v>
       </c>
-      <c r="C7" s="8" t="str">
+      <c r="C7" s="16" t="str">
         <f>IF(_zhengan_day_hour!A2="","",_zhengan_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="D7" s="8" t="str">
+      <c r="D7" s="16" t="str">
         <f>IF(_zhengan_day_hour!B2="","",_zhengan_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="E7" s="8" t="str">
+      <c r="E7" s="16" t="str">
         <f>IF(_zhengan_day_hour!C2="","",_zhengan_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="F7" s="8" t="str">
+      <c r="F7" s="16" t="str">
         <f>IF(_zhengan_day_hour!D2="","",_zhengan_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="G7" s="8" t="str">
+      <c r="G7" s="16" t="str">
         <f>IF(_zhengan_day_hour!E2="","",_zhengan_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="H7" s="8" t="str">
+      <c r="H7" s="16" t="str">
         <f>IF(_zhengan_day_hour!F2="","",_zhengan_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I7" s="8" t="str">
+      <c r="I7" s="16" t="str">
         <f>IF(_zhengan_day_hour!G2="","",_zhengan_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="J7" s="8" t="str">
+      <c r="J7" s="16" t="str">
         <f>IF(_zhengan_day_hour!H2="","",_zhengan_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="K7" s="8" t="str">
+      <c r="K7" s="16" t="str">
         <f>IF(_zhengan_day_hour!I2="","",_zhengan_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="L7" s="8" t="str">
+      <c r="L7" s="16" t="str">
         <f>IF(_zhengan_day_hour!J2="","",_zhengan_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="M7" s="8" t="str">
+      <c r="M7" s="16" t="str">
         <f>IF(_zhengan_day_hour!K2="","",_zhengan_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="N7" s="8" t="str">
+      <c r="N7" s="16" t="str">
         <f>IF(_zhengan_day_hour!L2="","",_zhengan_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="O7" s="8" t="str">
+      <c r="O7" s="16" t="str">
         <f>IF(_zhengan_day_hour!M2="","",_zhengan_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="P7" s="8" t="str">
+      <c r="P7" s="16" t="str">
         <f>IF(_zhengan_day_hour!N2="","",_zhengan_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="Q7" s="8" t="str">
+      <c r="Q7" s="16" t="str">
         <f>IF(_zhengan_day_hour!O2="","",_zhengan_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R7" s="8" t="str">
+      <c r="R7" s="16" t="str">
         <f>IF(_zhengan_day_hour!P2="","",_zhengan_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S7" s="8" t="str">
+      <c r="S7" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q2="","",_zhengan_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="T7" s="8" t="str">
+      <c r="T7" s="16" t="str">
         <f>IF(_zhengan_day_hour!R2="","",_zhengan_day_hour!R2)</f>
         <v/>
       </c>
       <c r="U7" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="13" t="s">
+      <c r="V7" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="W7" s="14"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="23"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="72"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B8" s="7">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="C8" s="8" t="str">
+    <row r="8" ht="15.75" spans="2:25">
+      <c r="B8" s="15">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C8" s="16" t="str">
         <f>IF(_zhengan_day_hour!A3="","",_zhengan_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="D8" s="8" t="str">
+      <c r="D8" s="16" t="str">
         <f>IF(_zhengan_day_hour!B3="","",_zhengan_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="E8" s="8" t="str">
+      <c r="E8" s="16" t="str">
         <f>IF(_zhengan_day_hour!C3="","",_zhengan_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="F8" s="8" t="str">
+      <c r="F8" s="16" t="str">
         <f>IF(_zhengan_day_hour!D3="","",_zhengan_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="G8" s="8" t="str">
+      <c r="G8" s="16" t="str">
         <f>IF(_zhengan_day_hour!E3="","",_zhengan_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="H8" s="8" t="str">
+      <c r="H8" s="16" t="str">
         <f>IF(_zhengan_day_hour!F3="","",_zhengan_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I8" s="8" t="str">
+      <c r="I8" s="16" t="str">
         <f>IF(_zhengan_day_hour!G3="","",_zhengan_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="J8" s="8" t="str">
+      <c r="J8" s="16" t="str">
         <f>IF(_zhengan_day_hour!H3="","",_zhengan_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="K8" s="8" t="str">
+      <c r="K8" s="16" t="str">
         <f>IF(_zhengan_day_hour!I3="","",_zhengan_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="L8" s="8" t="str">
+      <c r="L8" s="16" t="str">
         <f>IF(_zhengan_day_hour!J3="","",_zhengan_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="M8" s="8" t="str">
+      <c r="M8" s="16" t="str">
         <f>IF(_zhengan_day_hour!K3="","",_zhengan_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="N8" s="8" t="str">
+      <c r="N8" s="16" t="str">
         <f>IF(_zhengan_day_hour!L3="","",_zhengan_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="O8" s="8" t="str">
+      <c r="O8" s="16" t="str">
         <f>IF(_zhengan_day_hour!M3="","",_zhengan_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="P8" s="8" t="str">
+      <c r="P8" s="16" t="str">
         <f>IF(_zhengan_day_hour!N3="","",_zhengan_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="Q8" s="8" t="str">
+      <c r="Q8" s="16" t="str">
         <f>IF(_zhengan_day_hour!O3="","",_zhengan_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R8" s="8" t="str">
+      <c r="R8" s="16" t="str">
         <f>IF(_zhengan_day_hour!P3="","",_zhengan_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S8" s="8" t="str">
+      <c r="S8" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q3="","",_zhengan_day_hour!Q3)</f>
         <v/>
       </c>
-      <c r="T8" s="8" t="str">
+      <c r="T8" s="16" t="str">
         <f>IF(_zhengan_day_hour!R3="","",_zhengan_day_hour!R3)</f>
         <v/>
       </c>
       <c r="U8" s="53"/>
-      <c r="V8" s="13" t="s">
+      <c r="V8" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="W8" s="14"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="23"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="72"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="7">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="C9" s="8" t="str">
+    <row r="9" ht="15.75" spans="2:25">
+      <c r="B9" s="15">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C9" s="16" t="str">
         <f>IF(_zhengan_day_hour!A4="","",_zhengan_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="D9" s="8" t="str">
+      <c r="D9" s="16" t="str">
         <f>IF(_zhengan_day_hour!B4="","",_zhengan_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="E9" s="8" t="str">
+      <c r="E9" s="16" t="str">
         <f>IF(_zhengan_day_hour!C4="","",_zhengan_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="F9" s="8" t="str">
+      <c r="F9" s="16" t="str">
         <f>IF(_zhengan_day_hour!D4="","",_zhengan_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="G9" s="8" t="str">
+      <c r="G9" s="16" t="str">
         <f>IF(_zhengan_day_hour!E4="","",_zhengan_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="H9" s="8" t="str">
+      <c r="H9" s="16" t="str">
         <f>IF(_zhengan_day_hour!F4="","",_zhengan_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I9" s="8" t="str">
+      <c r="I9" s="16" t="str">
         <f>IF(_zhengan_day_hour!G4="","",_zhengan_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="J9" s="8" t="str">
+      <c r="J9" s="16" t="str">
         <f>IF(_zhengan_day_hour!H4="","",_zhengan_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="K9" s="8" t="str">
+      <c r="K9" s="16" t="str">
         <f>IF(_zhengan_day_hour!I4="","",_zhengan_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="L9" s="8" t="str">
+      <c r="L9" s="16" t="str">
         <f>IF(_zhengan_day_hour!J4="","",_zhengan_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="M9" s="8" t="str">
+      <c r="M9" s="16" t="str">
         <f>IF(_zhengan_day_hour!K4="","",_zhengan_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="N9" s="8" t="str">
+      <c r="N9" s="16" t="str">
         <f>IF(_zhengan_day_hour!L4="","",_zhengan_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="O9" s="8" t="str">
+      <c r="O9" s="16" t="str">
         <f>IF(_zhengan_day_hour!M4="","",_zhengan_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="P9" s="8" t="str">
+      <c r="P9" s="16" t="str">
         <f>IF(_zhengan_day_hour!N4="","",_zhengan_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="Q9" s="8" t="str">
+      <c r="Q9" s="16" t="str">
         <f>IF(_zhengan_day_hour!O4="","",_zhengan_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="R9" s="8" t="str">
+      <c r="R9" s="16" t="str">
         <f>IF(_zhengan_day_hour!P4="","",_zhengan_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S9" s="8" t="str">
+      <c r="S9" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q4="","",_zhengan_day_hour!Q4)</f>
         <v/>
       </c>
-      <c r="T9" s="8" t="str">
+      <c r="T9" s="16" t="str">
         <f>IF(_zhengan_day_hour!R4="","",_zhengan_day_hour!R4)</f>
         <v/>
       </c>
       <c r="U9" s="53"/>
-      <c r="V9" s="13" t="s">
+      <c r="V9" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="14"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="23"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="72"/>
     </row>
-    <row r="10" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B10" s="7">
+    <row r="10" ht="14.25" spans="2:25">
+      <c r="B10" s="15">
         <v>0.125</v>
       </c>
-      <c r="C10" s="8" t="str">
+      <c r="C10" s="16" t="str">
         <f>IF(_zhengan_day_hour!A5="","",_zhengan_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D10" s="8" t="str">
+      <c r="D10" s="16" t="str">
         <f>IF(_zhengan_day_hour!B5="","",_zhengan_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E10" s="8" t="str">
+      <c r="E10" s="16" t="str">
         <f>IF(_zhengan_day_hour!C5="","",_zhengan_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F10" s="8" t="str">
+      <c r="F10" s="16" t="str">
         <f>IF(_zhengan_day_hour!D5="","",_zhengan_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G10" s="8" t="str">
+      <c r="G10" s="16" t="str">
         <f>IF(_zhengan_day_hour!E5="","",_zhengan_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H10" s="8" t="str">
+      <c r="H10" s="16" t="str">
         <f>IF(_zhengan_day_hour!F5="","",_zhengan_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I10" s="8" t="str">
+      <c r="I10" s="16" t="str">
         <f>IF(_zhengan_day_hour!G5="","",_zhengan_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J10" s="8" t="str">
+      <c r="J10" s="16" t="str">
         <f>IF(_zhengan_day_hour!H5="","",_zhengan_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K10" s="8" t="str">
+      <c r="K10" s="16" t="str">
         <f>IF(_zhengan_day_hour!I5="","",_zhengan_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L10" s="8" t="str">
+      <c r="L10" s="16" t="str">
         <f>IF(_zhengan_day_hour!J5="","",_zhengan_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M10" s="8" t="str">
+      <c r="M10" s="16" t="str">
         <f>IF(_zhengan_day_hour!K5="","",_zhengan_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N10" s="8" t="str">
+      <c r="N10" s="16" t="str">
         <f>IF(_zhengan_day_hour!L5="","",_zhengan_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O10" s="8" t="str">
+      <c r="O10" s="16" t="str">
         <f>IF(_zhengan_day_hour!M5="","",_zhengan_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P10" s="8" t="str">
+      <c r="P10" s="16" t="str">
         <f>IF(_zhengan_day_hour!N5="","",_zhengan_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q10" s="8" t="str">
+      <c r="Q10" s="16" t="str">
         <f>IF(_zhengan_day_hour!O5="","",_zhengan_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R10" s="8" t="str">
+      <c r="R10" s="16" t="str">
         <f>IF(_zhengan_day_hour!P5="","",_zhengan_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S10" s="8" t="str">
+      <c r="S10" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q5="","",_zhengan_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="T10" s="8" t="str">
+      <c r="T10" s="16" t="str">
         <f>IF(_zhengan_day_hour!R5="","",_zhengan_day_hour!R5)</f>
         <v/>
       </c>
       <c r="U10" s="53"/>
-      <c r="V10" s="16" t="s">
+      <c r="V10" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="W10" s="17"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="23"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="72"/>
     </row>
-    <row r="11" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B11" s="7">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="C11" s="8" t="str">
+    <row r="11" ht="14.25" spans="2:25">
+      <c r="B11" s="15">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="C11" s="16" t="str">
         <f>IF(_zhengan_day_hour!A6="","",_zhengan_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D11" s="8" t="str">
+      <c r="D11" s="16" t="str">
         <f>IF(_zhengan_day_hour!B6="","",_zhengan_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E11" s="8" t="str">
+      <c r="E11" s="16" t="str">
         <f>IF(_zhengan_day_hour!C6="","",_zhengan_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F11" s="8" t="str">
+      <c r="F11" s="16" t="str">
         <f>IF(_zhengan_day_hour!D6="","",_zhengan_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G11" s="8" t="str">
+      <c r="G11" s="16" t="str">
         <f>IF(_zhengan_day_hour!E6="","",_zhengan_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H11" s="8" t="str">
+      <c r="H11" s="16" t="str">
         <f>IF(_zhengan_day_hour!F6="","",_zhengan_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I11" s="8" t="str">
+      <c r="I11" s="16" t="str">
         <f>IF(_zhengan_day_hour!G6="","",_zhengan_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J11" s="8" t="str">
+      <c r="J11" s="16" t="str">
         <f>IF(_zhengan_day_hour!H6="","",_zhengan_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K11" s="8" t="str">
+      <c r="K11" s="16" t="str">
         <f>IF(_zhengan_day_hour!I6="","",_zhengan_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L11" s="8" t="str">
+      <c r="L11" s="16" t="str">
         <f>IF(_zhengan_day_hour!J6="","",_zhengan_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M11" s="8" t="str">
+      <c r="M11" s="16" t="str">
         <f>IF(_zhengan_day_hour!K6="","",_zhengan_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N11" s="8" t="str">
+      <c r="N11" s="16" t="str">
         <f>IF(_zhengan_day_hour!L6="","",_zhengan_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O11" s="8" t="str">
+      <c r="O11" s="16" t="str">
         <f>IF(_zhengan_day_hour!M6="","",_zhengan_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P11" s="8" t="str">
+      <c r="P11" s="16" t="str">
         <f>IF(_zhengan_day_hour!N6="","",_zhengan_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q11" s="8" t="str">
+      <c r="Q11" s="16" t="str">
         <f>IF(_zhengan_day_hour!O6="","",_zhengan_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R11" s="8" t="str">
+      <c r="R11" s="16" t="str">
         <f>IF(_zhengan_day_hour!P6="","",_zhengan_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S11" s="8" t="str">
+      <c r="S11" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q6="","",_zhengan_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="T11" s="8" t="str">
+      <c r="T11" s="16" t="str">
         <f>IF(_zhengan_day_hour!R6="","",_zhengan_day_hour!R6)</f>
         <v/>
       </c>
       <c r="U11" s="53"/>
-      <c r="V11" s="16" t="s">
+      <c r="V11" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="W11" s="17"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="23"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="72"/>
     </row>
-    <row r="12" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B12" s="7">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="C12" s="8" t="str">
+    <row r="12" ht="14.25" spans="2:25">
+      <c r="B12" s="15">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="C12" s="16" t="str">
         <f>IF(_zhengan_day_hour!A7="","",_zhengan_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D12" s="8" t="str">
+      <c r="D12" s="16" t="str">
         <f>IF(_zhengan_day_hour!B7="","",_zhengan_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E12" s="8" t="str">
+      <c r="E12" s="16" t="str">
         <f>IF(_zhengan_day_hour!C7="","",_zhengan_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F12" s="8" t="str">
+      <c r="F12" s="16" t="str">
         <f>IF(_zhengan_day_hour!D7="","",_zhengan_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G12" s="8" t="str">
+      <c r="G12" s="16" t="str">
         <f>IF(_zhengan_day_hour!E7="","",_zhengan_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H12" s="8" t="str">
+      <c r="H12" s="16" t="str">
         <f>IF(_zhengan_day_hour!F7="","",_zhengan_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I12" s="8" t="str">
+      <c r="I12" s="16" t="str">
         <f>IF(_zhengan_day_hour!G7="","",_zhengan_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J12" s="8" t="str">
+      <c r="J12" s="16" t="str">
         <f>IF(_zhengan_day_hour!H7="","",_zhengan_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K12" s="8" t="str">
+      <c r="K12" s="16" t="str">
         <f>IF(_zhengan_day_hour!I7="","",_zhengan_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L12" s="8" t="str">
+      <c r="L12" s="16" t="str">
         <f>IF(_zhengan_day_hour!J7="","",_zhengan_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M12" s="8" t="str">
+      <c r="M12" s="16" t="str">
         <f>IF(_zhengan_day_hour!K7="","",_zhengan_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N12" s="8" t="str">
+      <c r="N12" s="16" t="str">
         <f>IF(_zhengan_day_hour!L7="","",_zhengan_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O12" s="8" t="str">
+      <c r="O12" s="16" t="str">
         <f>IF(_zhengan_day_hour!M7="","",_zhengan_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P12" s="8" t="str">
+      <c r="P12" s="16" t="str">
         <f>IF(_zhengan_day_hour!N7="","",_zhengan_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q12" s="8" t="str">
+      <c r="Q12" s="16" t="str">
         <f>IF(_zhengan_day_hour!O7="","",_zhengan_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R12" s="8" t="str">
+      <c r="R12" s="16" t="str">
         <f>IF(_zhengan_day_hour!P7="","",_zhengan_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S12" s="8" t="str">
+      <c r="S12" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q7="","",_zhengan_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="T12" s="8" t="str">
+      <c r="T12" s="16" t="str">
         <f>IF(_zhengan_day_hour!R7="","",_zhengan_day_hour!R7)</f>
         <v/>
       </c>
       <c r="U12" s="53"/>
-      <c r="V12" s="16" t="s">
+      <c r="V12" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="W12" s="17"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="23"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="72"/>
     </row>
-    <row r="13" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B13" s="7">
+    <row r="13" ht="14.25" spans="2:25">
+      <c r="B13" s="15">
         <v>0.25</v>
       </c>
-      <c r="C13" s="8" t="str">
+      <c r="C13" s="16" t="str">
         <f>IF(_zhengan_day_hour!A8="","",_zhengan_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D13" s="8" t="str">
+      <c r="D13" s="16" t="str">
         <f>IF(_zhengan_day_hour!B8="","",_zhengan_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E13" s="8" t="str">
+      <c r="E13" s="16" t="str">
         <f>IF(_zhengan_day_hour!C8="","",_zhengan_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F13" s="8" t="str">
+      <c r="F13" s="16" t="str">
         <f>IF(_zhengan_day_hour!D8="","",_zhengan_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G13" s="8" t="str">
+      <c r="G13" s="16" t="str">
         <f>IF(_zhengan_day_hour!E8="","",_zhengan_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H13" s="8" t="str">
+      <c r="H13" s="16" t="str">
         <f>IF(_zhengan_day_hour!F8="","",_zhengan_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I13" s="8" t="str">
+      <c r="I13" s="16" t="str">
         <f>IF(_zhengan_day_hour!G8="","",_zhengan_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J13" s="8" t="str">
+      <c r="J13" s="16" t="str">
         <f>IF(_zhengan_day_hour!H8="","",_zhengan_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K13" s="8" t="str">
+      <c r="K13" s="16" t="str">
         <f>IF(_zhengan_day_hour!I8="","",_zhengan_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L13" s="8" t="str">
+      <c r="L13" s="16" t="str">
         <f>IF(_zhengan_day_hour!J8="","",_zhengan_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M13" s="8" t="str">
+      <c r="M13" s="16" t="str">
         <f>IF(_zhengan_day_hour!K8="","",_zhengan_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N13" s="8" t="str">
+      <c r="N13" s="16" t="str">
         <f>IF(_zhengan_day_hour!L8="","",_zhengan_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O13" s="8" t="str">
+      <c r="O13" s="16" t="str">
         <f>IF(_zhengan_day_hour!M8="","",_zhengan_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P13" s="8" t="str">
+      <c r="P13" s="16" t="str">
         <f>IF(_zhengan_day_hour!N8="","",_zhengan_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q13" s="8" t="str">
+      <c r="Q13" s="16" t="str">
         <f>IF(_zhengan_day_hour!O8="","",_zhengan_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R13" s="8" t="str">
+      <c r="R13" s="16" t="str">
         <f>IF(_zhengan_day_hour!P8="","",_zhengan_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S13" s="8" t="str">
+      <c r="S13" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q8="","",_zhengan_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="T13" s="8" t="str">
+      <c r="T13" s="16" t="str">
         <f>IF(_zhengan_day_hour!R8="","",_zhengan_day_hour!R8)</f>
         <v/>
       </c>
       <c r="U13" s="53"/>
-      <c r="V13" s="16" t="s">
+      <c r="V13" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="W13" s="17"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="23"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="72"/>
     </row>
-    <row r="14" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B14" s="7">
-        <v>0.29166666666666702</v>
-      </c>
-      <c r="C14" s="8" t="str">
+    <row r="14" ht="14.25" spans="2:25">
+      <c r="B14" s="15">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="C14" s="16" t="str">
         <f>IF(_zhengan_day_hour!A9="","",_zhengan_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="D14" s="8" t="str">
+      <c r="D14" s="16" t="str">
         <f>IF(_zhengan_day_hour!B9="","",_zhengan_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="E14" s="8" t="str">
+      <c r="E14" s="16" t="str">
         <f>IF(_zhengan_day_hour!C9="","",_zhengan_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="F14" s="8" t="str">
+      <c r="F14" s="16" t="str">
         <f>IF(_zhengan_day_hour!D9="","",_zhengan_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="G14" s="8" t="str">
+      <c r="G14" s="16" t="str">
         <f>IF(_zhengan_day_hour!E9="","",_zhengan_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="H14" s="8" t="str">
+      <c r="H14" s="16" t="str">
         <f>IF(_zhengan_day_hour!F9="","",_zhengan_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I14" s="8" t="str">
+      <c r="I14" s="16" t="str">
         <f>IF(_zhengan_day_hour!G9="","",_zhengan_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="J14" s="8" t="str">
+      <c r="J14" s="16" t="str">
         <f>IF(_zhengan_day_hour!H9="","",_zhengan_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="K14" s="8" t="str">
+      <c r="K14" s="16" t="str">
         <f>IF(_zhengan_day_hour!I9="","",_zhengan_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="L14" s="8" t="str">
+      <c r="L14" s="16" t="str">
         <f>IF(_zhengan_day_hour!J9="","",_zhengan_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="M14" s="8" t="str">
+      <c r="M14" s="16" t="str">
         <f>IF(_zhengan_day_hour!K9="","",_zhengan_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="N14" s="8" t="str">
+      <c r="N14" s="16" t="str">
         <f>IF(_zhengan_day_hour!L9="","",_zhengan_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="O14" s="8" t="str">
+      <c r="O14" s="16" t="str">
         <f>IF(_zhengan_day_hour!M9="","",_zhengan_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="P14" s="8" t="str">
+      <c r="P14" s="16" t="str">
         <f>IF(_zhengan_day_hour!N9="","",_zhengan_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="Q14" s="8" t="str">
+      <c r="Q14" s="16" t="str">
         <f>IF(_zhengan_day_hour!O9="","",_zhengan_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="R14" s="8" t="str">
+      <c r="R14" s="16" t="str">
         <f>IF(_zhengan_day_hour!P9="","",_zhengan_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S14" s="8" t="str">
+      <c r="S14" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q9="","",_zhengan_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="T14" s="8" t="str">
+      <c r="T14" s="16" t="str">
         <f>IF(_zhengan_day_hour!R9="","",_zhengan_day_hour!R9)</f>
         <v/>
       </c>
       <c r="U14" s="53"/>
-      <c r="V14" s="16" t="s">
+      <c r="V14" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="W14" s="17"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="23"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="72"/>
     </row>
-    <row r="15" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B15" s="7">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C15" s="8" t="str">
+    <row r="15" ht="14.25" spans="2:25">
+      <c r="B15" s="15">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C15" s="16" t="str">
         <f>IF(_zhengan_day_hour!A10="","",_zhengan_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="D15" s="8" t="str">
+      <c r="D15" s="16" t="str">
         <f>IF(_zhengan_day_hour!B10="","",_zhengan_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="E15" s="8" t="str">
+      <c r="E15" s="16" t="str">
         <f>IF(_zhengan_day_hour!C10="","",_zhengan_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="F15" s="8" t="str">
+      <c r="F15" s="16" t="str">
         <f>IF(_zhengan_day_hour!D10="","",_zhengan_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="G15" s="8" t="str">
+      <c r="G15" s="16" t="str">
         <f>IF(_zhengan_day_hour!E10="","",_zhengan_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="H15" s="8" t="str">
+      <c r="H15" s="16" t="str">
         <f>IF(_zhengan_day_hour!F10="","",_zhengan_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I15" s="8" t="str">
+      <c r="I15" s="16" t="str">
         <f>IF(_zhengan_day_hour!G10="","",_zhengan_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="J15" s="8" t="str">
+      <c r="J15" s="16" t="str">
         <f>IF(_zhengan_day_hour!H10="","",_zhengan_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="K15" s="8" t="str">
+      <c r="K15" s="16" t="str">
         <f>IF(_zhengan_day_hour!I10="","",_zhengan_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="L15" s="8" t="str">
+      <c r="L15" s="16" t="str">
         <f>IF(_zhengan_day_hour!J10="","",_zhengan_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="M15" s="8" t="str">
+      <c r="M15" s="16" t="str">
         <f>IF(_zhengan_day_hour!K10="","",_zhengan_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="N15" s="8" t="str">
+      <c r="N15" s="16" t="str">
         <f>IF(_zhengan_day_hour!L10="","",_zhengan_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="O15" s="8" t="str">
+      <c r="O15" s="16" t="str">
         <f>IF(_zhengan_day_hour!M10="","",_zhengan_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="P15" s="8" t="str">
+      <c r="P15" s="16" t="str">
         <f>IF(_zhengan_day_hour!N10="","",_zhengan_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="Q15" s="8" t="str">
+      <c r="Q15" s="16" t="str">
         <f>IF(_zhengan_day_hour!O10="","",_zhengan_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="R15" s="8" t="str">
+      <c r="R15" s="16" t="str">
         <f>IF(_zhengan_day_hour!P10="","",_zhengan_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S15" s="8" t="str">
+      <c r="S15" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q10="","",_zhengan_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="T15" s="8" t="str">
+      <c r="T15" s="16" t="str">
         <f>IF(_zhengan_day_hour!R10="","",_zhengan_day_hour!R10)</f>
         <v/>
       </c>
       <c r="U15" s="53"/>
-      <c r="V15" s="13" t="s">
+      <c r="V15" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="W15" s="19"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="23"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="72"/>
     </row>
-    <row r="16" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B16" s="7">
+    <row r="16" ht="14.25" spans="2:25">
+      <c r="B16" s="15">
         <v>0.375</v>
       </c>
-      <c r="C16" s="8" t="str">
+      <c r="C16" s="16" t="str">
         <f>IF(_zhengan_day_hour!A11="","",_zhengan_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="D16" s="8" t="str">
+      <c r="D16" s="16" t="str">
         <f>IF(_zhengan_day_hour!B11="","",_zhengan_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="E16" s="8" t="str">
+      <c r="E16" s="16" t="str">
         <f>IF(_zhengan_day_hour!C11="","",_zhengan_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="F16" s="8" t="str">
+      <c r="F16" s="16" t="str">
         <f>IF(_zhengan_day_hour!D11="","",_zhengan_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="G16" s="8" t="str">
+      <c r="G16" s="16" t="str">
         <f>IF(_zhengan_day_hour!E11="","",_zhengan_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="H16" s="8" t="str">
+      <c r="H16" s="16" t="str">
         <f>IF(_zhengan_day_hour!F11="","",_zhengan_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I16" s="8" t="str">
+      <c r="I16" s="16" t="str">
         <f>IF(_zhengan_day_hour!G11="","",_zhengan_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="J16" s="8" t="str">
+      <c r="J16" s="16" t="str">
         <f>IF(_zhengan_day_hour!H11="","",_zhengan_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="K16" s="8" t="str">
+      <c r="K16" s="16" t="str">
         <f>IF(_zhengan_day_hour!I11="","",_zhengan_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="L16" s="8" t="str">
+      <c r="L16" s="16" t="str">
         <f>IF(_zhengan_day_hour!J11="","",_zhengan_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="M16" s="8" t="str">
+      <c r="M16" s="16" t="str">
         <f>IF(_zhengan_day_hour!K11="","",_zhengan_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="N16" s="8" t="str">
+      <c r="N16" s="16" t="str">
         <f>IF(_zhengan_day_hour!L11="","",_zhengan_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="O16" s="8" t="str">
+      <c r="O16" s="16" t="str">
         <f>IF(_zhengan_day_hour!M11="","",_zhengan_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="P16" s="8" t="str">
+      <c r="P16" s="16" t="str">
         <f>IF(_zhengan_day_hour!N11="","",_zhengan_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="Q16" s="8" t="str">
+      <c r="Q16" s="16" t="str">
         <f>IF(_zhengan_day_hour!O11="","",_zhengan_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="R16" s="8" t="str">
+      <c r="R16" s="16" t="str">
         <f>IF(_zhengan_day_hour!P11="","",_zhengan_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S16" s="8" t="str">
+      <c r="S16" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q11="","",_zhengan_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="T16" s="8" t="str">
+      <c r="T16" s="16" t="str">
         <f>IF(_zhengan_day_hour!R11="","",_zhengan_day_hour!R11)</f>
         <v/>
       </c>
       <c r="U16" s="53"/>
-      <c r="V16" s="13" t="s">
+      <c r="V16" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="W16" s="14"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="23"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="72"/>
     </row>
-    <row r="17" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B17" s="7">
-        <v>0.41666666666666602</v>
-      </c>
-      <c r="C17" s="8" t="str">
+    <row r="17" ht="14.25" spans="2:25">
+      <c r="B17" s="15">
+        <v>0.416666666666666</v>
+      </c>
+      <c r="C17" s="16" t="str">
         <f>IF(_zhengan_day_hour!A12="","",_zhengan_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="D17" s="8" t="str">
+      <c r="D17" s="16" t="str">
         <f>IF(_zhengan_day_hour!B12="","",_zhengan_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="E17" s="8" t="str">
+      <c r="E17" s="16" t="str">
         <f>IF(_zhengan_day_hour!C12="","",_zhengan_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="F17" s="8" t="str">
+      <c r="F17" s="16" t="str">
         <f>IF(_zhengan_day_hour!D12="","",_zhengan_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="G17" s="8" t="str">
+      <c r="G17" s="16" t="str">
         <f>IF(_zhengan_day_hour!E12="","",_zhengan_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="H17" s="8" t="str">
+      <c r="H17" s="16" t="str">
         <f>IF(_zhengan_day_hour!F12="","",_zhengan_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I17" s="8" t="str">
+      <c r="I17" s="16" t="str">
         <f>IF(_zhengan_day_hour!G12="","",_zhengan_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="J17" s="8" t="str">
+      <c r="J17" s="16" t="str">
         <f>IF(_zhengan_day_hour!H12="","",_zhengan_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="K17" s="8" t="str">
+      <c r="K17" s="16" t="str">
         <f>IF(_zhengan_day_hour!I12="","",_zhengan_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="L17" s="8" t="str">
+      <c r="L17" s="16" t="str">
         <f>IF(_zhengan_day_hour!J12="","",_zhengan_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="M17" s="8" t="str">
+      <c r="M17" s="16" t="str">
         <f>IF(_zhengan_day_hour!K12="","",_zhengan_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="N17" s="8" t="str">
+      <c r="N17" s="16" t="str">
         <f>IF(_zhengan_day_hour!L12="","",_zhengan_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="O17" s="8" t="str">
+      <c r="O17" s="16" t="str">
         <f>IF(_zhengan_day_hour!M12="","",_zhengan_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="P17" s="8" t="str">
+      <c r="P17" s="16" t="str">
         <f>IF(_zhengan_day_hour!N12="","",_zhengan_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="Q17" s="8" t="str">
+      <c r="Q17" s="16" t="str">
         <f>IF(_zhengan_day_hour!O12="","",_zhengan_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="R17" s="8" t="str">
+      <c r="R17" s="16" t="str">
         <f>IF(_zhengan_day_hour!P12="","",_zhengan_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S17" s="8" t="str">
+      <c r="S17" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q12="","",_zhengan_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="T17" s="8" t="str">
+      <c r="T17" s="16" t="str">
         <f>IF(_zhengan_day_hour!R12="","",_zhengan_day_hour!R12)</f>
         <v/>
       </c>
       <c r="U17" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="V17" s="13" t="s">
+      <c r="V17" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="W17" s="14"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="23"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="72"/>
     </row>
-    <row r="18" spans="2:25" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B18" s="7">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="C18" s="8" t="str">
+    <row r="18" ht="15.75" spans="2:25">
+      <c r="B18" s="15">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C18" s="16" t="str">
         <f>IF(_zhengan_day_hour!A13="","",_zhengan_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="D18" s="8" t="str">
+      <c r="D18" s="16" t="str">
         <f>IF(_zhengan_day_hour!B13="","",_zhengan_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="E18" s="8" t="str">
+      <c r="E18" s="16" t="str">
         <f>IF(_zhengan_day_hour!C13="","",_zhengan_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="F18" s="8" t="str">
+      <c r="F18" s="16" t="str">
         <f>IF(_zhengan_day_hour!D13="","",_zhengan_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="G18" s="8" t="str">
+      <c r="G18" s="16" t="str">
         <f>IF(_zhengan_day_hour!E13="","",_zhengan_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="H18" s="8" t="str">
+      <c r="H18" s="16" t="str">
         <f>IF(_zhengan_day_hour!F13="","",_zhengan_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I18" s="8" t="str">
+      <c r="I18" s="16" t="str">
         <f>IF(_zhengan_day_hour!G13="","",_zhengan_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="J18" s="8" t="str">
+      <c r="J18" s="16" t="str">
         <f>IF(_zhengan_day_hour!H13="","",_zhengan_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="K18" s="8" t="str">
+      <c r="K18" s="16" t="str">
         <f>IF(_zhengan_day_hour!I13="","",_zhengan_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="L18" s="8" t="str">
+      <c r="L18" s="16" t="str">
         <f>IF(_zhengan_day_hour!J13="","",_zhengan_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="M18" s="8" t="str">
+      <c r="M18" s="16" t="str">
         <f>IF(_zhengan_day_hour!K13="","",_zhengan_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="N18" s="8" t="str">
+      <c r="N18" s="16" t="str">
         <f>IF(_zhengan_day_hour!L13="","",_zhengan_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="O18" s="8" t="str">
+      <c r="O18" s="16" t="str">
         <f>IF(_zhengan_day_hour!M13="","",_zhengan_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="P18" s="8" t="str">
+      <c r="P18" s="16" t="str">
         <f>IF(_zhengan_day_hour!N13="","",_zhengan_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="Q18" s="8" t="str">
+      <c r="Q18" s="16" t="str">
         <f>IF(_zhengan_day_hour!O13="","",_zhengan_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="R18" s="8" t="str">
+      <c r="R18" s="16" t="str">
         <f>IF(_zhengan_day_hour!P13="","",_zhengan_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S18" s="8" t="str">
+      <c r="S18" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q13="","",_zhengan_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="T18" s="8" t="str">
+      <c r="T18" s="16" t="str">
         <f>IF(_zhengan_day_hour!R13="","",_zhengan_day_hour!R13)</f>
         <v/>
       </c>
       <c r="U18" s="53"/>
-      <c r="V18" s="13" t="s">
+      <c r="V18" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="W18" s="17"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="23"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="72"/>
     </row>
-    <row r="19" spans="2:25" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B19" s="7">
+    <row r="19" ht="15.75" spans="2:25">
+      <c r="B19" s="15">
         <v>0.5</v>
       </c>
-      <c r="C19" s="8" t="str">
+      <c r="C19" s="16" t="str">
         <f>IF(_zhengan_day_hour!A14="","",_zhengan_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D19" s="8" t="str">
+      <c r="D19" s="16" t="str">
         <f>IF(_zhengan_day_hour!B14="","",_zhengan_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E19" s="8" t="str">
+      <c r="E19" s="16" t="str">
         <f>IF(_zhengan_day_hour!C14="","",_zhengan_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F19" s="8" t="str">
+      <c r="F19" s="16" t="str">
         <f>IF(_zhengan_day_hour!D14="","",_zhengan_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G19" s="8" t="str">
+      <c r="G19" s="16" t="str">
         <f>IF(_zhengan_day_hour!E14="","",_zhengan_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H19" s="8" t="str">
+      <c r="H19" s="16" t="str">
         <f>IF(_zhengan_day_hour!F14="","",_zhengan_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I19" s="8" t="str">
+      <c r="I19" s="16" t="str">
         <f>IF(_zhengan_day_hour!G14="","",_zhengan_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J19" s="8" t="str">
+      <c r="J19" s="16" t="str">
         <f>IF(_zhengan_day_hour!H14="","",_zhengan_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K19" s="8" t="str">
+      <c r="K19" s="16" t="str">
         <f>IF(_zhengan_day_hour!I14="","",_zhengan_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L19" s="8" t="str">
+      <c r="L19" s="16" t="str">
         <f>IF(_zhengan_day_hour!J14="","",_zhengan_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M19" s="8" t="str">
+      <c r="M19" s="16" t="str">
         <f>IF(_zhengan_day_hour!K14="","",_zhengan_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N19" s="8" t="str">
+      <c r="N19" s="16" t="str">
         <f>IF(_zhengan_day_hour!L14="","",_zhengan_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O19" s="8" t="str">
+      <c r="O19" s="16" t="str">
         <f>IF(_zhengan_day_hour!M14="","",_zhengan_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P19" s="8" t="str">
+      <c r="P19" s="16" t="str">
         <f>IF(_zhengan_day_hour!N14="","",_zhengan_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q19" s="8" t="str">
+      <c r="Q19" s="16" t="str">
         <f>IF(_zhengan_day_hour!O14="","",_zhengan_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R19" s="8" t="str">
+      <c r="R19" s="16" t="str">
         <f>IF(_zhengan_day_hour!P14="","",_zhengan_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S19" s="8" t="str">
+      <c r="S19" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q14="","",_zhengan_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="T19" s="8" t="str">
+      <c r="T19" s="16" t="str">
         <f>IF(_zhengan_day_hour!R14="","",_zhengan_day_hour!R14)</f>
         <v/>
       </c>
       <c r="U19" s="53"/>
-      <c r="V19" s="13" t="s">
+      <c r="V19" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="17"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="23"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="72"/>
     </row>
-    <row r="20" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B20" s="7">
-        <v>0.54166666666666596</v>
-      </c>
-      <c r="C20" s="8" t="str">
+    <row r="20" ht="14.25" spans="2:25">
+      <c r="B20" s="15">
+        <v>0.541666666666666</v>
+      </c>
+      <c r="C20" s="16" t="str">
         <f>IF(_zhengan_day_hour!A15="","",_zhengan_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D20" s="8" t="str">
+      <c r="D20" s="16" t="str">
         <f>IF(_zhengan_day_hour!B15="","",_zhengan_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E20" s="8" t="str">
+      <c r="E20" s="16" t="str">
         <f>IF(_zhengan_day_hour!C15="","",_zhengan_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F20" s="8" t="str">
+      <c r="F20" s="16" t="str">
         <f>IF(_zhengan_day_hour!D15="","",_zhengan_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G20" s="8" t="str">
+      <c r="G20" s="16" t="str">
         <f>IF(_zhengan_day_hour!E15="","",_zhengan_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H20" s="8" t="str">
+      <c r="H20" s="16" t="str">
         <f>IF(_zhengan_day_hour!F15="","",_zhengan_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I20" s="8" t="str">
+      <c r="I20" s="16" t="str">
         <f>IF(_zhengan_day_hour!G15="","",_zhengan_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J20" s="8" t="str">
+      <c r="J20" s="16" t="str">
         <f>IF(_zhengan_day_hour!H15="","",_zhengan_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K20" s="8" t="str">
+      <c r="K20" s="16" t="str">
         <f>IF(_zhengan_day_hour!I15="","",_zhengan_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L20" s="8" t="str">
+      <c r="L20" s="16" t="str">
         <f>IF(_zhengan_day_hour!J15="","",_zhengan_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M20" s="8" t="str">
+      <c r="M20" s="16" t="str">
         <f>IF(_zhengan_day_hour!K15="","",_zhengan_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N20" s="8" t="str">
+      <c r="N20" s="16" t="str">
         <f>IF(_zhengan_day_hour!L15="","",_zhengan_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O20" s="8" t="str">
+      <c r="O20" s="16" t="str">
         <f>IF(_zhengan_day_hour!M15="","",_zhengan_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P20" s="8" t="str">
+      <c r="P20" s="16" t="str">
         <f>IF(_zhengan_day_hour!N15="","",_zhengan_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q20" s="8" t="str">
+      <c r="Q20" s="16" t="str">
         <f>IF(_zhengan_day_hour!O15="","",_zhengan_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R20" s="8" t="str">
+      <c r="R20" s="16" t="str">
         <f>IF(_zhengan_day_hour!P15="","",_zhengan_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S20" s="8" t="str">
+      <c r="S20" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q15="","",_zhengan_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="T20" s="8" t="str">
+      <c r="T20" s="16" t="str">
         <f>IF(_zhengan_day_hour!R15="","",_zhengan_day_hour!R15)</f>
         <v/>
       </c>
       <c r="U20" s="53"/>
-      <c r="V20" s="16" t="s">
+      <c r="V20" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="W20" s="17"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="23"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="72"/>
     </row>
-    <row r="21" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B21" s="7">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C21" s="8" t="str">
+    <row r="21" ht="14.25" spans="2:25">
+      <c r="B21" s="15">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C21" s="16" t="str">
         <f>IF(_zhengan_day_hour!A16="","",_zhengan_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D21" s="8" t="str">
+      <c r="D21" s="16" t="str">
         <f>IF(_zhengan_day_hour!B16="","",_zhengan_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E21" s="8" t="str">
+      <c r="E21" s="16" t="str">
         <f>IF(_zhengan_day_hour!C16="","",_zhengan_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F21" s="8" t="str">
+      <c r="F21" s="16" t="str">
         <f>IF(_zhengan_day_hour!D16="","",_zhengan_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G21" s="8" t="str">
+      <c r="G21" s="16" t="str">
         <f>IF(_zhengan_day_hour!E16="","",_zhengan_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H21" s="8" t="str">
+      <c r="H21" s="16" t="str">
         <f>IF(_zhengan_day_hour!F16="","",_zhengan_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I21" s="8" t="str">
+      <c r="I21" s="16" t="str">
         <f>IF(_zhengan_day_hour!G16="","",_zhengan_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J21" s="8" t="str">
+      <c r="J21" s="16" t="str">
         <f>IF(_zhengan_day_hour!H16="","",_zhengan_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K21" s="8" t="str">
+      <c r="K21" s="16" t="str">
         <f>IF(_zhengan_day_hour!I16="","",_zhengan_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L21" s="8" t="str">
+      <c r="L21" s="16" t="str">
         <f>IF(_zhengan_day_hour!J16="","",_zhengan_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M21" s="8" t="str">
+      <c r="M21" s="16" t="str">
         <f>IF(_zhengan_day_hour!K16="","",_zhengan_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N21" s="8" t="str">
+      <c r="N21" s="16" t="str">
         <f>IF(_zhengan_day_hour!L16="","",_zhengan_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O21" s="8" t="str">
+      <c r="O21" s="16" t="str">
         <f>IF(_zhengan_day_hour!M16="","",_zhengan_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P21" s="8" t="str">
+      <c r="P21" s="16" t="str">
         <f>IF(_zhengan_day_hour!N16="","",_zhengan_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q21" s="8" t="str">
+      <c r="Q21" s="16" t="str">
         <f>IF(_zhengan_day_hour!O16="","",_zhengan_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R21" s="8" t="str">
+      <c r="R21" s="16" t="str">
         <f>IF(_zhengan_day_hour!P16="","",_zhengan_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S21" s="8" t="str">
+      <c r="S21" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q16="","",_zhengan_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="T21" s="8" t="str">
+      <c r="T21" s="16" t="str">
         <f>IF(_zhengan_day_hour!R16="","",_zhengan_day_hour!R16)</f>
         <v/>
       </c>
       <c r="U21" s="53"/>
-      <c r="V21" s="16" t="s">
+      <c r="V21" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="W21" s="17"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="23"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="72"/>
     </row>
-    <row r="22" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B22" s="7">
+    <row r="22" ht="14.25" spans="2:25">
+      <c r="B22" s="15">
         <v>0.625</v>
       </c>
-      <c r="C22" s="8" t="str">
+      <c r="C22" s="16" t="str">
         <f>IF(_zhengan_day_hour!A17="","",_zhengan_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D22" s="8" t="str">
+      <c r="D22" s="16" t="str">
         <f>IF(_zhengan_day_hour!B17="","",_zhengan_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E22" s="8" t="str">
+      <c r="E22" s="16" t="str">
         <f>IF(_zhengan_day_hour!C17="","",_zhengan_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F22" s="8" t="str">
+      <c r="F22" s="16" t="str">
         <f>IF(_zhengan_day_hour!D17="","",_zhengan_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G22" s="8" t="str">
+      <c r="G22" s="16" t="str">
         <f>IF(_zhengan_day_hour!E17="","",_zhengan_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H22" s="8" t="str">
+      <c r="H22" s="16" t="str">
         <f>IF(_zhengan_day_hour!F17="","",_zhengan_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I22" s="8" t="str">
+      <c r="I22" s="16" t="str">
         <f>IF(_zhengan_day_hour!G17="","",_zhengan_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J22" s="8" t="str">
+      <c r="J22" s="16" t="str">
         <f>IF(_zhengan_day_hour!H17="","",_zhengan_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K22" s="8" t="str">
+      <c r="K22" s="16" t="str">
         <f>IF(_zhengan_day_hour!I17="","",_zhengan_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L22" s="8" t="str">
+      <c r="L22" s="16" t="str">
         <f>IF(_zhengan_day_hour!J17="","",_zhengan_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M22" s="8" t="str">
+      <c r="M22" s="16" t="str">
         <f>IF(_zhengan_day_hour!K17="","",_zhengan_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N22" s="8" t="str">
+      <c r="N22" s="16" t="str">
         <f>IF(_zhengan_day_hour!L17="","",_zhengan_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O22" s="8" t="str">
+      <c r="O22" s="16" t="str">
         <f>IF(_zhengan_day_hour!M17="","",_zhengan_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P22" s="8" t="str">
+      <c r="P22" s="16" t="str">
         <f>IF(_zhengan_day_hour!N17="","",_zhengan_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q22" s="8" t="str">
+      <c r="Q22" s="16" t="str">
         <f>IF(_zhengan_day_hour!O17="","",_zhengan_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R22" s="8" t="str">
+      <c r="R22" s="16" t="str">
         <f>IF(_zhengan_day_hour!P17="","",_zhengan_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S22" s="8" t="str">
+      <c r="S22" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q17="","",_zhengan_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="T22" s="8" t="str">
+      <c r="T22" s="16" t="str">
         <f>IF(_zhengan_day_hour!R17="","",_zhengan_day_hour!R17)</f>
         <v/>
       </c>
       <c r="U22" s="53"/>
-      <c r="V22" s="16" t="s">
+      <c r="V22" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="W22" s="17"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="23"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="72"/>
     </row>
-    <row r="23" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B23" s="7">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C23" s="8" t="str">
+    <row r="23" ht="14.25" spans="2:25">
+      <c r="B23" s="15">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C23" s="16" t="str">
         <f>IF(_zhengan_day_hour!A18="","",_zhengan_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D23" s="8" t="str">
+      <c r="D23" s="16" t="str">
         <f>IF(_zhengan_day_hour!B18="","",_zhengan_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E23" s="8" t="str">
+      <c r="E23" s="16" t="str">
         <f>IF(_zhengan_day_hour!C18="","",_zhengan_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F23" s="8" t="str">
+      <c r="F23" s="16" t="str">
         <f>IF(_zhengan_day_hour!D18="","",_zhengan_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G23" s="8" t="str">
+      <c r="G23" s="16" t="str">
         <f>IF(_zhengan_day_hour!E18="","",_zhengan_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H23" s="8" t="str">
+      <c r="H23" s="16" t="str">
         <f>IF(_zhengan_day_hour!F18="","",_zhengan_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I23" s="8" t="str">
+      <c r="I23" s="16" t="str">
         <f>IF(_zhengan_day_hour!G18="","",_zhengan_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J23" s="8" t="str">
+      <c r="J23" s="16" t="str">
         <f>IF(_zhengan_day_hour!H18="","",_zhengan_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K23" s="8" t="str">
+      <c r="K23" s="16" t="str">
         <f>IF(_zhengan_day_hour!I18="","",_zhengan_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L23" s="8" t="str">
+      <c r="L23" s="16" t="str">
         <f>IF(_zhengan_day_hour!J18="","",_zhengan_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M23" s="8" t="str">
+      <c r="M23" s="16" t="str">
         <f>IF(_zhengan_day_hour!K18="","",_zhengan_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N23" s="8" t="str">
+      <c r="N23" s="16" t="str">
         <f>IF(_zhengan_day_hour!L18="","",_zhengan_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O23" s="8" t="str">
+      <c r="O23" s="16" t="str">
         <f>IF(_zhengan_day_hour!M18="","",_zhengan_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P23" s="8" t="str">
+      <c r="P23" s="16" t="str">
         <f>IF(_zhengan_day_hour!N18="","",_zhengan_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q23" s="8" t="str">
+      <c r="Q23" s="16" t="str">
         <f>IF(_zhengan_day_hour!O18="","",_zhengan_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R23" s="8" t="str">
+      <c r="R23" s="16" t="str">
         <f>IF(_zhengan_day_hour!P18="","",_zhengan_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S23" s="8" t="str">
+      <c r="S23" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q18="","",_zhengan_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="T23" s="8" t="str">
+      <c r="T23" s="16" t="str">
         <f>IF(_zhengan_day_hour!R18="","",_zhengan_day_hour!R18)</f>
         <v/>
       </c>
       <c r="U23" s="53"/>
-      <c r="V23" s="16" t="s">
+      <c r="V23" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="W23" s="17"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="23"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="72"/>
     </row>
-    <row r="24" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B24" s="7">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="C24" s="8" t="str">
+    <row r="24" ht="14.25" spans="2:25">
+      <c r="B24" s="15">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C24" s="16" t="str">
         <f>IF(_zhengan_day_hour!A19="","",_zhengan_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D24" s="8" t="str">
+      <c r="D24" s="16" t="str">
         <f>IF(_zhengan_day_hour!B19="","",_zhengan_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E24" s="8" t="str">
+      <c r="E24" s="16" t="str">
         <f>IF(_zhengan_day_hour!C19="","",_zhengan_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F24" s="8" t="str">
+      <c r="F24" s="16" t="str">
         <f>IF(_zhengan_day_hour!D19="","",_zhengan_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G24" s="8" t="str">
+      <c r="G24" s="16" t="str">
         <f>IF(_zhengan_day_hour!E19="","",_zhengan_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H24" s="8" t="str">
+      <c r="H24" s="16" t="str">
         <f>IF(_zhengan_day_hour!F19="","",_zhengan_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I24" s="8" t="str">
+      <c r="I24" s="16" t="str">
         <f>IF(_zhengan_day_hour!G19="","",_zhengan_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J24" s="8" t="str">
+      <c r="J24" s="16" t="str">
         <f>IF(_zhengan_day_hour!H19="","",_zhengan_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K24" s="8" t="str">
+      <c r="K24" s="16" t="str">
         <f>IF(_zhengan_day_hour!I19="","",_zhengan_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L24" s="8" t="str">
+      <c r="L24" s="16" t="str">
         <f>IF(_zhengan_day_hour!J19="","",_zhengan_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M24" s="8" t="str">
+      <c r="M24" s="16" t="str">
         <f>IF(_zhengan_day_hour!K19="","",_zhengan_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N24" s="8" t="str">
+      <c r="N24" s="16" t="str">
         <f>IF(_zhengan_day_hour!L19="","",_zhengan_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O24" s="8" t="str">
+      <c r="O24" s="16" t="str">
         <f>IF(_zhengan_day_hour!M19="","",_zhengan_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P24" s="8" t="str">
+      <c r="P24" s="16" t="str">
         <f>IF(_zhengan_day_hour!N19="","",_zhengan_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q24" s="8" t="str">
+      <c r="Q24" s="16" t="str">
         <f>IF(_zhengan_day_hour!O19="","",_zhengan_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R24" s="8" t="str">
+      <c r="R24" s="16" t="str">
         <f>IF(_zhengan_day_hour!P19="","",_zhengan_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S24" s="8" t="str">
+      <c r="S24" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q19="","",_zhengan_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="T24" s="8" t="str">
+      <c r="T24" s="16" t="str">
         <f>IF(_zhengan_day_hour!R19="","",_zhengan_day_hour!R19)</f>
         <v/>
       </c>
       <c r="U24" s="53"/>
-      <c r="V24" s="16" t="s">
+      <c r="V24" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="W24" s="14"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="23"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="72"/>
     </row>
-    <row r="25" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B25" s="7">
+    <row r="25" ht="14.25" spans="2:25">
+      <c r="B25" s="15">
         <v>0.75</v>
       </c>
-      <c r="C25" s="8" t="str">
+      <c r="C25" s="16" t="str">
         <f>IF(_zhengan_day_hour!A20="","",_zhengan_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D25" s="8" t="str">
+      <c r="D25" s="16" t="str">
         <f>IF(_zhengan_day_hour!B20="","",_zhengan_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E25" s="8" t="str">
+      <c r="E25" s="16" t="str">
         <f>IF(_zhengan_day_hour!C20="","",_zhengan_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F25" s="8" t="str">
+      <c r="F25" s="16" t="str">
         <f>IF(_zhengan_day_hour!D20="","",_zhengan_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G25" s="8" t="str">
+      <c r="G25" s="16" t="str">
         <f>IF(_zhengan_day_hour!E20="","",_zhengan_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H25" s="8" t="str">
+      <c r="H25" s="16" t="str">
         <f>IF(_zhengan_day_hour!F20="","",_zhengan_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I25" s="8" t="str">
+      <c r="I25" s="16" t="str">
         <f>IF(_zhengan_day_hour!G20="","",_zhengan_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J25" s="8" t="str">
+      <c r="J25" s="16" t="str">
         <f>IF(_zhengan_day_hour!H20="","",_zhengan_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K25" s="8" t="str">
+      <c r="K25" s="16" t="str">
         <f>IF(_zhengan_day_hour!I20="","",_zhengan_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L25" s="8" t="str">
+      <c r="L25" s="16" t="str">
         <f>IF(_zhengan_day_hour!J20="","",_zhengan_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M25" s="8" t="str">
+      <c r="M25" s="16" t="str">
         <f>IF(_zhengan_day_hour!K20="","",_zhengan_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N25" s="8" t="str">
+      <c r="N25" s="16" t="str">
         <f>IF(_zhengan_day_hour!L20="","",_zhengan_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O25" s="8" t="str">
+      <c r="O25" s="16" t="str">
         <f>IF(_zhengan_day_hour!M20="","",_zhengan_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P25" s="8" t="str">
+      <c r="P25" s="16" t="str">
         <f>IF(_zhengan_day_hour!N20="","",_zhengan_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q25" s="8" t="str">
+      <c r="Q25" s="16" t="str">
         <f>IF(_zhengan_day_hour!O20="","",_zhengan_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R25" s="8" t="str">
+      <c r="R25" s="16" t="str">
         <f>IF(_zhengan_day_hour!P20="","",_zhengan_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S25" s="8" t="str">
+      <c r="S25" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q20="","",_zhengan_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="T25" s="8" t="str">
+      <c r="T25" s="16" t="str">
         <f>IF(_zhengan_day_hour!R20="","",_zhengan_day_hour!R20)</f>
         <v/>
       </c>
       <c r="U25" s="53"/>
-      <c r="V25" s="13" t="s">
+      <c r="V25" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="W25" s="14"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="23"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="72"/>
     </row>
-    <row r="26" spans="2:25" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B26" s="7">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="C26" s="8" t="str">
+    <row r="26" ht="14.25" spans="2:25">
+      <c r="B26" s="15">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C26" s="16" t="str">
         <f>IF(_zhengan_day_hour!A21="","",_zhengan_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D26" s="8" t="str">
+      <c r="D26" s="16" t="str">
         <f>IF(_zhengan_day_hour!B21="","",_zhengan_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E26" s="8" t="str">
+      <c r="E26" s="16" t="str">
         <f>IF(_zhengan_day_hour!C21="","",_zhengan_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F26" s="8" t="str">
+      <c r="F26" s="16" t="str">
         <f>IF(_zhengan_day_hour!D21="","",_zhengan_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G26" s="8" t="str">
+      <c r="G26" s="16" t="str">
         <f>IF(_zhengan_day_hour!E21="","",_zhengan_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H26" s="8" t="str">
+      <c r="H26" s="16" t="str">
         <f>IF(_zhengan_day_hour!F21="","",_zhengan_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I26" s="8" t="str">
+      <c r="I26" s="16" t="str">
         <f>IF(_zhengan_day_hour!G21="","",_zhengan_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J26" s="8" t="str">
+      <c r="J26" s="16" t="str">
         <f>IF(_zhengan_day_hour!H21="","",_zhengan_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K26" s="8" t="str">
+      <c r="K26" s="16" t="str">
         <f>IF(_zhengan_day_hour!I21="","",_zhengan_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L26" s="8" t="str">
+      <c r="L26" s="16" t="str">
         <f>IF(_zhengan_day_hour!J21="","",_zhengan_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M26" s="8" t="str">
+      <c r="M26" s="16" t="str">
         <f>IF(_zhengan_day_hour!K21="","",_zhengan_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N26" s="8" t="str">
+      <c r="N26" s="16" t="str">
         <f>IF(_zhengan_day_hour!L21="","",_zhengan_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O26" s="8" t="str">
+      <c r="O26" s="16" t="str">
         <f>IF(_zhengan_day_hour!M21="","",_zhengan_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P26" s="8" t="str">
+      <c r="P26" s="16" t="str">
         <f>IF(_zhengan_day_hour!N21="","",_zhengan_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q26" s="8" t="str">
+      <c r="Q26" s="16" t="str">
         <f>IF(_zhengan_day_hour!O21="","",_zhengan_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R26" s="8" t="str">
+      <c r="R26" s="16" t="str">
         <f>IF(_zhengan_day_hour!P21="","",_zhengan_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S26" s="8" t="str">
+      <c r="S26" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q21="","",_zhengan_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="T26" s="8" t="str">
+      <c r="T26" s="16" t="str">
         <f>IF(_zhengan_day_hour!R21="","",_zhengan_day_hour!R21)</f>
         <v/>
       </c>
       <c r="U26" s="53"/>
-      <c r="V26" s="13" t="s">
+      <c r="V26" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="W26" s="17"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="23"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="72"/>
     </row>
-    <row r="27" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="7">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="C27" s="8" t="str">
+    <row r="27" ht="15" customHeight="1" spans="2:25">
+      <c r="B27" s="15">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C27" s="16" t="str">
         <f>IF(_zhengan_day_hour!A22="","",_zhengan_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D27" s="8" t="str">
+      <c r="D27" s="16" t="str">
         <f>IF(_zhengan_day_hour!B22="","",_zhengan_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E27" s="8" t="str">
+      <c r="E27" s="16" t="str">
         <f>IF(_zhengan_day_hour!C22="","",_zhengan_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F27" s="8" t="str">
+      <c r="F27" s="16" t="str">
         <f>IF(_zhengan_day_hour!D22="","",_zhengan_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G27" s="8" t="str">
+      <c r="G27" s="16" t="str">
         <f>IF(_zhengan_day_hour!E22="","",_zhengan_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H27" s="8" t="str">
+      <c r="H27" s="16" t="str">
         <f>IF(_zhengan_day_hour!F22="","",_zhengan_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I27" s="8" t="str">
+      <c r="I27" s="16" t="str">
         <f>IF(_zhengan_day_hour!G22="","",_zhengan_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J27" s="8" t="str">
+      <c r="J27" s="16" t="str">
         <f>IF(_zhengan_day_hour!H22="","",_zhengan_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K27" s="8" t="str">
+      <c r="K27" s="16" t="str">
         <f>IF(_zhengan_day_hour!I22="","",_zhengan_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L27" s="8" t="str">
+      <c r="L27" s="16" t="str">
         <f>IF(_zhengan_day_hour!J22="","",_zhengan_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M27" s="8" t="str">
+      <c r="M27" s="16" t="str">
         <f>IF(_zhengan_day_hour!K22="","",_zhengan_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N27" s="8" t="str">
+      <c r="N27" s="16" t="str">
         <f>IF(_zhengan_day_hour!L22="","",_zhengan_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O27" s="8" t="str">
+      <c r="O27" s="16" t="str">
         <f>IF(_zhengan_day_hour!M22="","",_zhengan_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P27" s="8" t="str">
+      <c r="P27" s="16" t="str">
         <f>IF(_zhengan_day_hour!N22="","",_zhengan_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q27" s="8" t="str">
+      <c r="Q27" s="16" t="str">
         <f>IF(_zhengan_day_hour!O22="","",_zhengan_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R27" s="8" t="str">
+      <c r="R27" s="16" t="str">
         <f>IF(_zhengan_day_hour!P22="","",_zhengan_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S27" s="8" t="str">
+      <c r="S27" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q22="","",_zhengan_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="T27" s="8" t="str">
+      <c r="T27" s="16" t="str">
         <f>IF(_zhengan_day_hour!R22="","",_zhengan_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="U27" s="60"/>
-      <c r="V27" s="61"/>
-      <c r="W27" s="61"/>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="73"/>
     </row>
-    <row r="28" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="7">
+    <row r="28" ht="14.1" customHeight="1" spans="2:25">
+      <c r="B28" s="15">
         <v>0.875</v>
       </c>
-      <c r="C28" s="8" t="str">
+      <c r="C28" s="16" t="str">
         <f>IF(_zhengan_day_hour!A23="","",_zhengan_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D28" s="8" t="str">
+      <c r="D28" s="16" t="str">
         <f>IF(_zhengan_day_hour!B23="","",_zhengan_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E28" s="8" t="str">
+      <c r="E28" s="16" t="str">
         <f>IF(_zhengan_day_hour!C23="","",_zhengan_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F28" s="8" t="str">
+      <c r="F28" s="16" t="str">
         <f>IF(_zhengan_day_hour!D23="","",_zhengan_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G28" s="8" t="str">
+      <c r="G28" s="16" t="str">
         <f>IF(_zhengan_day_hour!E23="","",_zhengan_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H28" s="8" t="str">
+      <c r="H28" s="16" t="str">
         <f>IF(_zhengan_day_hour!F23="","",_zhengan_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I28" s="8" t="str">
+      <c r="I28" s="16" t="str">
         <f>IF(_zhengan_day_hour!G23="","",_zhengan_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J28" s="8" t="str">
+      <c r="J28" s="16" t="str">
         <f>IF(_zhengan_day_hour!H23="","",_zhengan_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K28" s="8" t="str">
+      <c r="K28" s="16" t="str">
         <f>IF(_zhengan_day_hour!I23="","",_zhengan_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L28" s="8" t="str">
+      <c r="L28" s="16" t="str">
         <f>IF(_zhengan_day_hour!J23="","",_zhengan_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M28" s="8" t="str">
+      <c r="M28" s="16" t="str">
         <f>IF(_zhengan_day_hour!K23="","",_zhengan_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N28" s="8" t="str">
+      <c r="N28" s="16" t="str">
         <f>IF(_zhengan_day_hour!L23="","",_zhengan_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O28" s="8" t="str">
+      <c r="O28" s="16" t="str">
         <f>IF(_zhengan_day_hour!M23="","",_zhengan_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P28" s="8" t="str">
+      <c r="P28" s="16" t="str">
         <f>IF(_zhengan_day_hour!N23="","",_zhengan_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q28" s="8" t="str">
+      <c r="Q28" s="16" t="str">
         <f>IF(_zhengan_day_hour!O23="","",_zhengan_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R28" s="8" t="str">
+      <c r="R28" s="16" t="str">
         <f>IF(_zhengan_day_hour!P23="","",_zhengan_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S28" s="8" t="str">
+      <c r="S28" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q23="","",_zhengan_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="T28" s="8" t="str">
+      <c r="T28" s="16" t="str">
         <f>IF(_zhengan_day_hour!R23="","",_zhengan_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="U28" s="63"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="65"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="74"/>
     </row>
-    <row r="29" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="7">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="C29" s="8" t="str">
+    <row r="29" ht="14.1" customHeight="1" spans="2:25">
+      <c r="B29" s="15">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C29" s="16" t="str">
         <f>IF(_zhengan_day_hour!A24="","",_zhengan_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D29" s="8" t="str">
+      <c r="D29" s="16" t="str">
         <f>IF(_zhengan_day_hour!B24="","",_zhengan_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E29" s="8" t="str">
+      <c r="E29" s="16" t="str">
         <f>IF(_zhengan_day_hour!C24="","",_zhengan_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F29" s="8" t="str">
+      <c r="F29" s="16" t="str">
         <f>IF(_zhengan_day_hour!D24="","",_zhengan_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G29" s="8" t="str">
+      <c r="G29" s="16" t="str">
         <f>IF(_zhengan_day_hour!E24="","",_zhengan_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H29" s="8" t="str">
+      <c r="H29" s="16" t="str">
         <f>IF(_zhengan_day_hour!F24="","",_zhengan_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I29" s="8" t="str">
+      <c r="I29" s="16" t="str">
         <f>IF(_zhengan_day_hour!G24="","",_zhengan_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J29" s="8" t="str">
+      <c r="J29" s="16" t="str">
         <f>IF(_zhengan_day_hour!H24="","",_zhengan_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K29" s="8" t="str">
+      <c r="K29" s="16" t="str">
         <f>IF(_zhengan_day_hour!I24="","",_zhengan_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L29" s="8" t="str">
+      <c r="L29" s="16" t="str">
         <f>IF(_zhengan_day_hour!J24="","",_zhengan_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M29" s="8" t="str">
+      <c r="M29" s="16" t="str">
         <f>IF(_zhengan_day_hour!K24="","",_zhengan_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N29" s="8" t="str">
+      <c r="N29" s="16" t="str">
         <f>IF(_zhengan_day_hour!L24="","",_zhengan_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O29" s="8" t="str">
+      <c r="O29" s="16" t="str">
         <f>IF(_zhengan_day_hour!M24="","",_zhengan_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P29" s="8" t="str">
+      <c r="P29" s="16" t="str">
         <f>IF(_zhengan_day_hour!N24="","",_zhengan_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q29" s="8" t="str">
+      <c r="Q29" s="16" t="str">
         <f>IF(_zhengan_day_hour!O24="","",_zhengan_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R29" s="8" t="str">
+      <c r="R29" s="16" t="str">
         <f>IF(_zhengan_day_hour!P24="","",_zhengan_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S29" s="8" t="str">
+      <c r="S29" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q24="","",_zhengan_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="T29" s="8" t="str">
+      <c r="T29" s="16" t="str">
         <f>IF(_zhengan_day_hour!R24="","",_zhengan_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="U29" s="63"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="65"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="74"/>
     </row>
-    <row r="30" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="7">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="C30" s="8" t="str">
+    <row r="30" ht="14.1" customHeight="1" spans="2:25">
+      <c r="B30" s="15">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C30" s="16" t="str">
         <f>IF(_zhengan_day_hour!A25="","",_zhengan_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D30" s="8" t="str">
+      <c r="D30" s="16" t="str">
         <f>IF(_zhengan_day_hour!B25="","",_zhengan_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E30" s="8" t="str">
+      <c r="E30" s="16" t="str">
         <f>IF(_zhengan_day_hour!C25="","",_zhengan_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F30" s="8" t="str">
+      <c r="F30" s="16" t="str">
         <f>IF(_zhengan_day_hour!D25="","",_zhengan_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G30" s="8" t="str">
+      <c r="G30" s="16" t="str">
         <f>IF(_zhengan_day_hour!E25="","",_zhengan_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H30" s="8" t="str">
+      <c r="H30" s="16" t="str">
         <f>IF(_zhengan_day_hour!F25="","",_zhengan_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I30" s="8" t="str">
+      <c r="I30" s="16" t="str">
         <f>IF(_zhengan_day_hour!G25="","",_zhengan_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J30" s="8" t="str">
+      <c r="J30" s="16" t="str">
         <f>IF(_zhengan_day_hour!H25="","",_zhengan_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K30" s="8" t="str">
+      <c r="K30" s="16" t="str">
         <f>IF(_zhengan_day_hour!I25="","",_zhengan_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L30" s="8" t="str">
+      <c r="L30" s="16" t="str">
         <f>IF(_zhengan_day_hour!J25="","",_zhengan_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M30" s="8" t="str">
+      <c r="M30" s="16" t="str">
         <f>IF(_zhengan_day_hour!K25="","",_zhengan_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N30" s="8" t="str">
+      <c r="N30" s="16" t="str">
         <f>IF(_zhengan_day_hour!L25="","",_zhengan_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O30" s="8" t="str">
+      <c r="O30" s="16" t="str">
         <f>IF(_zhengan_day_hour!M25="","",_zhengan_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P30" s="8" t="str">
+      <c r="P30" s="16" t="str">
         <f>IF(_zhengan_day_hour!N25="","",_zhengan_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q30" s="8" t="str">
+      <c r="Q30" s="16" t="str">
         <f>IF(_zhengan_day_hour!O25="","",_zhengan_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R30" s="8" t="str">
+      <c r="R30" s="16" t="str">
         <f>IF(_zhengan_day_hour!P25="","",_zhengan_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S30" s="8" t="str">
+      <c r="S30" s="16" t="str">
         <f>IF(_zhengan_day_hour!Q25="","",_zhengan_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="T30" s="8" t="str">
+      <c r="T30" s="16" t="str">
         <f>IF(_zhengan_day_hour!R25="","",_zhengan_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="U30" s="63"/>
-      <c r="V30" s="64"/>
-      <c r="W30" s="64"/>
-      <c r="X30" s="64"/>
-      <c r="Y30" s="65"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="74"/>
     </row>
-    <row r="31" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="9" t="s">
+    <row r="31" ht="14.1" customHeight="1" spans="2:25">
+      <c r="B31" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="63"/>
-      <c r="V31" s="64"/>
-      <c r="W31" s="64"/>
-      <c r="X31" s="64"/>
-      <c r="Y31" s="65"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="74"/>
     </row>
-    <row r="32" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="9" t="s">
+    <row r="32" ht="14.1" customHeight="1" spans="2:25">
+      <c r="B32" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="63"/>
-      <c r="V32" s="64"/>
-      <c r="W32" s="64"/>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="65"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="74"/>
     </row>
-    <row r="33" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="9" t="s">
+    <row r="33" ht="14.1" customHeight="1" spans="2:25">
+      <c r="B33" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="63"/>
-      <c r="V33" s="64"/>
-      <c r="W33" s="64"/>
-      <c r="X33" s="64"/>
-      <c r="Y33" s="65"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="65"/>
+      <c r="W33" s="65"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="74"/>
     </row>
-    <row r="34" spans="2:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="10" t="s">
+    <row r="34" ht="14.45" customHeight="1" spans="2:25">
+      <c r="B34" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="63"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="64"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="65"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="74"/>
     </row>
-    <row r="35" spans="2:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="69" t="s">
+    <row r="35" ht="15.95" customHeight="1" spans="2:25">
+      <c r="B35" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="69" t="s">
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="69" t="s">
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="Q35" s="70"/>
-      <c r="R35" s="70"/>
-      <c r="S35" s="70"/>
-      <c r="T35" s="70"/>
-      <c r="U35" s="63"/>
-      <c r="V35" s="64"/>
-      <c r="W35" s="64"/>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="65"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="65"/>
+      <c r="W35" s="65"/>
+      <c r="X35" s="65"/>
+      <c r="Y35" s="74"/>
     </row>
-    <row r="36" spans="2:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="71"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="63"/>
-      <c r="V36" s="64"/>
-      <c r="W36" s="64"/>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="65"/>
+    <row r="36" ht="14.1" customHeight="1" spans="2:25">
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="65"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="65"/>
+      <c r="Y36" s="74"/>
     </row>
-    <row r="37" spans="2:25" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="73"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="74"/>
-      <c r="U37" s="63"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="65"/>
+    <row r="37" ht="70.5" customHeight="1" spans="2:25">
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="65"/>
+      <c r="W37" s="65"/>
+      <c r="X37" s="65"/>
+      <c r="Y37" s="74"/>
     </row>
-    <row r="38" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="38" t="s">
+    <row r="38" ht="16.5" spans="2:25">
+      <c r="B38" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="38" t="s">
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="38" t="s">
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="39"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
       <c r="U38" s="66"/>
       <c r="V38" s="67"/>
       <c r="W38" s="67"/>
       <c r="X38" s="67"/>
-      <c r="Y38" s="68"/>
+      <c r="Y38" s="75"/>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
+    <row r="39" spans="21:24">
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="68"/>
+      <c r="X39" s="68"/>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
+    <row r="40" spans="22:24">
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.15">
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
+    <row r="41" spans="22:24">
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="U7:U16"/>
-    <mergeCell ref="U17:U26"/>
-    <mergeCell ref="U3:Y5"/>
-    <mergeCell ref="U27:Y38"/>
-    <mergeCell ref="B35:H37"/>
-    <mergeCell ref="I35:O37"/>
-    <mergeCell ref="P35:T37"/>
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="I38:O38"/>
     <mergeCell ref="P38:T38"/>
@@ -4672,35 +5266,32 @@
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S3:S5"/>
     <mergeCell ref="T3:T5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="U7:U16"/>
+    <mergeCell ref="U17:U26"/>
+    <mergeCell ref="U3:Y5"/>
+    <mergeCell ref="U27:Y38"/>
+    <mergeCell ref="B35:H37"/>
+    <mergeCell ref="I35:O37"/>
+    <mergeCell ref="P35:T37"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" ht="33.75" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -4757,35 +5348,39 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-蒸氨（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-蒸氨（日）报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="3.蒸氨（日）" sheetId="1" r:id="rId1"/>
@@ -621,12 +621,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,11 +705,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -737,15 +732,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,9 +747,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -773,8 +760,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,36 +770,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -827,38 +785,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,9 +807,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -935,7 +930,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,7 +972,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,37 +1044,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,37 +1062,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,37 +1086,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,36 +1104,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1346,15 +1341,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1556,9 +1542,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1574,50 +1562,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1651,16 +1595,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1669,136 +1655,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -1875,60 +1861,60 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1940,67 +1926,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2087,7 +2073,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14195425" y="7326630"/>
+          <a:off x="14195425" y="7288530"/>
           <a:ext cx="4878070" cy="146685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2281,7 +2267,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7258050" y="1078865"/>
+          <a:off x="7258050" y="1040765"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2327,7 +2313,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7258050" y="1707515"/>
+          <a:off x="7258050" y="1669415"/>
           <a:ext cx="0" cy="57150"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2373,7 +2359,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7258050" y="1078865"/>
+          <a:off x="7258050" y="1040765"/>
           <a:ext cx="0" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2419,7 +2405,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7258050" y="1078865"/>
+          <a:off x="7258050" y="1040765"/>
           <a:ext cx="0" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2706,7 +2692,7 @@
   <sheetPr/>
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:K2"/>
     </sheetView>
   </sheetViews>
@@ -2719,7 +2705,7 @@
     <col min="23" max="23" width="8.625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1" spans="2:20">
+    <row r="1" customFormat="1" ht="42" customHeight="1" spans="2:20">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2742,7 +2728,7 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
     </row>
-    <row r="2" ht="19.5" spans="2:24">
+    <row r="2" customFormat="1" ht="16.5" spans="2:24">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2752,9 +2738,9 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="28">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="I2" s="28" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
@@ -2774,7 +2760,7 @@
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
     </row>
-    <row r="3" ht="23.45" customHeight="1" spans="1:25">
+    <row r="3" customFormat="1" ht="23.45" customHeight="1" spans="1:25">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>3</v>
@@ -2819,7 +2805,7 @@
       <c r="X3" s="43"/>
       <c r="Y3" s="69"/>
     </row>
-    <row r="4" ht="31.5" customHeight="1" spans="1:25">
+    <row r="4" customFormat="1" ht="31.5" customHeight="1" spans="1:25">
       <c r="A4" s="6"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
@@ -2866,7 +2852,7 @@
       <c r="X4" s="47"/>
       <c r="Y4" s="70"/>
     </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:25">
+    <row r="5" customFormat="1" ht="22.5" customHeight="1" spans="1:25">
       <c r="A5" s="6"/>
       <c r="B5" s="10"/>
       <c r="C5" s="13" t="s">
@@ -2909,7 +2895,7 @@
       <c r="X5" s="47"/>
       <c r="Y5" s="70"/>
     </row>
-    <row r="6" ht="44.45" customHeight="1" spans="1:25">
+    <row r="6" customFormat="1" ht="44.45" customHeight="1" spans="1:25">
       <c r="A6" s="6"/>
       <c r="B6" s="14" t="s">
         <v>24</v>
@@ -2982,7 +2968,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="2:25">
+    <row r="7" customFormat="1" ht="14.25" spans="2:25">
       <c r="B7" s="15">
         <v>0</v>
       </c>
@@ -3064,11 +3050,20 @@
       <c r="V7" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="W7" s="55"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="72"/>
+      <c r="W7" s="55" t="str">
+        <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
+        <v/>
+      </c>
+      <c r="X7" s="56" t="str">
+        <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
+        <v/>
+      </c>
+      <c r="Y7" s="72" t="str">
+        <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="8" ht="15.75" spans="2:25">
+    <row r="8" customFormat="1" ht="15.75" spans="2:25">
       <c r="B8" s="15">
         <v>0.0416666666666667</v>
       </c>
@@ -3148,11 +3143,20 @@
       <c r="V8" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="W8" s="55"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="72"/>
+      <c r="W8" s="55" t="str">
+        <f>IF(_analysis_day_shift!B2="","",_analysis_day_shift!B2)</f>
+        <v/>
+      </c>
+      <c r="X8" s="56" t="str">
+        <f>IF(_analysis_day_shift!B3="","",_analysis_day_shift!B3)</f>
+        <v/>
+      </c>
+      <c r="Y8" s="72" t="str">
+        <f>IF(_analysis_day_shift!B4="","",_analysis_day_shift!B4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="9" ht="15.75" spans="2:25">
+    <row r="9" customFormat="1" ht="15.75" spans="2:25">
       <c r="B9" s="15">
         <v>0.0833333333333333</v>
       </c>
@@ -3232,11 +3236,20 @@
       <c r="V9" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="55"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="72"/>
+      <c r="W9" s="55" t="str">
+        <f>IF(_analysis_day_shift!C2="","",_analysis_day_shift!C2)</f>
+        <v/>
+      </c>
+      <c r="X9" s="56" t="str">
+        <f>IF(_analysis_day_shift!C3="","",_analysis_day_shift!C3)</f>
+        <v/>
+      </c>
+      <c r="Y9" s="72" t="str">
+        <f>IF(_analysis_day_shift!C4="","",_analysis_day_shift!C4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="10" ht="14.25" spans="2:25">
+    <row r="10" customFormat="1" ht="14.25" spans="2:25">
       <c r="B10" s="15">
         <v>0.125</v>
       </c>
@@ -3316,11 +3329,20 @@
       <c r="V10" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="W10" s="58"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="72"/>
+      <c r="W10" s="58" t="str">
+        <f>IF(_analysis_day_shift!D2="","",_analysis_day_shift!D2)</f>
+        <v/>
+      </c>
+      <c r="X10" s="59" t="str">
+        <f>IF(_analysis_day_shift!D3="","",_analysis_day_shift!D3)</f>
+        <v/>
+      </c>
+      <c r="Y10" s="72" t="str">
+        <f>IF(_analysis_day_shift!D4="","",_analysis_day_shift!D4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="11" ht="14.25" spans="2:25">
+    <row r="11" customFormat="1" ht="14.25" spans="2:25">
       <c r="B11" s="15">
         <v>0.166666666666667</v>
       </c>
@@ -3400,11 +3422,20 @@
       <c r="V11" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="W11" s="58"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="72"/>
+      <c r="W11" s="58" t="str">
+        <f>IF(_analysis_day_shift!E2="","",_analysis_day_shift!E2)</f>
+        <v/>
+      </c>
+      <c r="X11" s="59" t="str">
+        <f>IF(_analysis_day_shift!E3="","",_analysis_day_shift!E3)</f>
+        <v/>
+      </c>
+      <c r="Y11" s="72" t="str">
+        <f>IF(_analysis_day_shift!E4="","",_analysis_day_shift!E4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="12" ht="14.25" spans="2:25">
+    <row r="12" customFormat="1" ht="14.25" spans="2:25">
       <c r="B12" s="15">
         <v>0.208333333333333</v>
       </c>
@@ -3484,11 +3515,20 @@
       <c r="V12" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="W12" s="58"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="72"/>
+      <c r="W12" s="58" t="str">
+        <f>IF(_analysis_day_shift!F2="","",_analysis_day_shift!F2)</f>
+        <v/>
+      </c>
+      <c r="X12" s="59" t="str">
+        <f>IF(_analysis_day_shift!F3="","",_analysis_day_shift!F3)</f>
+        <v/>
+      </c>
+      <c r="Y12" s="72" t="str">
+        <f>IF(_analysis_day_shift!F4="","",_analysis_day_shift!F4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="13" ht="14.25" spans="2:25">
+    <row r="13" customFormat="1" ht="14.25" spans="2:25">
       <c r="B13" s="15">
         <v>0.25</v>
       </c>
@@ -3568,11 +3608,20 @@
       <c r="V13" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="W13" s="58"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="72"/>
+      <c r="W13" s="58" t="str">
+        <f>IF(_analysis_day_shift!G2="","",_analysis_day_shift!G2)</f>
+        <v/>
+      </c>
+      <c r="X13" s="59" t="str">
+        <f>IF(_analysis_day_shift!G3="","",_analysis_day_shift!G3)</f>
+        <v/>
+      </c>
+      <c r="Y13" s="72" t="str">
+        <f>IF(_analysis_day_shift!G4="","",_analysis_day_shift!G4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="14" ht="14.25" spans="2:25">
+    <row r="14" customFormat="1" ht="14.25" spans="2:25">
       <c r="B14" s="15">
         <v>0.291666666666667</v>
       </c>
@@ -3652,11 +3701,20 @@
       <c r="V14" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="W14" s="58"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="72"/>
+      <c r="W14" s="58" t="str">
+        <f>IF(_analysis_day_shift!H2="","",_analysis_day_shift!H2)</f>
+        <v/>
+      </c>
+      <c r="X14" s="59" t="str">
+        <f>IF(_analysis_day_shift!H3="","",_analysis_day_shift!H3)</f>
+        <v/>
+      </c>
+      <c r="Y14" s="72" t="str">
+        <f>IF(_analysis_day_shift!H4="","",_analysis_day_shift!H4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="15" ht="14.25" spans="2:25">
+    <row r="15" customFormat="1" ht="14.25" spans="2:25">
       <c r="B15" s="15">
         <v>0.333333333333333</v>
       </c>
@@ -3736,11 +3794,20 @@
       <c r="V15" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="W15" s="60"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="72"/>
+      <c r="W15" s="60" t="str">
+        <f>IF(_analysis_day_shift!I2="","",_analysis_day_shift!I2)</f>
+        <v/>
+      </c>
+      <c r="X15" s="61" t="str">
+        <f>IF(_analysis_day_shift!I3="","",_analysis_day_shift!I3)</f>
+        <v/>
+      </c>
+      <c r="Y15" s="72" t="str">
+        <f>IF(_analysis_day_shift!I4="","",_analysis_day_shift!I4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="16" ht="14.25" spans="2:25">
+    <row r="16" customFormat="1" ht="14.25" spans="2:25">
       <c r="B16" s="15">
         <v>0.375</v>
       </c>
@@ -3820,11 +3887,20 @@
       <c r="V16" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="W16" s="55"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="72"/>
+      <c r="W16" s="55" t="str">
+        <f>IF(_analysis_day_shift!J2="","",_analysis_day_shift!J2)</f>
+        <v/>
+      </c>
+      <c r="X16" s="61" t="str">
+        <f>IF(_analysis_day_shift!J3="","",_analysis_day_shift!J3)</f>
+        <v/>
+      </c>
+      <c r="Y16" s="72" t="str">
+        <f>IF(_analysis_day_shift!J4="","",_analysis_day_shift!J4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="17" ht="14.25" spans="2:25">
+    <row r="17" customFormat="1" ht="14.25" spans="2:25">
       <c r="B17" s="15">
         <v>0.416666666666666</v>
       </c>
@@ -3906,11 +3982,20 @@
       <c r="V17" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="W17" s="55"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="72"/>
+      <c r="W17" s="55" t="str">
+        <f>IF(_analysis_day_shift!K2="","",_analysis_day_shift!K2)</f>
+        <v/>
+      </c>
+      <c r="X17" s="61" t="str">
+        <f>IF(_analysis_day_shift!K3="","",_analysis_day_shift!K3)</f>
+        <v/>
+      </c>
+      <c r="Y17" s="72" t="str">
+        <f>IF(_analysis_day_shift!K4="","",_analysis_day_shift!K4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="18" ht="15.75" spans="2:25">
+    <row r="18" customFormat="1" ht="15.75" spans="2:25">
       <c r="B18" s="15">
         <v>0.458333333333333</v>
       </c>
@@ -3990,11 +4075,20 @@
       <c r="V18" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="W18" s="58"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="72"/>
+      <c r="W18" s="58" t="str">
+        <f>IF(_analysis_day_shift!L2="","",_analysis_day_shift!L2)</f>
+        <v/>
+      </c>
+      <c r="X18" s="59" t="str">
+        <f>IF(_analysis_day_shift!L3="","",_analysis_day_shift!L3)</f>
+        <v/>
+      </c>
+      <c r="Y18" s="72" t="str">
+        <f>IF(_analysis_day_shift!L4="","",_analysis_day_shift!L4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="19" ht="15.75" spans="2:25">
+    <row r="19" customFormat="1" ht="15.75" spans="2:25">
       <c r="B19" s="15">
         <v>0.5</v>
       </c>
@@ -4074,11 +4168,20 @@
       <c r="V19" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="58"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="72"/>
+      <c r="W19" s="58" t="str">
+        <f>IF(_analysis_day_shift!M2="","",_analysis_day_shift!M2)</f>
+        <v/>
+      </c>
+      <c r="X19" s="59" t="str">
+        <f>IF(_analysis_day_shift!M3="","",_analysis_day_shift!M3)</f>
+        <v/>
+      </c>
+      <c r="Y19" s="72" t="str">
+        <f>IF(_analysis_day_shift!M4="","",_analysis_day_shift!M4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="20" ht="14.25" spans="2:25">
+    <row r="20" customFormat="1" ht="14.25" spans="2:25">
       <c r="B20" s="15">
         <v>0.541666666666666</v>
       </c>
@@ -4158,11 +4261,20 @@
       <c r="V20" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="W20" s="58"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="72"/>
+      <c r="W20" s="58" t="str">
+        <f>IF(_analysis_day_shift!N2="","",_analysis_day_shift!N2)</f>
+        <v/>
+      </c>
+      <c r="X20" s="59" t="str">
+        <f>IF(_analysis_day_shift!N3="","",_analysis_day_shift!N3)</f>
+        <v/>
+      </c>
+      <c r="Y20" s="72" t="str">
+        <f>IF(_analysis_day_shift!N4="","",_analysis_day_shift!N4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="21" ht="14.25" spans="2:25">
+    <row r="21" customFormat="1" ht="14.25" spans="2:25">
       <c r="B21" s="15">
         <v>0.583333333333333</v>
       </c>
@@ -4242,11 +4354,20 @@
       <c r="V21" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="W21" s="58"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="72"/>
+      <c r="W21" s="58" t="str">
+        <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
+        <v/>
+      </c>
+      <c r="X21" s="59" t="str">
+        <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
+        <v/>
+      </c>
+      <c r="Y21" s="72" t="str">
+        <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="22" ht="14.25" spans="2:25">
+    <row r="22" customFormat="1" ht="14.25" spans="2:25">
       <c r="B22" s="15">
         <v>0.625</v>
       </c>
@@ -4326,11 +4447,20 @@
       <c r="V22" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="W22" s="58"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="72"/>
+      <c r="W22" s="58" t="str">
+        <f>IF(_analysis_day_shift!O2="","",_analysis_day_shift!O2)</f>
+        <v/>
+      </c>
+      <c r="X22" s="59" t="str">
+        <f>IF(_analysis_day_shift!O3="","",_analysis_day_shift!O3)</f>
+        <v/>
+      </c>
+      <c r="Y22" s="72" t="str">
+        <f>IF(_analysis_day_shift!O4="","",_analysis_day_shift!O4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="23" ht="14.25" spans="2:25">
+    <row r="23" customFormat="1" ht="14.25" spans="2:25">
       <c r="B23" s="15">
         <v>0.666666666666667</v>
       </c>
@@ -4410,11 +4540,20 @@
       <c r="V23" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="W23" s="58"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="72"/>
+      <c r="W23" s="58" t="str">
+        <f>IF(_analysis_day_shift!P2="","",_analysis_day_shift!P2)</f>
+        <v/>
+      </c>
+      <c r="X23" s="59" t="str">
+        <f>IF(_analysis_day_shift!P3="","",_analysis_day_shift!P3)</f>
+        <v/>
+      </c>
+      <c r="Y23" s="72" t="str">
+        <f>IF(_analysis_day_shift!P4="","",_analysis_day_shift!P4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="24" ht="14.25" spans="2:25">
+    <row r="24" customFormat="1" ht="14.25" spans="2:25">
       <c r="B24" s="15">
         <v>0.708333333333333</v>
       </c>
@@ -4494,11 +4633,20 @@
       <c r="V24" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="W24" s="55"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="72"/>
+      <c r="W24" s="55" t="str">
+        <f>IF(_analysis_day_shift!Q2="","",_analysis_day_shift!Q2)</f>
+        <v/>
+      </c>
+      <c r="X24" s="61" t="str">
+        <f>IF(_analysis_day_shift!Q3="","",_analysis_day_shift!Q3)</f>
+        <v/>
+      </c>
+      <c r="Y24" s="72" t="str">
+        <f>IF(_analysis_day_shift!Q4="","",_analysis_day_shift!Q4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="25" ht="14.25" spans="2:25">
+    <row r="25" customFormat="1" ht="14.25" spans="2:25">
       <c r="B25" s="15">
         <v>0.75</v>
       </c>
@@ -4578,11 +4726,20 @@
       <c r="V25" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="W25" s="55"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="72"/>
+      <c r="W25" s="55" t="str">
+        <f>IF(_analysis_day_shift!R2="","",_analysis_day_shift!R2)</f>
+        <v/>
+      </c>
+      <c r="X25" s="61" t="str">
+        <f>IF(_analysis_day_shift!R3="","",_analysis_day_shift!R3)</f>
+        <v/>
+      </c>
+      <c r="Y25" s="72" t="str">
+        <f>IF(_analysis_day_shift!R4="","",_analysis_day_shift!R4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="26" ht="14.25" spans="2:25">
+    <row r="26" customFormat="1" ht="14.25" spans="2:25">
       <c r="B26" s="15">
         <v>0.791666666666667</v>
       </c>
@@ -4662,11 +4819,20 @@
       <c r="V26" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="W26" s="58"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="72"/>
+      <c r="W26" s="58" t="str">
+        <f>IF(_analysis_day_shift!S2="","",_analysis_day_shift!S2)</f>
+        <v/>
+      </c>
+      <c r="X26" s="59" t="str">
+        <f>IF(_analysis_day_shift!S3="","",_analysis_day_shift!S3)</f>
+        <v/>
+      </c>
+      <c r="Y26" s="72" t="str">
+        <f>IF(_analysis_day_shift!S4="","",_analysis_day_shift!S4)</f>
+        <v/>
+      </c>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="2:25">
+    <row r="27" customFormat="1" ht="15" customHeight="1" spans="2:25">
       <c r="B27" s="15">
         <v>0.833333333333333</v>
       </c>
@@ -4748,7 +4914,7 @@
       <c r="X27" s="63"/>
       <c r="Y27" s="73"/>
     </row>
-    <row r="28" ht="14.1" customHeight="1" spans="2:25">
+    <row r="28" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
       <c r="B28" s="15">
         <v>0.875</v>
       </c>
@@ -4830,7 +4996,7 @@
       <c r="X28" s="65"/>
       <c r="Y28" s="74"/>
     </row>
-    <row r="29" ht="14.1" customHeight="1" spans="2:25">
+    <row r="29" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
       <c r="B29" s="15">
         <v>0.916666666666667</v>
       </c>
@@ -4912,7 +5078,7 @@
       <c r="X29" s="65"/>
       <c r="Y29" s="74"/>
     </row>
-    <row r="30" ht="14.1" customHeight="1" spans="2:25">
+    <row r="30" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
       <c r="B30" s="15">
         <v>0.958333333333333</v>
       </c>
@@ -4994,7 +5160,7 @@
       <c r="X30" s="65"/>
       <c r="Y30" s="74"/>
     </row>
-    <row r="31" ht="14.1" customHeight="1" spans="2:25">
+    <row r="31" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
       <c r="B31" s="17" t="s">
         <v>59</v>
       </c>
@@ -5022,7 +5188,7 @@
       <c r="X31" s="65"/>
       <c r="Y31" s="74"/>
     </row>
-    <row r="32" ht="14.1" customHeight="1" spans="2:25">
+    <row r="32" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
       <c r="B32" s="17" t="s">
         <v>60</v>
       </c>
@@ -5050,7 +5216,7 @@
       <c r="X32" s="65"/>
       <c r="Y32" s="74"/>
     </row>
-    <row r="33" ht="14.1" customHeight="1" spans="2:25">
+    <row r="33" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
       <c r="B33" s="17" t="s">
         <v>61</v>
       </c>
@@ -5078,7 +5244,7 @@
       <c r="X33" s="65"/>
       <c r="Y33" s="74"/>
     </row>
-    <row r="34" ht="14.45" customHeight="1" spans="2:25">
+    <row r="34" customFormat="1" ht="14.45" customHeight="1" spans="2:25">
       <c r="B34" s="18" t="s">
         <v>62</v>
       </c>
@@ -5106,7 +5272,7 @@
       <c r="X34" s="65"/>
       <c r="Y34" s="74"/>
     </row>
-    <row r="35" ht="15.95" customHeight="1" spans="2:25">
+    <row r="35" customFormat="1" ht="15.95" customHeight="1" spans="2:25">
       <c r="B35" s="20" t="s">
         <v>63</v>
       </c>
@@ -5138,7 +5304,7 @@
       <c r="X35" s="65"/>
       <c r="Y35" s="74"/>
     </row>
-    <row r="36" ht="14.1" customHeight="1" spans="2:25">
+    <row r="36" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
       <c r="B36" s="22"/>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
@@ -5291,7 +5457,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:18">
+    <row r="1" customFormat="1" ht="33.75" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -5374,7 +5540,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>

--- a/excel/finished/焦化/CK67-蒸氨（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-蒸氨（日）报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="3.蒸氨（日）" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>6-7#  焦炉氨 水 蒸 馏 操 作 记 录</t>
   </si>
@@ -615,16 +615,46 @@
       <t>接班：</t>
     </r>
   </si>
+  <si>
+    <t>61208/全氨</t>
+  </si>
+  <si>
+    <t>61208/挥发氨</t>
+  </si>
+  <si>
+    <t>61208/固定氨</t>
+  </si>
+  <si>
+    <t>61208/PH</t>
+  </si>
+  <si>
+    <t>61208/氰化物</t>
+  </si>
+  <si>
+    <t>61209/全氨</t>
+  </si>
+  <si>
+    <t>61209/挥发氨</t>
+  </si>
+  <si>
+    <t>61209/固定氨</t>
+  </si>
+  <si>
+    <t>61209/PH</t>
+  </si>
+  <si>
+    <t>61209/氰化物</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -731,20 +761,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,15 +770,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,9 +799,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,9 +830,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,18 +859,26 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -837,34 +889,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -872,12 +897,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -930,6 +960,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -942,7 +1086,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,157 +1134,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,6 +1577,39 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1581,6 +1644,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1595,58 +1667,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1655,136 +1685,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -2692,7 +2722,7 @@
   <sheetPr/>
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:K2"/>
     </sheetView>
   </sheetViews>
@@ -5538,14 +5568,47 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:17">
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/excel/finished/焦化/CK67-蒸氨（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-蒸氨（日）报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="3.蒸氨（日）" sheetId="1" r:id="rId1"/>
@@ -652,8 +652,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
@@ -761,7 +761,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -776,11 +775,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -816,7 +837,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,34 +851,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -866,9 +859,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -882,16 +874,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,6 +885,21 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -960,7 +960,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,7 +978,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,19 +1038,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,97 +1122,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,37 +1140,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1570,28 +1570,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1614,17 +1603,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1644,11 +1627,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1667,16 +1656,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1685,133 +1685,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
@@ -2722,8 +2722,8 @@
   <sheetPr/>
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:K2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5570,8 +5570,8 @@
   <sheetPr/>
   <dimension ref="B1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excel/finished/焦化/CK67-蒸氨（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-蒸氨（日）报表设计.xlsx
@@ -4,20 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="3.蒸氨（日）" sheetId="1" r:id="rId1"/>
     <sheet name="_zhengan_day_hour" sheetId="2" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
-    <sheet name="_analysis_day_shift" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>6-7#  焦炉氨 水 蒸 馏 操 作 记 录</t>
   </si>
@@ -95,9 +93,6 @@
     </r>
   </si>
   <si>
-    <t>SGSSG-BSMCSA35-G010-02A</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -615,36 +610,6 @@
       <t>接班：</t>
     </r>
   </si>
-  <si>
-    <t>61208/全氨</t>
-  </si>
-  <si>
-    <t>61208/挥发氨</t>
-  </si>
-  <si>
-    <t>61208/固定氨</t>
-  </si>
-  <si>
-    <t>61208/PH</t>
-  </si>
-  <si>
-    <t>61208/氰化物</t>
-  </si>
-  <si>
-    <t>61209/全氨</t>
-  </si>
-  <si>
-    <t>61209/挥发氨</t>
-  </si>
-  <si>
-    <t>61209/固定氨</t>
-  </si>
-  <si>
-    <t>61209/PH</t>
-  </si>
-  <si>
-    <t>61209/氰化物</t>
-  </si>
 </sst>
 </file>
 
@@ -652,9 +617,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -686,7 +651,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Times New Roman"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -761,10 +726,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -782,11 +756,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -795,6 +784,64 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -814,30 +861,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,74 +869,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -960,7 +925,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,25 +1027,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,73 +1045,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,55 +1057,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,6 +1073,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="43">
     <border>
@@ -1566,63 +1531,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1659,6 +1567,63 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1673,10 +1638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1685,140 +1650,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1833,7 +1798,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1891,9 +1856,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1912,9 +1874,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2722,8 +2681,8 @@
   <sheetPr/>
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2768,23 +2727,18 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="28" t="str">
-        <f>IF(_metadata!B2="","",_metadata!B2)</f>
-        <v/>
-      </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
@@ -2793,10 +2747,10 @@
     <row r="3" customFormat="1" ht="23.45" customHeight="1" spans="1:25">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2804,198 +2758,198 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30" t="s">
+      <c r="J3" s="28"/>
+      <c r="K3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33" t="s">
+      <c r="P3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="Q3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="39" t="s">
+      <c r="R3" s="38"/>
+      <c r="S3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="40"/>
-      <c r="S3" s="33" t="s">
+      <c r="T3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="41" t="s">
+      <c r="U3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="69"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="67"/>
     </row>
     <row r="4" customFormat="1" ht="31.5" customHeight="1" spans="1:25">
       <c r="A4" s="6"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="34" t="s">
+      <c r="L4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="M4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="N4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="O4" s="34"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="34" t="s">
+      <c r="R4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="36"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="70"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="68"/>
     </row>
     <row r="5" customFormat="1" ht="22.5" customHeight="1" spans="1:25">
       <c r="A5" s="6"/>
       <c r="B5" s="10"/>
       <c r="C5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="G5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="70"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="68"/>
     </row>
     <row r="6" customFormat="1" ht="44.45" customHeight="1" spans="1:25">
       <c r="A6" s="6"/>
       <c r="B6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="U6" s="50" t="s">
+      <c r="V6" s="49"/>
+      <c r="W6" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="V6" s="51"/>
-      <c r="W6" s="52" t="s">
+      <c r="X6" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="X6" s="52" t="s">
+      <c r="Y6" s="69" t="s">
         <v>45</v>
-      </c>
-      <c r="Y6" s="71" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="14.25" spans="2:25">
@@ -3074,24 +3028,15 @@
         <f>IF(_zhengan_day_hour!R2="","",_zhengan_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="U7" s="53" t="s">
+      <c r="U7" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="V7" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="W7" s="55" t="str">
-        <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
-        <v/>
-      </c>
-      <c r="X7" s="56" t="str">
-        <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
-        <v/>
-      </c>
-      <c r="Y7" s="72" t="str">
-        <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
-        <v/>
-      </c>
+      <c r="W7" s="53"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="70"/>
     </row>
     <row r="8" customFormat="1" ht="15.75" spans="2:25">
       <c r="B8" s="15">
@@ -3169,22 +3114,13 @@
         <f>IF(_zhengan_day_hour!R3="","",_zhengan_day_hour!R3)</f>
         <v/>
       </c>
-      <c r="U8" s="53"/>
-      <c r="V8" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="W8" s="55" t="str">
-        <f>IF(_analysis_day_shift!B2="","",_analysis_day_shift!B2)</f>
-        <v/>
-      </c>
-      <c r="X8" s="56" t="str">
-        <f>IF(_analysis_day_shift!B3="","",_analysis_day_shift!B3)</f>
-        <v/>
-      </c>
-      <c r="Y8" s="72" t="str">
-        <f>IF(_analysis_day_shift!B4="","",_analysis_day_shift!B4)</f>
-        <v/>
-      </c>
+      <c r="U8" s="51"/>
+      <c r="V8" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="W8" s="53"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="70"/>
     </row>
     <row r="9" customFormat="1" ht="15.75" spans="2:25">
       <c r="B9" s="15">
@@ -3262,22 +3198,13 @@
         <f>IF(_zhengan_day_hour!R4="","",_zhengan_day_hour!R4)</f>
         <v/>
       </c>
-      <c r="U9" s="53"/>
-      <c r="V9" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="W9" s="55" t="str">
-        <f>IF(_analysis_day_shift!C2="","",_analysis_day_shift!C2)</f>
-        <v/>
-      </c>
-      <c r="X9" s="56" t="str">
-        <f>IF(_analysis_day_shift!C3="","",_analysis_day_shift!C3)</f>
-        <v/>
-      </c>
-      <c r="Y9" s="72" t="str">
-        <f>IF(_analysis_day_shift!C4="","",_analysis_day_shift!C4)</f>
-        <v/>
-      </c>
+      <c r="U9" s="51"/>
+      <c r="V9" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9" s="53"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="70"/>
     </row>
     <row r="10" customFormat="1" ht="14.25" spans="2:25">
       <c r="B10" s="15">
@@ -3355,22 +3282,13 @@
         <f>IF(_zhengan_day_hour!R5="","",_zhengan_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="U10" s="53"/>
-      <c r="V10" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="W10" s="58" t="str">
-        <f>IF(_analysis_day_shift!D2="","",_analysis_day_shift!D2)</f>
-        <v/>
-      </c>
-      <c r="X10" s="59" t="str">
-        <f>IF(_analysis_day_shift!D3="","",_analysis_day_shift!D3)</f>
-        <v/>
-      </c>
-      <c r="Y10" s="72" t="str">
-        <f>IF(_analysis_day_shift!D4="","",_analysis_day_shift!D4)</f>
-        <v/>
-      </c>
+      <c r="U10" s="51"/>
+      <c r="V10" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="W10" s="56"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="70"/>
     </row>
     <row r="11" customFormat="1" ht="14.25" spans="2:25">
       <c r="B11" s="15">
@@ -3448,22 +3366,13 @@
         <f>IF(_zhengan_day_hour!R6="","",_zhengan_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="U11" s="53"/>
-      <c r="V11" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="W11" s="58" t="str">
-        <f>IF(_analysis_day_shift!E2="","",_analysis_day_shift!E2)</f>
-        <v/>
-      </c>
-      <c r="X11" s="59" t="str">
-        <f>IF(_analysis_day_shift!E3="","",_analysis_day_shift!E3)</f>
-        <v/>
-      </c>
-      <c r="Y11" s="72" t="str">
-        <f>IF(_analysis_day_shift!E4="","",_analysis_day_shift!E4)</f>
-        <v/>
-      </c>
+      <c r="U11" s="51"/>
+      <c r="V11" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="W11" s="56"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="70"/>
     </row>
     <row r="12" customFormat="1" ht="14.25" spans="2:25">
       <c r="B12" s="15">
@@ -3541,22 +3450,13 @@
         <f>IF(_zhengan_day_hour!R7="","",_zhengan_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="U12" s="53"/>
-      <c r="V12" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="W12" s="58" t="str">
-        <f>IF(_analysis_day_shift!F2="","",_analysis_day_shift!F2)</f>
-        <v/>
-      </c>
-      <c r="X12" s="59" t="str">
-        <f>IF(_analysis_day_shift!F3="","",_analysis_day_shift!F3)</f>
-        <v/>
-      </c>
-      <c r="Y12" s="72" t="str">
-        <f>IF(_analysis_day_shift!F4="","",_analysis_day_shift!F4)</f>
-        <v/>
-      </c>
+      <c r="U12" s="51"/>
+      <c r="V12" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="W12" s="56"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="70"/>
     </row>
     <row r="13" customFormat="1" ht="14.25" spans="2:25">
       <c r="B13" s="15">
@@ -3634,22 +3534,13 @@
         <f>IF(_zhengan_day_hour!R8="","",_zhengan_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="U13" s="53"/>
-      <c r="V13" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="W13" s="58" t="str">
-        <f>IF(_analysis_day_shift!G2="","",_analysis_day_shift!G2)</f>
-        <v/>
-      </c>
-      <c r="X13" s="59" t="str">
-        <f>IF(_analysis_day_shift!G3="","",_analysis_day_shift!G3)</f>
-        <v/>
-      </c>
-      <c r="Y13" s="72" t="str">
-        <f>IF(_analysis_day_shift!G4="","",_analysis_day_shift!G4)</f>
-        <v/>
-      </c>
+      <c r="U13" s="51"/>
+      <c r="V13" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="W13" s="56"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="70"/>
     </row>
     <row r="14" customFormat="1" ht="14.25" spans="2:25">
       <c r="B14" s="15">
@@ -3727,22 +3618,13 @@
         <f>IF(_zhengan_day_hour!R9="","",_zhengan_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="U14" s="53"/>
-      <c r="V14" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="W14" s="58" t="str">
-        <f>IF(_analysis_day_shift!H2="","",_analysis_day_shift!H2)</f>
-        <v/>
-      </c>
-      <c r="X14" s="59" t="str">
-        <f>IF(_analysis_day_shift!H3="","",_analysis_day_shift!H3)</f>
-        <v/>
-      </c>
-      <c r="Y14" s="72" t="str">
-        <f>IF(_analysis_day_shift!H4="","",_analysis_day_shift!H4)</f>
-        <v/>
-      </c>
+      <c r="U14" s="51"/>
+      <c r="V14" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="W14" s="56"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="70"/>
     </row>
     <row r="15" customFormat="1" ht="14.25" spans="2:25">
       <c r="B15" s="15">
@@ -3820,22 +3702,13 @@
         <f>IF(_zhengan_day_hour!R10="","",_zhengan_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="U15" s="53"/>
-      <c r="V15" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="W15" s="60" t="str">
-        <f>IF(_analysis_day_shift!I2="","",_analysis_day_shift!I2)</f>
-        <v/>
-      </c>
-      <c r="X15" s="61" t="str">
-        <f>IF(_analysis_day_shift!I3="","",_analysis_day_shift!I3)</f>
-        <v/>
-      </c>
-      <c r="Y15" s="72" t="str">
-        <f>IF(_analysis_day_shift!I4="","",_analysis_day_shift!I4)</f>
-        <v/>
-      </c>
+      <c r="U15" s="51"/>
+      <c r="V15" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="W15" s="58"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="70"/>
     </row>
     <row r="16" customFormat="1" ht="14.25" spans="2:25">
       <c r="B16" s="15">
@@ -3913,22 +3786,13 @@
         <f>IF(_zhengan_day_hour!R11="","",_zhengan_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="U16" s="53"/>
-      <c r="V16" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="W16" s="55" t="str">
-        <f>IF(_analysis_day_shift!J2="","",_analysis_day_shift!J2)</f>
-        <v/>
-      </c>
-      <c r="X16" s="61" t="str">
-        <f>IF(_analysis_day_shift!J3="","",_analysis_day_shift!J3)</f>
-        <v/>
-      </c>
-      <c r="Y16" s="72" t="str">
-        <f>IF(_analysis_day_shift!J4="","",_analysis_day_shift!J4)</f>
-        <v/>
-      </c>
+      <c r="U16" s="51"/>
+      <c r="V16" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="W16" s="53"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="70"/>
     </row>
     <row r="17" customFormat="1" ht="14.25" spans="2:25">
       <c r="B17" s="15">
@@ -4006,24 +3870,15 @@
         <f>IF(_zhengan_day_hour!R12="","",_zhengan_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="U17" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="V17" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="W17" s="55" t="str">
-        <f>IF(_analysis_day_shift!K2="","",_analysis_day_shift!K2)</f>
-        <v/>
-      </c>
-      <c r="X17" s="61" t="str">
-        <f>IF(_analysis_day_shift!K3="","",_analysis_day_shift!K3)</f>
-        <v/>
-      </c>
-      <c r="Y17" s="72" t="str">
-        <f>IF(_analysis_day_shift!K4="","",_analysis_day_shift!K4)</f>
-        <v/>
-      </c>
+      <c r="U17" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="V17" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="W17" s="53"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="70"/>
     </row>
     <row r="18" customFormat="1" ht="15.75" spans="2:25">
       <c r="B18" s="15">
@@ -4101,22 +3956,13 @@
         <f>IF(_zhengan_day_hour!R13="","",_zhengan_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="U18" s="53"/>
-      <c r="V18" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="W18" s="58" t="str">
-        <f>IF(_analysis_day_shift!L2="","",_analysis_day_shift!L2)</f>
-        <v/>
-      </c>
-      <c r="X18" s="59" t="str">
-        <f>IF(_analysis_day_shift!L3="","",_analysis_day_shift!L3)</f>
-        <v/>
-      </c>
-      <c r="Y18" s="72" t="str">
-        <f>IF(_analysis_day_shift!L4="","",_analysis_day_shift!L4)</f>
-        <v/>
-      </c>
+      <c r="U18" s="51"/>
+      <c r="V18" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="W18" s="56"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="70"/>
     </row>
     <row r="19" customFormat="1" ht="15.75" spans="2:25">
       <c r="B19" s="15">
@@ -4194,22 +4040,13 @@
         <f>IF(_zhengan_day_hour!R14="","",_zhengan_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="U19" s="53"/>
-      <c r="V19" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="W19" s="58" t="str">
-        <f>IF(_analysis_day_shift!M2="","",_analysis_day_shift!M2)</f>
-        <v/>
-      </c>
-      <c r="X19" s="59" t="str">
-        <f>IF(_analysis_day_shift!M3="","",_analysis_day_shift!M3)</f>
-        <v/>
-      </c>
-      <c r="Y19" s="72" t="str">
-        <f>IF(_analysis_day_shift!M4="","",_analysis_day_shift!M4)</f>
-        <v/>
-      </c>
+      <c r="U19" s="51"/>
+      <c r="V19" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="W19" s="56"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="70"/>
     </row>
     <row r="20" customFormat="1" ht="14.25" spans="2:25">
       <c r="B20" s="15">
@@ -4287,22 +4124,13 @@
         <f>IF(_zhengan_day_hour!R15="","",_zhengan_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="U20" s="53"/>
-      <c r="V20" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="W20" s="58" t="str">
-        <f>IF(_analysis_day_shift!N2="","",_analysis_day_shift!N2)</f>
-        <v/>
-      </c>
-      <c r="X20" s="59" t="str">
-        <f>IF(_analysis_day_shift!N3="","",_analysis_day_shift!N3)</f>
-        <v/>
-      </c>
-      <c r="Y20" s="72" t="str">
-        <f>IF(_analysis_day_shift!N4="","",_analysis_day_shift!N4)</f>
-        <v/>
-      </c>
+      <c r="U20" s="51"/>
+      <c r="V20" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="W20" s="56"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="70"/>
     </row>
     <row r="21" customFormat="1" ht="14.25" spans="2:25">
       <c r="B21" s="15">
@@ -4380,22 +4208,13 @@
         <f>IF(_zhengan_day_hour!R16="","",_zhengan_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="U21" s="53"/>
-      <c r="V21" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="W21" s="58" t="str">
-        <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
-        <v/>
-      </c>
-      <c r="X21" s="59" t="str">
-        <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
-        <v/>
-      </c>
-      <c r="Y21" s="72" t="str">
-        <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
-        <v/>
-      </c>
+      <c r="U21" s="51"/>
+      <c r="V21" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="W21" s="56"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="70"/>
     </row>
     <row r="22" customFormat="1" ht="14.25" spans="2:25">
       <c r="B22" s="15">
@@ -4473,22 +4292,13 @@
         <f>IF(_zhengan_day_hour!R17="","",_zhengan_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="U22" s="53"/>
-      <c r="V22" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="W22" s="58" t="str">
-        <f>IF(_analysis_day_shift!O2="","",_analysis_day_shift!O2)</f>
-        <v/>
-      </c>
-      <c r="X22" s="59" t="str">
-        <f>IF(_analysis_day_shift!O3="","",_analysis_day_shift!O3)</f>
-        <v/>
-      </c>
-      <c r="Y22" s="72" t="str">
-        <f>IF(_analysis_day_shift!O4="","",_analysis_day_shift!O4)</f>
-        <v/>
-      </c>
+      <c r="U22" s="51"/>
+      <c r="V22" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="W22" s="56"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="70"/>
     </row>
     <row r="23" customFormat="1" ht="14.25" spans="2:25">
       <c r="B23" s="15">
@@ -4566,22 +4376,13 @@
         <f>IF(_zhengan_day_hour!R18="","",_zhengan_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="U23" s="53"/>
-      <c r="V23" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="W23" s="58" t="str">
-        <f>IF(_analysis_day_shift!P2="","",_analysis_day_shift!P2)</f>
-        <v/>
-      </c>
-      <c r="X23" s="59" t="str">
-        <f>IF(_analysis_day_shift!P3="","",_analysis_day_shift!P3)</f>
-        <v/>
-      </c>
-      <c r="Y23" s="72" t="str">
-        <f>IF(_analysis_day_shift!P4="","",_analysis_day_shift!P4)</f>
-        <v/>
-      </c>
+      <c r="U23" s="51"/>
+      <c r="V23" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="W23" s="56"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="70"/>
     </row>
     <row r="24" customFormat="1" ht="14.25" spans="2:25">
       <c r="B24" s="15">
@@ -4659,22 +4460,13 @@
         <f>IF(_zhengan_day_hour!R19="","",_zhengan_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="U24" s="53"/>
-      <c r="V24" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="W24" s="55" t="str">
-        <f>IF(_analysis_day_shift!Q2="","",_analysis_day_shift!Q2)</f>
-        <v/>
-      </c>
-      <c r="X24" s="61" t="str">
-        <f>IF(_analysis_day_shift!Q3="","",_analysis_day_shift!Q3)</f>
-        <v/>
-      </c>
-      <c r="Y24" s="72" t="str">
-        <f>IF(_analysis_day_shift!Q4="","",_analysis_day_shift!Q4)</f>
-        <v/>
-      </c>
+      <c r="U24" s="51"/>
+      <c r="V24" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="W24" s="53"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="70"/>
     </row>
     <row r="25" customFormat="1" ht="14.25" spans="2:25">
       <c r="B25" s="15">
@@ -4752,22 +4544,13 @@
         <f>IF(_zhengan_day_hour!R20="","",_zhengan_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="U25" s="53"/>
-      <c r="V25" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="W25" s="55" t="str">
-        <f>IF(_analysis_day_shift!R2="","",_analysis_day_shift!R2)</f>
-        <v/>
-      </c>
-      <c r="X25" s="61" t="str">
-        <f>IF(_analysis_day_shift!R3="","",_analysis_day_shift!R3)</f>
-        <v/>
-      </c>
-      <c r="Y25" s="72" t="str">
-        <f>IF(_analysis_day_shift!R4="","",_analysis_day_shift!R4)</f>
-        <v/>
-      </c>
+      <c r="U25" s="51"/>
+      <c r="V25" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="W25" s="53"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="70"/>
     </row>
     <row r="26" customFormat="1" ht="14.25" spans="2:25">
       <c r="B26" s="15">
@@ -4845,22 +4628,13 @@
         <f>IF(_zhengan_day_hour!R21="","",_zhengan_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="U26" s="53"/>
-      <c r="V26" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="W26" s="58" t="str">
-        <f>IF(_analysis_day_shift!S2="","",_analysis_day_shift!S2)</f>
-        <v/>
-      </c>
-      <c r="X26" s="59" t="str">
-        <f>IF(_analysis_day_shift!S3="","",_analysis_day_shift!S3)</f>
-        <v/>
-      </c>
-      <c r="Y26" s="72" t="str">
-        <f>IF(_analysis_day_shift!S4="","",_analysis_day_shift!S4)</f>
-        <v/>
-      </c>
+      <c r="U26" s="51"/>
+      <c r="V26" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="W26" s="56"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="70"/>
     </row>
     <row r="27" customFormat="1" ht="15" customHeight="1" spans="2:25">
       <c r="B27" s="15">
@@ -4938,11 +4712,11 @@
         <f>IF(_zhengan_day_hour!R22="","",_zhengan_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="U27" s="62"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="63"/>
-      <c r="X27" s="63"/>
-      <c r="Y27" s="73"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="71"/>
     </row>
     <row r="28" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
       <c r="B28" s="15">
@@ -5020,11 +4794,11 @@
         <f>IF(_zhengan_day_hour!R23="","",_zhengan_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="U28" s="64"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="65"/>
-      <c r="Y28" s="74"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="72"/>
     </row>
     <row r="29" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
       <c r="B29" s="15">
@@ -5102,11 +4876,11 @@
         <f>IF(_zhengan_day_hour!R24="","",_zhengan_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="U29" s="64"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="65"/>
-      <c r="Y29" s="74"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="72"/>
     </row>
     <row r="30" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
       <c r="B30" s="15">
@@ -5184,15 +4958,15 @@
         <f>IF(_zhengan_day_hour!R25="","",_zhengan_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="U30" s="64"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="65"/>
-      <c r="Y30" s="74"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
+      <c r="Y30" s="72"/>
     </row>
     <row r="31" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
       <c r="B31" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -5212,15 +4986,15 @@
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
-      <c r="U31" s="64"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="65"/>
-      <c r="X31" s="65"/>
-      <c r="Y31" s="74"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="72"/>
     </row>
     <row r="32" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
       <c r="B32" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -5240,15 +5014,15 @@
       <c r="R32" s="16"/>
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
-      <c r="U32" s="64"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="65"/>
-      <c r="X32" s="65"/>
-      <c r="Y32" s="74"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="72"/>
     </row>
     <row r="33" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
       <c r="B33" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -5268,15 +5042,15 @@
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
-      <c r="U33" s="64"/>
-      <c r="V33" s="65"/>
-      <c r="W33" s="65"/>
-      <c r="X33" s="65"/>
-      <c r="Y33" s="74"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="63"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="72"/>
     </row>
     <row r="34" customFormat="1" ht="14.45" customHeight="1" spans="2:25">
       <c r="B34" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -5296,15 +5070,15 @@
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="19"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="65"/>
-      <c r="Y34" s="74"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="72"/>
     </row>
     <row r="35" customFormat="1" ht="15.95" customHeight="1" spans="2:25">
       <c r="B35" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
@@ -5313,7 +5087,7 @@
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
       <c r="I35" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
@@ -5322,17 +5096,17 @@
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
-      <c r="U35" s="64"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65"/>
-      <c r="Y35" s="74"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="72"/>
     </row>
     <row r="36" customFormat="1" ht="14.1" customHeight="1" spans="2:25">
       <c r="B36" s="22"/>
@@ -5354,11 +5128,11 @@
       <c r="R36" s="23"/>
       <c r="S36" s="23"/>
       <c r="T36" s="23"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="65"/>
-      <c r="W36" s="65"/>
-      <c r="X36" s="65"/>
-      <c r="Y36" s="74"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="72"/>
     </row>
     <row r="37" ht="70.5" customHeight="1" spans="2:25">
       <c r="B37" s="24"/>
@@ -5380,15 +5154,15 @@
       <c r="R37" s="25"/>
       <c r="S37" s="25"/>
       <c r="T37" s="25"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="65"/>
-      <c r="W37" s="65"/>
-      <c r="X37" s="65"/>
-      <c r="Y37" s="74"/>
+      <c r="U37" s="62"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="72"/>
     </row>
     <row r="38" ht="16.5" spans="2:25">
       <c r="B38" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -5397,7 +5171,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
@@ -5406,39 +5180,38 @@
       <c r="N38" s="27"/>
       <c r="O38" s="27"/>
       <c r="P38" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
       <c r="S38" s="27"/>
       <c r="T38" s="27"/>
-      <c r="U38" s="66"/>
-      <c r="V38" s="67"/>
-      <c r="W38" s="67"/>
-      <c r="X38" s="67"/>
-      <c r="Y38" s="75"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="73"/>
     </row>
     <row r="39" spans="21:24">
-      <c r="U39" s="68"/>
-      <c r="V39" s="68"/>
-      <c r="W39" s="68"/>
-      <c r="X39" s="68"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
     </row>
     <row r="40" spans="22:24">
-      <c r="V40" s="68"/>
-      <c r="W40" s="68"/>
-      <c r="X40" s="68"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
     </row>
     <row r="41" spans="22:24">
-      <c r="V41" s="68"/>
-      <c r="W41" s="68"/>
-      <c r="X41" s="68"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="66"/>
+      <c r="X41" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="32">
     <mergeCell ref="B1:T1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="B2:X2"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="Q3:R3"/>
@@ -5489,123 +5262,58 @@
   <sheetData>
     <row r="1" customFormat="1" ht="33.75" spans="1:18">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:Q1"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="2:17">
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
